--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD2EE81-F878-B24D-B0FC-82B936C36BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF89E4F-CE9F-004F-AFC5-96355AFD57C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="460" windowWidth="39880" windowHeight="26720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18340" windowHeight="20340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="178">
   <si>
     <t>Q117</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Q420</t>
   </si>
 </sst>
 </file>
@@ -769,9 +772,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -790,9 +790,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -805,6 +802,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -830,14 +833,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>135467</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>135467</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -854,8 +857,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5981700" y="1346200"/>
-          <a:ext cx="0" cy="9220200"/>
+          <a:off x="6760634" y="1380067"/>
+          <a:ext cx="0" cy="9457266"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -886,14 +889,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>185420</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>185420</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -910,7 +913,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20342860" y="175260"/>
+          <a:off x="21186140" y="175260"/>
           <a:ext cx="0" cy="9080500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1207,7 +1210,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1216,7 +1219,7 @@
     <col min="2" max="16384" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -1224,15 +1227,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B2" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="26">
-        <v>3131.06</v>
-      </c>
-      <c r="D2" s="58">
-        <v>44151</v>
+        <v>3352.15</v>
+      </c>
+      <c r="D2" s="57">
+        <v>44232</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>41</v>
@@ -1242,7 +1245,7 @@
       </c>
       <c r="I2" s="44"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>71</v>
       </c>
@@ -1250,11 +1253,11 @@
         <v>17</v>
       </c>
       <c r="C3" s="28">
-        <f>Reports!X23</f>
-        <v>504</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>175</v>
+        <f>Reports!Y23</f>
+        <v>513</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>177</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>42</v>
@@ -1265,49 +1268,46 @@
       <c r="G3" s="29"/>
       <c r="I3" s="44"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>73</v>
-      </c>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
       <c r="B4" s="24" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="30">
         <f>C2*C3</f>
-        <v>1578054.24</v>
+        <v>1719652.95</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="27">
-        <f>5%</f>
         <v>0.05</v>
       </c>
       <c r="G4" s="29"/>
       <c r="I4" s="47"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B5" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="28">
-        <f>Reports!X34</f>
-        <v>35473</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>175</v>
+        <f>Reports!Y34</f>
+        <v>52580</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>177</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="31">
-        <f>NPV(F4,G28:GU28)</f>
-        <v>2540701.9078591508</v>
+        <f>NPV(F4,H28:GU28)</f>
+        <v>3507253.2809648374</v>
       </c>
       <c r="G5" s="29"/>
       <c r="I5" s="47"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="25" t="s">
         <v>72</v>
       </c>
@@ -1316,18 +1316,18 @@
       </c>
       <c r="C6" s="30">
         <f>C4-C5</f>
-        <v>1542581.24</v>
+        <v>1667072.95</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="32">
         <f>F5+C5</f>
-        <v>2576174.9078591508</v>
+        <v>3559833.2809648374</v>
       </c>
       <c r="I6" s="47"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
@@ -1336,21 +1336,21 @@
       </c>
       <c r="C7" s="33">
         <f>C6/C3</f>
-        <v>3060.6770634920636</v>
+        <v>3249.654873294347</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>68</v>
       </c>
       <c r="F7" s="33">
         <f>F6/C3</f>
-        <v>5111.4581505141878</v>
+        <v>6939.2461617248291</v>
       </c>
       <c r="G7" s="47">
         <f>F7/C2-1</f>
-        <v>0.63250086249199566</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+        <v>1.0700882006249208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B9" s="24">
         <v>2015</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>2018</v>
       </c>
       <c r="F9" s="24">
-        <f t="shared" ref="F9:U9" si="0">E9+1</f>
+        <f t="shared" ref="F9:V9" si="0">E9+1</f>
         <v>2019</v>
       </c>
       <c r="G9" s="24">
@@ -1428,8 +1428,12 @@
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V9" s="24">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="24" t="s">
         <v>27</v>
       </c>
@@ -1454,27 +1458,31 @@
         <v>141247</v>
       </c>
       <c r="G10" s="28">
-        <f>F10*1.15</f>
-        <v>162434.04999999999</v>
+        <f>SUM(Reports!V3:Y3)</f>
+        <v>197349</v>
       </c>
       <c r="H10" s="28">
-        <f t="shared" ref="H10:K10" si="1">G10*1.15</f>
-        <v>186799.15749999997</v>
+        <f>G10*1.1</f>
+        <v>217083.90000000002</v>
       </c>
       <c r="I10" s="28">
-        <f t="shared" si="1"/>
-        <v>214819.03112499995</v>
+        <f t="shared" ref="I10:L10" si="1">H10*1.1</f>
+        <v>238792.29000000004</v>
       </c>
       <c r="J10" s="28">
         <f t="shared" si="1"/>
-        <v>247041.88579374991</v>
+        <v>262671.51900000009</v>
       </c>
       <c r="K10" s="28">
         <f t="shared" si="1"/>
-        <v>284098.16866281239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+        <v>288938.67090000014</v>
+      </c>
+      <c r="L10" s="28">
+        <f t="shared" si="1"/>
+        <v>317832.53799000016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="24" t="s">
         <v>28</v>
       </c>
@@ -1499,27 +1507,31 @@
         <v>17192</v>
       </c>
       <c r="G11" s="28">
-        <f>F11*0.95</f>
-        <v>16332.4</v>
+        <f>SUM(Reports!V4:Y4)</f>
+        <v>16224</v>
       </c>
       <c r="H11" s="28">
-        <f t="shared" ref="H11:K11" si="2">G11*0.95</f>
-        <v>15515.779999999999</v>
+        <f t="shared" ref="H11:L11" si="2">G11*0.95</f>
+        <v>15412.8</v>
       </c>
       <c r="I11" s="28">
         <f t="shared" si="2"/>
-        <v>14739.990999999998</v>
+        <v>14642.159999999998</v>
       </c>
       <c r="J11" s="28">
         <f t="shared" si="2"/>
-        <v>14002.991449999998</v>
+        <v>13910.051999999998</v>
       </c>
       <c r="K11" s="28">
         <f t="shared" si="2"/>
-        <v>13302.841877499997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+        <v>13214.549399999998</v>
+      </c>
+      <c r="L11" s="28">
+        <f t="shared" si="2"/>
+        <v>12553.821929999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="24" t="s">
         <v>76</v>
       </c>
@@ -1544,27 +1556,31 @@
         <v>53761</v>
       </c>
       <c r="G12" s="28">
-        <f>F12*1.2</f>
-        <v>64513.2</v>
+        <f>SUM(Reports!V5:Y5)</f>
+        <v>80437</v>
       </c>
       <c r="H12" s="28">
-        <f t="shared" ref="H12:K12" si="3">G12*1.2</f>
-        <v>77415.839999999997</v>
+        <f t="shared" ref="H12:L12" si="3">G12*1.2</f>
+        <v>96524.4</v>
       </c>
       <c r="I12" s="28">
         <f t="shared" si="3"/>
-        <v>92899.007999999987</v>
+        <v>115829.27999999998</v>
       </c>
       <c r="J12" s="28">
         <f t="shared" si="3"/>
-        <v>111478.80959999998</v>
+        <v>138995.13599999997</v>
       </c>
       <c r="K12" s="28">
         <f t="shared" si="3"/>
-        <v>133774.57151999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+        <v>166794.16319999995</v>
+      </c>
+      <c r="L12" s="28">
+        <f t="shared" si="3"/>
+        <v>200152.99583999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="24" t="s">
         <v>77</v>
       </c>
@@ -1589,27 +1605,31 @@
         <v>19210</v>
       </c>
       <c r="G13" s="28">
-        <f>F13*1.3</f>
-        <v>24973</v>
+        <f>SUM(Reports!V6:Y6)</f>
+        <v>25207</v>
       </c>
       <c r="H13" s="28">
-        <f t="shared" ref="H13:K14" si="4">G13*1.3</f>
-        <v>32464.9</v>
+        <f t="shared" ref="H13:L14" si="4">G13*1.3</f>
+        <v>32769.1</v>
       </c>
       <c r="I13" s="28">
         <f t="shared" si="4"/>
-        <v>42204.37</v>
+        <v>42599.83</v>
       </c>
       <c r="J13" s="28">
         <f t="shared" si="4"/>
-        <v>54865.681000000004</v>
+        <v>55379.779000000002</v>
       </c>
       <c r="K13" s="28">
         <f t="shared" si="4"/>
-        <v>71325.385300000009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+        <v>71993.712700000004</v>
+      </c>
+      <c r="L13" s="28">
+        <f t="shared" si="4"/>
+        <v>93591.826510000014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="24" t="s">
         <v>29</v>
       </c>
@@ -1634,27 +1654,31 @@
         <v>35026</v>
       </c>
       <c r="G14" s="28">
-        <f>F14*1.3</f>
-        <v>45533.8</v>
+        <f>SUM(Reports!V7:Y7)</f>
+        <v>45373</v>
       </c>
       <c r="H14" s="28">
         <f t="shared" si="4"/>
-        <v>59193.94</v>
+        <v>58984.9</v>
       </c>
       <c r="I14" s="28">
         <f t="shared" si="4"/>
-        <v>76952.122000000003</v>
+        <v>76680.37000000001</v>
       </c>
       <c r="J14" s="28">
         <f t="shared" si="4"/>
-        <v>100037.7586</v>
+        <v>99684.481000000014</v>
       </c>
       <c r="K14" s="28">
         <f t="shared" si="4"/>
-        <v>130049.08618000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+        <v>129589.82530000003</v>
+      </c>
+      <c r="L14" s="28">
+        <f t="shared" si="4"/>
+        <v>168466.77289000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="24" t="s">
         <v>30</v>
       </c>
@@ -1679,24 +1703,28 @@
         <v>14086</v>
       </c>
       <c r="G15" s="28">
-        <f>F15*1.4</f>
-        <v>19720.399999999998</v>
+        <f>SUM(Reports!V8:Y8)</f>
+        <v>21477</v>
       </c>
       <c r="H15" s="28">
-        <f t="shared" ref="H15:K15" si="5">G15*1.4</f>
-        <v>27608.559999999994</v>
+        <f t="shared" ref="H15:L15" si="5">G15*1.4</f>
+        <v>30067.8</v>
       </c>
       <c r="I15" s="28">
         <f t="shared" si="5"/>
-        <v>38651.983999999989</v>
+        <v>42094.92</v>
       </c>
       <c r="J15" s="28">
         <f t="shared" si="5"/>
-        <v>54112.777599999979</v>
+        <v>58932.887999999992</v>
       </c>
       <c r="K15" s="28">
         <f t="shared" si="5"/>
-        <v>75757.888639999961</v>
+        <v>82506.043199999986</v>
+      </c>
+      <c r="L15" s="28">
+        <f t="shared" si="5"/>
+        <v>115508.46047999997</v>
       </c>
     </row>
     <row r="17" spans="1:203" x14ac:dyDescent="0.15">
@@ -1723,67 +1751,70 @@
         <f t="shared" ref="F17:K17" si="7">SUM(F10:F15)</f>
         <v>280522</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="35">
         <f t="shared" si="7"/>
-        <v>333506.84999999998</v>
+        <v>386067</v>
       </c>
       <c r="H17" s="36">
         <f t="shared" si="7"/>
-        <v>398998.17749999999</v>
+        <v>450842.89999999997</v>
       </c>
       <c r="I17" s="36">
         <f t="shared" si="7"/>
-        <v>480266.5061249999</v>
+        <v>530638.85000000009</v>
       </c>
       <c r="J17" s="36">
         <f t="shared" si="7"/>
-        <v>581539.90404374991</v>
+        <v>629573.8550000001</v>
       </c>
       <c r="K17" s="36">
         <f t="shared" si="7"/>
-        <v>708307.94218031247</v>
-      </c>
-      <c r="L17" s="37">
-        <f t="shared" ref="L17:U17" si="8">K17*1.1</f>
-        <v>779138.73639834381</v>
+        <v>753036.96470000013</v>
+      </c>
+      <c r="L17" s="36">
+        <f t="shared" ref="L17" si="8">SUM(L10:L15)</f>
+        <v>908106.41564000014</v>
       </c>
       <c r="M17" s="37">
-        <f t="shared" si="8"/>
-        <v>857052.61003817827</v>
+        <f t="shared" ref="M17:V17" si="9">L17*1.1</f>
+        <v>998917.05720400019</v>
       </c>
       <c r="N17" s="37">
-        <f t="shared" si="8"/>
-        <v>942757.87104199617</v>
+        <f t="shared" si="9"/>
+        <v>1098808.7629244004</v>
       </c>
       <c r="O17" s="37">
-        <f t="shared" si="8"/>
-        <v>1037033.6581461959</v>
+        <f t="shared" si="9"/>
+        <v>1208689.6392168405</v>
       </c>
       <c r="P17" s="37">
-        <f t="shared" si="8"/>
-        <v>1140737.0239608155</v>
+        <f t="shared" si="9"/>
+        <v>1329558.6031385246</v>
       </c>
       <c r="Q17" s="37">
-        <f t="shared" si="8"/>
-        <v>1254810.7263568973</v>
+        <f t="shared" si="9"/>
+        <v>1462514.4634523771</v>
       </c>
       <c r="R17" s="37">
-        <f t="shared" si="8"/>
-        <v>1380291.798992587</v>
+        <f t="shared" si="9"/>
+        <v>1608765.9097976149</v>
       </c>
       <c r="S17" s="37">
-        <f t="shared" si="8"/>
-        <v>1518320.9788918458</v>
+        <f t="shared" si="9"/>
+        <v>1769642.5007773766</v>
       </c>
       <c r="T17" s="37">
-        <f t="shared" si="8"/>
-        <v>1670153.0767810305</v>
+        <f t="shared" si="9"/>
+        <v>1946606.7508551143</v>
       </c>
       <c r="U17" s="37">
-        <f t="shared" si="8"/>
-        <v>1837168.3844591337</v>
-      </c>
-      <c r="V17" s="28"/>
+        <f t="shared" si="9"/>
+        <v>2141267.4259406258</v>
+      </c>
+      <c r="V17" s="37">
+        <f t="shared" si="9"/>
+        <v>2355394.1685346887</v>
+      </c>
     </row>
     <row r="18" spans="1:203" x14ac:dyDescent="0.15">
       <c r="A18" s="24" t="s">
@@ -1810,152 +1841,158 @@
         <v>205767</v>
       </c>
       <c r="G18" s="28">
-        <f>G17-G19</f>
-        <v>241297.09583630873</v>
+        <f>SUM(Reports!V11:Y11)</f>
+        <v>291823</v>
       </c>
       <c r="H18" s="28">
-        <f t="shared" ref="H18" si="9">H17-H19</f>
-        <v>284691.04973823583</v>
+        <f t="shared" ref="H18" si="10">H17-H19</f>
+        <v>336277.82728893426</v>
       </c>
       <c r="I18" s="28">
         <f>I17-I19</f>
-        <v>337874.52870322799</v>
+        <v>390490.19508399069</v>
       </c>
       <c r="J18" s="28">
-        <f t="shared" ref="J18" si="10">J17-J19</f>
-        <v>403306.44996429456</v>
+        <f t="shared" ref="J18" si="11">J17-J19</f>
+        <v>456999.43378562911</v>
       </c>
       <c r="K18" s="28">
-        <f t="shared" ref="K18" si="11">K17-K19</f>
-        <v>484138.8636570432</v>
+        <f t="shared" ref="K18:L18" si="12">K17-K19</f>
+        <v>539089.32199751528</v>
       </c>
       <c r="L18" s="28">
-        <f t="shared" ref="L18" si="12">L17-L19</f>
-        <v>532552.75002274755</v>
+        <f t="shared" si="12"/>
+        <v>641020.45125060505</v>
       </c>
       <c r="M18" s="28">
         <f t="shared" ref="M18" si="13">M17-M19</f>
-        <v>585808.02502502233</v>
+        <v>705122.49637566565</v>
       </c>
       <c r="N18" s="28">
         <f t="shared" ref="N18" si="14">N17-N19</f>
-        <v>644388.82752752467</v>
+        <v>775634.74601323227</v>
       </c>
       <c r="O18" s="28">
         <f t="shared" ref="O18" si="15">O17-O19</f>
-        <v>708827.71028027707</v>
+        <v>853198.22061455552</v>
       </c>
       <c r="P18" s="28">
         <f t="shared" ref="P18" si="16">P17-P19</f>
-        <v>779710.48130830494</v>
+        <v>938518.0426760111</v>
       </c>
       <c r="Q18" s="28">
         <f t="shared" ref="Q18:R18" si="17">Q17-Q19</f>
-        <v>857681.52943913545</v>
+        <v>1032369.8469436124</v>
       </c>
       <c r="R18" s="28">
         <f t="shared" si="17"/>
-        <v>943449.68238304905</v>
+        <v>1135606.8316379737</v>
       </c>
       <c r="S18" s="28">
         <f t="shared" ref="S18:U18" si="18">S17-S19</f>
-        <v>1037794.650621354</v>
+        <v>1249167.5148017711</v>
       </c>
       <c r="T18" s="28">
         <f t="shared" si="18"/>
-        <v>1141574.1156834895</v>
+        <v>1374084.2662819484</v>
       </c>
       <c r="U18" s="28">
         <f t="shared" si="18"/>
-        <v>1255731.5272518387</v>
-      </c>
-      <c r="V18" s="28"/>
+        <v>1511492.6929101432</v>
+      </c>
+      <c r="V18" s="28">
+        <f t="shared" ref="V18" si="19">V17-V19</f>
+        <v>1662641.9622011576</v>
+      </c>
     </row>
     <row r="19" spans="1:203" x14ac:dyDescent="0.15">
       <c r="A19" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="30">
-        <f>B17-B18</f>
+        <f t="shared" ref="B19:G19" si="20">B17-B18</f>
         <v>21764</v>
       </c>
       <c r="C19" s="30">
-        <f>C17-C18</f>
+        <f t="shared" si="20"/>
         <v>29938</v>
       </c>
       <c r="D19" s="30">
-        <f>D17-D18</f>
+        <f t="shared" si="20"/>
         <v>40528</v>
       </c>
       <c r="E19" s="30">
-        <f>E17-E18</f>
+        <f t="shared" si="20"/>
         <v>59704</v>
       </c>
       <c r="F19" s="30">
-        <f>F17-F18</f>
+        <f t="shared" si="20"/>
         <v>74755</v>
       </c>
-      <c r="G19" s="28">
-        <f>G17*(F32+0.01)</f>
-        <v>92209.754163691265</v>
+      <c r="G19" s="30">
+        <f t="shared" si="20"/>
+        <v>94244</v>
       </c>
       <c r="H19" s="28">
-        <f t="shared" ref="H19:K19" si="19">H17*(G32+0.01)</f>
-        <v>114307.12776176415</v>
+        <f t="shared" ref="H19:L19" si="21">H17*(G32+0.01)</f>
+        <v>114565.07271106569</v>
       </c>
       <c r="I19" s="28">
-        <f t="shared" si="19"/>
-        <v>142391.97742177188</v>
+        <f t="shared" si="21"/>
+        <v>140148.65491600943</v>
       </c>
       <c r="J19" s="28">
-        <f t="shared" si="19"/>
-        <v>178233.45407945532</v>
+        <f t="shared" si="21"/>
+        <v>172574.42121437099</v>
       </c>
       <c r="K19" s="28">
-        <f t="shared" si="19"/>
-        <v>224169.0785232693</v>
+        <f t="shared" si="21"/>
+        <v>213947.64270248485</v>
       </c>
       <c r="L19" s="28">
-        <f>L17*K32</f>
-        <v>246585.98637559626</v>
+        <f t="shared" si="21"/>
+        <v>267085.96438939503</v>
       </c>
       <c r="M19" s="28">
-        <f t="shared" ref="M19:U19" si="20">M17*L32</f>
-        <v>271244.58501315594</v>
+        <f t="shared" ref="M19:V19" si="22">M17*L32</f>
+        <v>293794.56082833454</v>
       </c>
       <c r="N19" s="28">
-        <f t="shared" si="20"/>
-        <v>298369.04351447156</v>
+        <f t="shared" si="22"/>
+        <v>323174.01691116806</v>
       </c>
       <c r="O19" s="28">
-        <f t="shared" si="20"/>
-        <v>328205.9478659188</v>
+        <f t="shared" si="22"/>
+        <v>355491.41860228492</v>
       </c>
       <c r="P19" s="28">
-        <f t="shared" si="20"/>
-        <v>361026.54265251063</v>
+        <f t="shared" si="22"/>
+        <v>391040.56046251341</v>
       </c>
       <c r="Q19" s="28">
-        <f t="shared" si="20"/>
-        <v>397129.19691776182</v>
+        <f t="shared" si="22"/>
+        <v>430144.61650876474</v>
       </c>
       <c r="R19" s="28">
-        <f t="shared" si="20"/>
-        <v>436842.11660953797</v>
+        <f t="shared" si="22"/>
+        <v>473159.07815964124</v>
       </c>
       <c r="S19" s="28">
-        <f t="shared" si="20"/>
-        <v>480526.32827049179</v>
+        <f t="shared" si="22"/>
+        <v>520474.98597560544</v>
       </c>
       <c r="T19" s="28">
-        <f t="shared" si="20"/>
-        <v>528578.96109754103</v>
+        <f t="shared" si="22"/>
+        <v>572522.484573166</v>
       </c>
       <c r="U19" s="28">
-        <f t="shared" si="20"/>
-        <v>581436.85720729514</v>
-      </c>
-      <c r="V19" s="28"/>
+        <f t="shared" si="22"/>
+        <v>629774.73303048266</v>
+      </c>
+      <c r="V19" s="28">
+        <f t="shared" si="22"/>
+        <v>692752.20633353095</v>
+      </c>
     </row>
     <row r="20" spans="1:203" x14ac:dyDescent="0.15">
       <c r="A20" s="24" t="s">
@@ -1982,66 +2019,69 @@
         <v>35932</v>
       </c>
       <c r="G20" s="28">
-        <f t="shared" ref="G20:K20" si="21">F20*1.25</f>
-        <v>44915</v>
+        <f>SUM(Reports!V13:Y13)</f>
+        <v>42738</v>
       </c>
       <c r="H20" s="28">
-        <f t="shared" si="21"/>
-        <v>56143.75</v>
+        <f>G20*1.2</f>
+        <v>51285.599999999999</v>
       </c>
       <c r="I20" s="28">
-        <f t="shared" si="21"/>
-        <v>70179.6875</v>
+        <f t="shared" ref="I20:L20" si="23">H20*1.2</f>
+        <v>61542.719999999994</v>
       </c>
       <c r="J20" s="28">
-        <f t="shared" si="21"/>
-        <v>87724.609375</v>
+        <f t="shared" si="23"/>
+        <v>73851.263999999996</v>
       </c>
       <c r="K20" s="28">
-        <f t="shared" si="21"/>
-        <v>109655.76171875</v>
+        <f t="shared" si="23"/>
+        <v>88621.516799999998</v>
       </c>
       <c r="L20" s="28">
-        <f>K20*1.05</f>
-        <v>115138.5498046875</v>
+        <f t="shared" si="23"/>
+        <v>106345.82015999999</v>
       </c>
       <c r="M20" s="28">
-        <f t="shared" ref="M20:Q20" si="22">L20*1.05</f>
-        <v>120895.47729492188</v>
+        <f t="shared" ref="M20:Q20" si="24">L20*1.05</f>
+        <v>111663.11116799999</v>
       </c>
       <c r="N20" s="28">
-        <f t="shared" si="22"/>
-        <v>126940.25115966797</v>
+        <f t="shared" si="24"/>
+        <v>117246.26672639999</v>
       </c>
       <c r="O20" s="28">
-        <f t="shared" si="22"/>
-        <v>133287.26371765137</v>
+        <f t="shared" si="24"/>
+        <v>123108.58006271999</v>
       </c>
       <c r="P20" s="28">
-        <f t="shared" si="22"/>
-        <v>139951.62690353394</v>
+        <f t="shared" si="24"/>
+        <v>129264.00906585599</v>
       </c>
       <c r="Q20" s="28">
-        <f t="shared" si="22"/>
-        <v>146949.20824871064</v>
+        <f t="shared" si="24"/>
+        <v>135727.2095191488</v>
       </c>
       <c r="R20" s="28">
-        <f t="shared" ref="R20:U20" si="23">Q20*1.05</f>
-        <v>154296.66866114616</v>
+        <f t="shared" ref="R20:V20" si="25">Q20*1.05</f>
+        <v>142513.56999510626</v>
       </c>
       <c r="S20" s="28">
-        <f t="shared" si="23"/>
-        <v>162011.50209420349</v>
+        <f t="shared" si="25"/>
+        <v>149639.24849486159</v>
       </c>
       <c r="T20" s="28">
-        <f t="shared" si="23"/>
-        <v>170112.07719891367</v>
+        <f t="shared" si="25"/>
+        <v>157121.21091960467</v>
       </c>
       <c r="U20" s="28">
-        <f t="shared" si="23"/>
-        <v>178617.68105885937</v>
-      </c>
-      <c r="V20" s="28"/>
+        <f t="shared" si="25"/>
+        <v>164977.2714655849</v>
+      </c>
+      <c r="V20" s="28">
+        <f t="shared" si="25"/>
+        <v>173226.13503886416</v>
+      </c>
     </row>
     <row r="21" spans="1:203" x14ac:dyDescent="0.15">
       <c r="A21" s="24" t="s">
@@ -2068,66 +2108,69 @@
         <v>18879</v>
       </c>
       <c r="G21" s="28">
-        <f t="shared" ref="G21" si="24">F21*1.3</f>
-        <v>24542.7</v>
+        <f>SUM(Reports!V14:Y14)</f>
+        <v>22010</v>
       </c>
       <c r="H21" s="28">
-        <f t="shared" ref="H21" si="25">G21*1.3</f>
-        <v>31905.510000000002</v>
+        <f>G21*1.3</f>
+        <v>28613</v>
       </c>
       <c r="I21" s="28">
-        <f t="shared" ref="I21" si="26">H21*1.3</f>
-        <v>41477.163</v>
+        <f t="shared" ref="I21:L21" si="26">H21*1.3</f>
+        <v>37196.9</v>
       </c>
       <c r="J21" s="28">
-        <f t="shared" ref="J21:K21" si="27">I21*1.3</f>
-        <v>53920.311900000001</v>
+        <f t="shared" si="26"/>
+        <v>48355.97</v>
       </c>
       <c r="K21" s="28">
+        <f t="shared" si="26"/>
+        <v>62862.761000000006</v>
+      </c>
+      <c r="L21" s="28">
+        <f t="shared" si="26"/>
+        <v>81721.589300000007</v>
+      </c>
+      <c r="M21" s="28">
+        <f t="shared" ref="M21:V21" si="27">L21*1.05</f>
+        <v>85807.668765000009</v>
+      </c>
+      <c r="N21" s="28">
         <f t="shared" si="27"/>
-        <v>70096.405469999998</v>
-      </c>
-      <c r="L21" s="28">
-        <f>K21*1.05</f>
-        <v>73601.225743500007</v>
-      </c>
-      <c r="M21" s="28">
-        <f t="shared" ref="M21:U21" si="28">L21*1.05</f>
-        <v>77281.287030675012</v>
-      </c>
-      <c r="N21" s="28">
-        <f t="shared" si="28"/>
-        <v>81145.35138220877</v>
+        <v>90098.052203250016</v>
       </c>
       <c r="O21" s="28">
-        <f t="shared" si="28"/>
-        <v>85202.618951319208</v>
+        <f t="shared" si="27"/>
+        <v>94602.954813412522</v>
       </c>
       <c r="P21" s="28">
-        <f t="shared" si="28"/>
-        <v>89462.749898885173</v>
+        <f t="shared" si="27"/>
+        <v>99333.102554083147</v>
       </c>
       <c r="Q21" s="28">
-        <f t="shared" si="28"/>
-        <v>93935.887393829442</v>
+        <f t="shared" si="27"/>
+        <v>104299.75768178731</v>
       </c>
       <c r="R21" s="28">
-        <f t="shared" si="28"/>
-        <v>98632.681763520915</v>
+        <f t="shared" si="27"/>
+        <v>109514.74556587667</v>
       </c>
       <c r="S21" s="28">
-        <f t="shared" si="28"/>
-        <v>103564.31585169697</v>
+        <f t="shared" si="27"/>
+        <v>114990.4828441705</v>
       </c>
       <c r="T21" s="28">
-        <f t="shared" si="28"/>
-        <v>108742.53164428183</v>
+        <f t="shared" si="27"/>
+        <v>120740.00698637903</v>
       </c>
       <c r="U21" s="28">
-        <f t="shared" si="28"/>
-        <v>114179.65822649593</v>
-      </c>
-      <c r="V21" s="28"/>
+        <f t="shared" si="27"/>
+        <v>126777.00733569798</v>
+      </c>
+      <c r="V21" s="28">
+        <f t="shared" si="27"/>
+        <v>133115.8577024829</v>
+      </c>
     </row>
     <row r="22" spans="1:203" x14ac:dyDescent="0.15">
       <c r="A22" s="24" t="s">
@@ -2154,238 +2197,247 @@
         <v>5404</v>
       </c>
       <c r="G22" s="28">
-        <f>F22*1.15</f>
-        <v>6214.5999999999995</v>
+        <f>SUM(Reports!V15:Y15)</f>
+        <v>6594</v>
       </c>
       <c r="H22" s="28">
-        <f t="shared" ref="H22:J22" si="29">G22*1.15</f>
-        <v>7146.7899999999991</v>
+        <f>G22*1.2</f>
+        <v>7912.7999999999993</v>
       </c>
       <c r="I22" s="28">
+        <f t="shared" ref="I22:L22" si="28">H22*1.2</f>
+        <v>9495.3599999999988</v>
+      </c>
+      <c r="J22" s="28">
+        <f t="shared" si="28"/>
+        <v>11394.431999999999</v>
+      </c>
+      <c r="K22" s="28">
+        <f t="shared" si="28"/>
+        <v>13673.318399999998</v>
+      </c>
+      <c r="L22" s="28">
+        <f t="shared" si="28"/>
+        <v>16407.982079999998</v>
+      </c>
+      <c r="M22" s="28">
+        <f t="shared" ref="M22:V22" si="29">L22*1.02</f>
+        <v>16736.141721599997</v>
+      </c>
+      <c r="N22" s="28">
         <f t="shared" si="29"/>
-        <v>8218.8084999999992</v>
-      </c>
-      <c r="J22" s="28">
+        <v>17070.864556031996</v>
+      </c>
+      <c r="O22" s="28">
         <f t="shared" si="29"/>
-        <v>9451.6297749999976</v>
-      </c>
-      <c r="K22" s="28">
-        <f t="shared" ref="K22" si="30">J22*1.15</f>
-        <v>10869.374241249996</v>
-      </c>
-      <c r="L22" s="28">
-        <f>K22*1.02</f>
-        <v>11086.761726074996</v>
-      </c>
-      <c r="M22" s="28">
-        <f t="shared" ref="M22:U22" si="31">L22*1.02</f>
-        <v>11308.496960596496</v>
-      </c>
-      <c r="N22" s="28">
-        <f t="shared" si="31"/>
-        <v>11534.666899808426</v>
-      </c>
-      <c r="O22" s="28">
-        <f t="shared" si="31"/>
-        <v>11765.360237804594</v>
+        <v>17412.281847152637</v>
       </c>
       <c r="P22" s="28">
-        <f t="shared" si="31"/>
-        <v>12000.667442560687</v>
+        <f t="shared" si="29"/>
+        <v>17760.527484095692</v>
       </c>
       <c r="Q22" s="28">
-        <f t="shared" si="31"/>
-        <v>12240.680791411902</v>
+        <f t="shared" si="29"/>
+        <v>18115.738033777605</v>
       </c>
       <c r="R22" s="28">
-        <f t="shared" si="31"/>
-        <v>12485.494407240139</v>
+        <f t="shared" si="29"/>
+        <v>18478.052794453157</v>
       </c>
       <c r="S22" s="28">
-        <f t="shared" si="31"/>
-        <v>12735.204295384943</v>
+        <f t="shared" si="29"/>
+        <v>18847.613850342219</v>
       </c>
       <c r="T22" s="28">
-        <f t="shared" si="31"/>
-        <v>12989.908381292642</v>
+        <f t="shared" si="29"/>
+        <v>19224.566127349062</v>
       </c>
       <c r="U22" s="28">
-        <f t="shared" si="31"/>
-        <v>13249.706548918495</v>
-      </c>
-      <c r="V22" s="28"/>
+        <f t="shared" si="29"/>
+        <v>19609.057449896045</v>
+      </c>
+      <c r="V22" s="28">
+        <f t="shared" si="29"/>
+        <v>20001.238598893968</v>
+      </c>
     </row>
     <row r="23" spans="1:203" x14ac:dyDescent="0.15">
       <c r="A23" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="30">
-        <f t="shared" ref="B23:G23" si="32">SUM(B20:B22)</f>
+        <f t="shared" ref="B23:F23" si="30">SUM(B20:B22)</f>
         <v>19541</v>
       </c>
       <c r="C23" s="30">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>25752</v>
       </c>
       <c r="D23" s="30">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>36421</v>
       </c>
       <c r="E23" s="30">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>47284</v>
       </c>
       <c r="F23" s="30">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>60215</v>
       </c>
-      <c r="G23" s="28">
-        <f t="shared" si="32"/>
-        <v>75672.3</v>
+      <c r="G23" s="30">
+        <f t="shared" ref="G23" si="31">SUM(G20:G22)</f>
+        <v>71342</v>
       </c>
       <c r="H23" s="28">
-        <f t="shared" ref="H23" si="33">SUM(H20:H22)</f>
-        <v>95196.05</v>
+        <f t="shared" ref="H23" si="32">SUM(H20:H22)</f>
+        <v>87811.400000000009</v>
       </c>
       <c r="I23" s="28">
-        <f t="shared" ref="I23" si="34">SUM(I20:I22)</f>
-        <v>119875.659</v>
+        <f t="shared" ref="I23" si="33">SUM(I20:I22)</f>
+        <v>108234.98</v>
       </c>
       <c r="J23" s="28">
-        <f t="shared" ref="J23" si="35">SUM(J20:J22)</f>
-        <v>151096.55105000001</v>
+        <f t="shared" ref="J23" si="34">SUM(J20:J22)</f>
+        <v>133601.666</v>
       </c>
       <c r="K23" s="28">
-        <f t="shared" ref="K23" si="36">SUM(K20:K22)</f>
-        <v>190621.54142999998</v>
+        <f t="shared" ref="K23:L23" si="35">SUM(K20:K22)</f>
+        <v>165157.5962</v>
       </c>
       <c r="L23" s="28">
-        <f t="shared" ref="L23" si="37">SUM(L20:L22)</f>
-        <v>199826.53727426249</v>
+        <f t="shared" si="35"/>
+        <v>204475.39153999998</v>
       </c>
       <c r="M23" s="28">
-        <f t="shared" ref="M23" si="38">SUM(M20:M22)</f>
-        <v>209485.26128619339</v>
+        <f t="shared" ref="M23" si="36">SUM(M20:M22)</f>
+        <v>214206.92165459998</v>
       </c>
       <c r="N23" s="28">
-        <f t="shared" ref="N23" si="39">SUM(N20:N22)</f>
-        <v>219620.26944168514</v>
+        <f t="shared" ref="N23" si="37">SUM(N20:N22)</f>
+        <v>224415.18348568201</v>
       </c>
       <c r="O23" s="28">
-        <f t="shared" ref="O23" si="40">SUM(O20:O22)</f>
-        <v>230255.24290677515</v>
+        <f t="shared" ref="O23" si="38">SUM(O20:O22)</f>
+        <v>235123.81672328513</v>
       </c>
       <c r="P23" s="28">
-        <f t="shared" ref="P23" si="41">SUM(P20:P22)</f>
-        <v>241415.0442449798</v>
+        <f t="shared" ref="P23" si="39">SUM(P20:P22)</f>
+        <v>246357.63910403484</v>
       </c>
       <c r="Q23" s="28">
-        <f t="shared" ref="Q23:R23" si="42">SUM(Q20:Q22)</f>
-        <v>253125.77643395198</v>
+        <f t="shared" ref="Q23:R23" si="40">SUM(Q20:Q22)</f>
+        <v>258142.70523471371</v>
       </c>
       <c r="R23" s="28">
-        <f t="shared" si="42"/>
-        <v>265414.84483190719</v>
+        <f t="shared" si="40"/>
+        <v>270506.36835543608</v>
       </c>
       <c r="S23" s="28">
-        <f t="shared" ref="S23:U23" si="43">SUM(S20:S22)</f>
-        <v>278311.02224128542</v>
+        <f t="shared" ref="S23:U23" si="41">SUM(S20:S22)</f>
+        <v>283477.34518937429</v>
       </c>
       <c r="T23" s="28">
-        <f t="shared" si="43"/>
-        <v>291844.51722448814</v>
+        <f t="shared" si="41"/>
+        <v>297085.78403333272</v>
       </c>
       <c r="U23" s="28">
-        <f t="shared" si="43"/>
-        <v>306047.0458342738</v>
-      </c>
-      <c r="V23" s="28"/>
+        <f t="shared" si="41"/>
+        <v>311363.33625117893</v>
+      </c>
+      <c r="V23" s="28">
+        <f t="shared" ref="V23" si="42">SUM(V20:V22)</f>
+        <v>326343.23134024104</v>
+      </c>
     </row>
     <row r="24" spans="1:203" x14ac:dyDescent="0.15">
       <c r="A24" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="30">
-        <f>B19-B23</f>
+        <f t="shared" ref="B24:G24" si="43">B19-B23</f>
         <v>2223</v>
       </c>
       <c r="C24" s="30">
-        <f>C19-C23</f>
+        <f t="shared" si="43"/>
         <v>4186</v>
       </c>
       <c r="D24" s="30">
-        <f>D19-D23</f>
+        <f t="shared" si="43"/>
         <v>4107</v>
       </c>
       <c r="E24" s="30">
-        <f>E19-E23</f>
+        <f t="shared" si="43"/>
         <v>12420</v>
       </c>
       <c r="F24" s="30">
-        <f>F19-F23</f>
+        <f t="shared" si="43"/>
         <v>14540</v>
       </c>
-      <c r="G24" s="28">
-        <f t="shared" ref="G24" si="44">G19-G23</f>
-        <v>16537.454163691262</v>
+      <c r="G24" s="30">
+        <f t="shared" si="43"/>
+        <v>22902</v>
       </c>
       <c r="H24" s="28">
-        <f t="shared" ref="H24" si="45">H19-H23</f>
-        <v>19111.077761764143</v>
+        <f t="shared" ref="H24" si="44">H19-H23</f>
+        <v>26753.672711065679</v>
       </c>
       <c r="I24" s="28">
-        <f t="shared" ref="I24" si="46">I19-I23</f>
-        <v>22516.318421771881</v>
+        <f t="shared" ref="I24" si="45">I19-I23</f>
+        <v>31913.674916009433</v>
       </c>
       <c r="J24" s="28">
-        <f t="shared" ref="J24" si="47">J19-J23</f>
-        <v>27136.903029455309</v>
+        <f t="shared" ref="J24" si="46">J19-J23</f>
+        <v>38972.755214370991</v>
       </c>
       <c r="K24" s="28">
-        <f t="shared" ref="K24" si="48">K19-K23</f>
-        <v>33547.537093269319</v>
+        <f t="shared" ref="K24:L24" si="47">K19-K23</f>
+        <v>48790.046502484853</v>
       </c>
       <c r="L24" s="28">
-        <f t="shared" ref="L24" si="49">L19-L23</f>
-        <v>46759.449101333768</v>
+        <f t="shared" si="47"/>
+        <v>62610.572849395045</v>
       </c>
       <c r="M24" s="28">
-        <f t="shared" ref="M24" si="50">M19-M23</f>
-        <v>61759.323726962553</v>
+        <f t="shared" ref="M24" si="48">M19-M23</f>
+        <v>79587.639173734555</v>
       </c>
       <c r="N24" s="28">
-        <f t="shared" ref="N24" si="51">N19-N23</f>
-        <v>78748.774072786415</v>
+        <f t="shared" ref="N24" si="49">N19-N23</f>
+        <v>98758.833425486053</v>
       </c>
       <c r="O24" s="28">
-        <f t="shared" ref="O24" si="52">O19-O23</f>
-        <v>97950.704959143652</v>
+        <f t="shared" ref="O24" si="50">O19-O23</f>
+        <v>120367.60187899979</v>
       </c>
       <c r="P24" s="28">
-        <f t="shared" ref="P24" si="53">P19-P23</f>
-        <v>119611.49840753083</v>
+        <f t="shared" ref="P24" si="51">P19-P23</f>
+        <v>144682.92135847858</v>
       </c>
       <c r="Q24" s="28">
-        <f t="shared" ref="Q24:R24" si="54">Q19-Q23</f>
-        <v>144003.42048380984</v>
+        <f t="shared" ref="Q24:R24" si="52">Q19-Q23</f>
+        <v>172001.91127405103</v>
       </c>
       <c r="R24" s="28">
-        <f t="shared" si="54"/>
-        <v>171427.27177763078</v>
+        <f t="shared" si="52"/>
+        <v>202652.70980420517</v>
       </c>
       <c r="S24" s="28">
-        <f t="shared" ref="S24:U24" si="55">S19-S23</f>
-        <v>202215.30602920637</v>
+        <f t="shared" ref="S24:U24" si="53">S19-S23</f>
+        <v>236997.64078623115</v>
       </c>
       <c r="T24" s="28">
-        <f t="shared" si="55"/>
-        <v>236734.44387305289</v>
+        <f t="shared" si="53"/>
+        <v>275436.70053983328</v>
       </c>
       <c r="U24" s="28">
-        <f t="shared" si="55"/>
-        <v>275389.81137302134</v>
-      </c>
-      <c r="V24" s="28"/>
+        <f t="shared" si="53"/>
+        <v>318411.39677930373</v>
+      </c>
+      <c r="V24" s="28">
+        <f t="shared" ref="V24" si="54">V19-V23</f>
+        <v>366408.97499328991</v>
+      </c>
     </row>
     <row r="25" spans="1:203" x14ac:dyDescent="0.15">
       <c r="A25" s="24" t="s">
@@ -2412,152 +2464,158 @@
         <v>-575</v>
       </c>
       <c r="G25" s="28">
-        <f>F42*$F$3</f>
-        <v>632.14</v>
+        <f>SUM(Reports!V18:Y18)</f>
+        <v>1204</v>
       </c>
       <c r="H25" s="28">
-        <f t="shared" ref="H25:U25" si="56">G42*$F$3</f>
-        <v>924.0231007827515</v>
+        <f t="shared" ref="H25:V25" si="55">G42*$F$3</f>
+        <v>1051.5999999999999</v>
       </c>
       <c r="I25" s="28">
-        <f t="shared" si="56"/>
-        <v>1264.6198154460487</v>
+        <f t="shared" si="55"/>
+        <v>1524.2896360881166</v>
       </c>
       <c r="J25" s="28">
-        <f t="shared" si="56"/>
-        <v>1668.8957654787537</v>
+        <f t="shared" si="55"/>
+        <v>2092.7350334737748</v>
       </c>
       <c r="K25" s="28">
-        <f t="shared" si="56"/>
-        <v>2158.5943449926326</v>
+        <f t="shared" si="55"/>
+        <v>2790.848367687136</v>
       </c>
       <c r="L25" s="28">
-        <f t="shared" si="56"/>
-        <v>2765.5985794430862</v>
+        <f t="shared" si="55"/>
+        <v>3667.7235804800598</v>
       </c>
       <c r="M25" s="28">
-        <f t="shared" si="56"/>
-        <v>3607.5243900162927</v>
+        <f t="shared" si="55"/>
+        <v>4794.4546197879363</v>
       </c>
       <c r="N25" s="28">
-        <f t="shared" si="56"/>
-        <v>4718.7608080049322</v>
+        <f t="shared" si="55"/>
+        <v>6228.9502142778183</v>
       </c>
       <c r="O25" s="28">
-        <f t="shared" si="56"/>
-        <v>6137.7089009783858</v>
+        <f t="shared" si="55"/>
+        <v>8013.7425361538044</v>
       </c>
       <c r="P25" s="28">
-        <f t="shared" si="56"/>
-        <v>7907.2119366004608</v>
+        <f t="shared" si="55"/>
+        <v>10196.225391211414</v>
       </c>
       <c r="Q25" s="28">
-        <f t="shared" si="56"/>
-        <v>10075.030012450694</v>
+        <f t="shared" si="55"/>
+        <v>12829.170885956144</v>
       </c>
       <c r="R25" s="28">
-        <f t="shared" si="56"/>
-        <v>12694.363670887124</v>
+        <f t="shared" si="55"/>
+        <v>15971.299282676266</v>
       </c>
       <c r="S25" s="28">
-        <f t="shared" si="56"/>
-        <v>15824.431473511928</v>
+        <f t="shared" si="55"/>
+        <v>19687.907437153248</v>
       </c>
       <c r="T25" s="28">
-        <f t="shared" si="56"/>
-        <v>19531.107011058139</v>
+        <f t="shared" si="55"/>
+        <v>24051.561756950785</v>
       </c>
       <c r="U25" s="28">
-        <f t="shared" si="56"/>
-        <v>23887.621376088031</v>
-      </c>
-      <c r="V25" s="28"/>
+        <f t="shared" si="55"/>
+        <v>29142.862215996116</v>
+      </c>
+      <c r="V25" s="28">
+        <f t="shared" si="55"/>
+        <v>35051.284618916216</v>
+      </c>
     </row>
     <row r="26" spans="1:203" x14ac:dyDescent="0.15">
       <c r="A26" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="30">
-        <f>B24+B25</f>
+        <f t="shared" ref="B26:G26" si="56">B24+B25</f>
         <v>1558</v>
       </c>
       <c r="C26" s="30">
-        <f>C24+C25</f>
+        <f t="shared" si="56"/>
         <v>3892</v>
       </c>
       <c r="D26" s="30">
-        <f>D24+D25</f>
+        <f t="shared" si="56"/>
         <v>3807</v>
       </c>
       <c r="E26" s="30">
-        <f>E24+E25</f>
+        <f t="shared" si="56"/>
         <v>11261</v>
       </c>
       <c r="F26" s="30">
-        <f>F24+F25</f>
+        <f t="shared" si="56"/>
         <v>13965</v>
       </c>
-      <c r="G26" s="28">
-        <f t="shared" ref="G26" si="57">G24+G25</f>
-        <v>17169.594163691261</v>
+      <c r="G26" s="30">
+        <f t="shared" si="56"/>
+        <v>24106</v>
       </c>
       <c r="H26" s="28">
-        <f t="shared" ref="H26" si="58">H24+H25</f>
-        <v>20035.100862546897</v>
+        <f t="shared" ref="H26" si="57">H24+H25</f>
+        <v>27805.272711065678</v>
       </c>
       <c r="I26" s="28">
-        <f t="shared" ref="I26" si="59">I24+I25</f>
-        <v>23780.938237217928</v>
+        <f t="shared" ref="I26" si="58">I24+I25</f>
+        <v>33437.964552097546</v>
       </c>
       <c r="J26" s="28">
-        <f t="shared" ref="J26" si="60">J24+J25</f>
-        <v>28805.79879493406</v>
+        <f t="shared" ref="J26" si="59">J24+J25</f>
+        <v>41065.490247844762</v>
       </c>
       <c r="K26" s="28">
-        <f t="shared" ref="K26" si="61">K24+K25</f>
-        <v>35706.131438261953</v>
+        <f t="shared" ref="K26:L26" si="60">K24+K25</f>
+        <v>51580.894870171986</v>
       </c>
       <c r="L26" s="28">
-        <f t="shared" ref="L26" si="62">L24+L25</f>
-        <v>49525.047680776857</v>
+        <f t="shared" si="60"/>
+        <v>66278.296429875103</v>
       </c>
       <c r="M26" s="28">
-        <f t="shared" ref="M26" si="63">M24+M25</f>
-        <v>65366.848116978843</v>
+        <f t="shared" ref="M26" si="61">M24+M25</f>
+        <v>84382.093793522494</v>
       </c>
       <c r="N26" s="28">
-        <f t="shared" ref="N26" si="64">N24+N25</f>
-        <v>83467.534880791354</v>
+        <f t="shared" ref="N26" si="62">N24+N25</f>
+        <v>104987.78363976387</v>
       </c>
       <c r="O26" s="28">
-        <f t="shared" ref="O26" si="65">O24+O25</f>
-        <v>104088.41386012203</v>
+        <f t="shared" ref="O26" si="63">O24+O25</f>
+        <v>128381.3444151536</v>
       </c>
       <c r="P26" s="28">
-        <f t="shared" ref="P26" si="66">P24+P25</f>
-        <v>127518.71034413129</v>
+        <f t="shared" ref="P26" si="64">P24+P25</f>
+        <v>154879.14674969</v>
       </c>
       <c r="Q26" s="28">
-        <f t="shared" ref="Q26:R26" si="67">Q24+Q25</f>
-        <v>154078.45049626054</v>
+        <f t="shared" ref="Q26:R26" si="65">Q24+Q25</f>
+        <v>184831.08216000718</v>
       </c>
       <c r="R26" s="28">
-        <f t="shared" si="67"/>
-        <v>184121.63544851792</v>
+        <f t="shared" si="65"/>
+        <v>218624.00908688144</v>
       </c>
       <c r="S26" s="28">
-        <f t="shared" ref="S26:U26" si="68">S24+S25</f>
-        <v>218039.73750271832</v>
+        <f t="shared" ref="S26:U26" si="66">S24+S25</f>
+        <v>256685.54822338439</v>
       </c>
       <c r="T26" s="28">
-        <f t="shared" si="68"/>
-        <v>256265.55088411103</v>
+        <f t="shared" si="66"/>
+        <v>299488.26229678409</v>
       </c>
       <c r="U26" s="28">
-        <f t="shared" si="68"/>
-        <v>299277.43274910934</v>
-      </c>
-      <c r="V26" s="28"/>
+        <f t="shared" si="66"/>
+        <v>347554.25899529987</v>
+      </c>
+      <c r="V26" s="28">
+        <f t="shared" ref="V26" si="67">V24+V25</f>
+        <v>401460.25961220614</v>
+      </c>
     </row>
     <row r="27" spans="1:203" x14ac:dyDescent="0.15">
       <c r="A27" s="24" t="s">
@@ -2584,878 +2642,881 @@
         <v>2373</v>
       </c>
       <c r="G27" s="28">
-        <f>G26*0.15</f>
-        <v>2575.439124553689</v>
+        <f>SUM(Reports!V20:Y20)</f>
+        <v>2863</v>
       </c>
       <c r="H27" s="28">
-        <f t="shared" ref="H27:Q27" si="69">H26*0.15</f>
-        <v>3005.2651293820345</v>
+        <f t="shared" ref="H27:Q27" si="68">H26*0.15</f>
+        <v>4170.7909066598513</v>
       </c>
       <c r="I27" s="28">
-        <f t="shared" si="69"/>
-        <v>3567.1407355826891</v>
+        <f t="shared" si="68"/>
+        <v>5015.694682814632</v>
       </c>
       <c r="J27" s="28">
-        <f t="shared" si="69"/>
-        <v>4320.8698192401089</v>
+        <f t="shared" si="68"/>
+        <v>6159.8235371767141</v>
       </c>
       <c r="K27" s="28">
-        <f t="shared" si="69"/>
-        <v>5355.9197157392928</v>
+        <f t="shared" si="68"/>
+        <v>7737.1342305257976</v>
       </c>
       <c r="L27" s="28">
-        <f t="shared" si="69"/>
-        <v>7428.7571521165282</v>
+        <f t="shared" ref="L27" si="69">L26*0.15</f>
+        <v>9941.7444644812658</v>
       </c>
       <c r="M27" s="28">
-        <f t="shared" si="69"/>
-        <v>9805.0272175468253</v>
+        <f t="shared" si="68"/>
+        <v>12657.314069028374</v>
       </c>
       <c r="N27" s="28">
-        <f t="shared" si="69"/>
-        <v>12520.130232118703</v>
+        <f t="shared" si="68"/>
+        <v>15748.167545964581</v>
       </c>
       <c r="O27" s="28">
-        <f t="shared" si="69"/>
-        <v>15613.262079018305</v>
+        <f t="shared" si="68"/>
+        <v>19257.201662273037</v>
       </c>
       <c r="P27" s="28">
-        <f t="shared" si="69"/>
-        <v>19127.806551619695</v>
+        <f t="shared" si="68"/>
+        <v>23231.872012453499</v>
       </c>
       <c r="Q27" s="28">
-        <f t="shared" si="69"/>
-        <v>23111.76757443908</v>
+        <f t="shared" si="68"/>
+        <v>27724.662324001078</v>
       </c>
       <c r="R27" s="28">
         <f t="shared" ref="R27:U27" si="70">R26*0.15</f>
-        <v>27618.245317277688</v>
+        <v>32793.601363032212</v>
       </c>
       <c r="S27" s="28">
         <f t="shared" si="70"/>
-        <v>32705.960625407744</v>
+        <v>38502.832233507659</v>
       </c>
       <c r="T27" s="28">
         <f t="shared" si="70"/>
-        <v>38439.83263261665</v>
+        <v>44923.239344517613</v>
       </c>
       <c r="U27" s="28">
         <f t="shared" si="70"/>
-        <v>44891.6149123664</v>
-      </c>
-      <c r="V27" s="28"/>
+        <v>52133.138849294977</v>
+      </c>
+      <c r="V27" s="28">
+        <f t="shared" ref="V27" si="71">V26*0.15</f>
+        <v>60219.038941830921</v>
+      </c>
     </row>
     <row r="28" spans="1:203" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="35">
-        <f t="shared" ref="B28:G28" si="71">B26-B27</f>
+        <f t="shared" ref="B28:G28" si="72">B26-B27</f>
         <v>586</v>
       </c>
       <c r="C28" s="35">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>2371</v>
       </c>
       <c r="D28" s="35">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>3033</v>
       </c>
       <c r="E28" s="35">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>10073</v>
       </c>
       <c r="F28" s="35">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>11592</v>
       </c>
       <c r="G28" s="35">
-        <f t="shared" si="71"/>
-        <v>14594.155039137571</v>
+        <f t="shared" si="72"/>
+        <v>21243</v>
       </c>
       <c r="H28" s="35">
-        <f t="shared" ref="H28" si="72">H26-H27</f>
-        <v>17029.835733164862</v>
+        <f t="shared" ref="H28" si="73">H26-H27</f>
+        <v>23634.481804405827</v>
       </c>
       <c r="I28" s="35">
-        <f t="shared" ref="I28" si="73">I26-I27</f>
-        <v>20213.797501635239</v>
+        <f t="shared" ref="I28" si="74">I26-I27</f>
+        <v>28422.269869282914</v>
       </c>
       <c r="J28" s="35">
-        <f t="shared" ref="J28" si="74">J26-J27</f>
-        <v>24484.928975693951</v>
+        <f t="shared" ref="J28" si="75">J26-J27</f>
+        <v>34905.666710668047</v>
       </c>
       <c r="K28" s="35">
-        <f t="shared" ref="K28" si="75">K26-K27</f>
-        <v>30350.211722522661</v>
+        <f t="shared" ref="K28:L28" si="76">K26-K27</f>
+        <v>43843.760639646185</v>
       </c>
       <c r="L28" s="35">
-        <f t="shared" ref="L28" si="76">L26-L27</f>
-        <v>42096.290528660327</v>
+        <f t="shared" si="76"/>
+        <v>56336.551965393839</v>
       </c>
       <c r="M28" s="35">
         <f>M26-M27</f>
-        <v>55561.820899432016</v>
+        <v>71724.779724494118</v>
       </c>
       <c r="N28" s="35">
         <f t="shared" ref="N28" si="77">N26-N27</f>
-        <v>70947.404648672644</v>
+        <v>89239.616093799297</v>
       </c>
       <c r="O28" s="35">
         <f t="shared" ref="O28" si="78">O26-O27</f>
-        <v>88475.151781103734</v>
+        <v>109124.14275288055</v>
       </c>
       <c r="P28" s="35">
         <f t="shared" ref="P28" si="79">P26-P27</f>
-        <v>108390.9037925116</v>
+        <v>131647.2747372365</v>
       </c>
       <c r="Q28" s="35">
         <f t="shared" ref="Q28:R28" si="80">Q26-Q27</f>
-        <v>130966.68292182146</v>
+        <v>157106.4198360061</v>
       </c>
       <c r="R28" s="35">
         <f t="shared" si="80"/>
-        <v>156503.39013124024</v>
+        <v>185830.40772384923</v>
       </c>
       <c r="S28" s="35">
         <f t="shared" ref="S28:U28" si="81">S26-S27</f>
-        <v>185333.77687731056</v>
+        <v>218182.71598987674</v>
       </c>
       <c r="T28" s="35">
         <f t="shared" si="81"/>
-        <v>217825.71825149437</v>
+        <v>254565.02295226647</v>
       </c>
       <c r="U28" s="35">
         <f t="shared" si="81"/>
-        <v>254385.81783674294</v>
+        <v>295421.12014600489</v>
       </c>
       <c r="V28" s="35">
-        <f t="shared" ref="V28:CD28" si="82">U28*($F$2+1)</f>
-        <v>249298.10148000807</v>
+        <f t="shared" ref="V28" si="82">V26-V27</f>
+        <v>341241.22067037522</v>
       </c>
       <c r="W28" s="35">
-        <f t="shared" si="82"/>
-        <v>244312.13945040791</v>
+        <f t="shared" ref="W28:CD28" si="83">V28*($F$2+1)</f>
+        <v>334416.39625696768</v>
       </c>
       <c r="X28" s="35">
-        <f t="shared" si="82"/>
-        <v>239425.89666139975</v>
+        <f t="shared" si="83"/>
+        <v>327728.06833182834</v>
       </c>
       <c r="Y28" s="35">
-        <f t="shared" si="82"/>
-        <v>234637.37872817175</v>
+        <f t="shared" si="83"/>
+        <v>321173.50696519174</v>
       </c>
       <c r="Z28" s="35">
-        <f t="shared" si="82"/>
-        <v>229944.63115360832</v>
+        <f t="shared" si="83"/>
+        <v>314750.03682588792</v>
       </c>
       <c r="AA28" s="35">
-        <f t="shared" si="82"/>
-        <v>225345.73853053615</v>
+        <f t="shared" si="83"/>
+        <v>308455.03608937014</v>
       </c>
       <c r="AB28" s="35">
-        <f t="shared" si="82"/>
-        <v>220838.82375992544</v>
+        <f t="shared" si="83"/>
+        <v>302285.93536758272</v>
       </c>
       <c r="AC28" s="35">
-        <f t="shared" si="82"/>
-        <v>216422.04728472693</v>
+        <f t="shared" si="83"/>
+        <v>296240.21666023106</v>
       </c>
       <c r="AD28" s="35">
-        <f t="shared" si="82"/>
-        <v>212093.60633903238</v>
+        <f t="shared" si="83"/>
+        <v>290315.41232702642</v>
       </c>
       <c r="AE28" s="35">
-        <f t="shared" si="82"/>
-        <v>207851.73421225173</v>
+        <f t="shared" si="83"/>
+        <v>284509.10408048588</v>
       </c>
       <c r="AF28" s="35">
-        <f t="shared" si="82"/>
-        <v>203694.69952800669</v>
+        <f t="shared" si="83"/>
+        <v>278818.92199887615</v>
       </c>
       <c r="AG28" s="35">
-        <f t="shared" si="82"/>
-        <v>199620.80553744655</v>
+        <f t="shared" si="83"/>
+        <v>273242.54355889861</v>
       </c>
       <c r="AH28" s="35">
-        <f t="shared" si="82"/>
-        <v>195628.3894266976</v>
+        <f t="shared" si="83"/>
+        <v>267777.69268772064</v>
       </c>
       <c r="AI28" s="35">
-        <f t="shared" si="82"/>
-        <v>191715.82163816364</v>
+        <f t="shared" si="83"/>
+        <v>262422.13883396622</v>
       </c>
       <c r="AJ28" s="35">
-        <f t="shared" si="82"/>
-        <v>187881.50520540038</v>
+        <f t="shared" si="83"/>
+        <v>257173.6960572869</v>
       </c>
       <c r="AK28" s="35">
-        <f t="shared" si="82"/>
-        <v>184123.87510129236</v>
+        <f t="shared" si="83"/>
+        <v>252030.22213614115</v>
       </c>
       <c r="AL28" s="35">
-        <f t="shared" si="82"/>
-        <v>180441.39759926652</v>
+        <f t="shared" si="83"/>
+        <v>246989.61769341832</v>
       </c>
       <c r="AM28" s="35">
-        <f t="shared" si="82"/>
-        <v>176832.5696472812</v>
+        <f t="shared" si="83"/>
+        <v>242049.82533954995</v>
       </c>
       <c r="AN28" s="35">
-        <f t="shared" si="82"/>
-        <v>173295.91825433556</v>
+        <f t="shared" si="83"/>
+        <v>237208.82883275894</v>
       </c>
       <c r="AO28" s="35">
-        <f t="shared" si="82"/>
-        <v>169829.99988924884</v>
+        <f t="shared" si="83"/>
+        <v>232464.65225610376</v>
       </c>
       <c r="AP28" s="35">
-        <f t="shared" si="82"/>
-        <v>166433.39989146387</v>
+        <f t="shared" si="83"/>
+        <v>227815.35921098167</v>
       </c>
       <c r="AQ28" s="35">
-        <f t="shared" si="82"/>
-        <v>163104.7318936346</v>
+        <f t="shared" si="83"/>
+        <v>223259.05202676202</v>
       </c>
       <c r="AR28" s="35">
-        <f t="shared" si="82"/>
-        <v>159842.63725576192</v>
+        <f t="shared" si="83"/>
+        <v>218793.87098622677</v>
       </c>
       <c r="AS28" s="35">
-        <f t="shared" si="82"/>
-        <v>156645.78451064668</v>
+        <f t="shared" si="83"/>
+        <v>214417.99356650223</v>
       </c>
       <c r="AT28" s="35">
-        <f t="shared" si="82"/>
-        <v>153512.86882043374</v>
+        <f t="shared" si="83"/>
+        <v>210129.63369517218</v>
       </c>
       <c r="AU28" s="35">
-        <f t="shared" si="82"/>
-        <v>150442.61144402507</v>
+        <f t="shared" si="83"/>
+        <v>205927.04102126873</v>
       </c>
       <c r="AV28" s="35">
-        <f t="shared" si="82"/>
-        <v>147433.75921514456</v>
+        <f t="shared" si="83"/>
+        <v>201808.50020084335</v>
       </c>
       <c r="AW28" s="35">
-        <f t="shared" si="82"/>
-        <v>144485.08403084165</v>
+        <f t="shared" si="83"/>
+        <v>197772.33019682649</v>
       </c>
       <c r="AX28" s="35">
-        <f t="shared" si="82"/>
-        <v>141595.38235022483</v>
+        <f t="shared" si="83"/>
+        <v>193816.88359288996</v>
       </c>
       <c r="AY28" s="35">
-        <f t="shared" si="82"/>
-        <v>138763.47470322033</v>
+        <f t="shared" si="83"/>
+        <v>189940.54592103217</v>
       </c>
       <c r="AZ28" s="35">
-        <f t="shared" si="82"/>
-        <v>135988.20520915592</v>
+        <f t="shared" si="83"/>
+        <v>186141.73500261153</v>
       </c>
       <c r="BA28" s="35">
-        <f t="shared" si="82"/>
-        <v>133268.44110497279</v>
+        <f t="shared" si="83"/>
+        <v>182418.90030255928</v>
       </c>
       <c r="BB28" s="35">
-        <f t="shared" si="82"/>
-        <v>130603.07228287334</v>
+        <f t="shared" si="83"/>
+        <v>178770.5222965081</v>
       </c>
       <c r="BC28" s="35">
-        <f t="shared" si="82"/>
-        <v>127991.01083721587</v>
+        <f t="shared" si="83"/>
+        <v>175195.11185057793</v>
       </c>
       <c r="BD28" s="35">
-        <f t="shared" si="82"/>
-        <v>125431.19062047155</v>
+        <f t="shared" si="83"/>
+        <v>171691.20961356637</v>
       </c>
       <c r="BE28" s="35">
-        <f t="shared" si="82"/>
-        <v>122922.56680806211</v>
+        <f t="shared" si="83"/>
+        <v>168257.38542129504</v>
       </c>
       <c r="BF28" s="35">
-        <f t="shared" si="82"/>
-        <v>120464.11547190086</v>
+        <f t="shared" si="83"/>
+        <v>164892.23771286913</v>
       </c>
       <c r="BG28" s="35">
-        <f t="shared" si="82"/>
-        <v>118054.83316246285</v>
+        <f t="shared" si="83"/>
+        <v>161594.39295861174</v>
       </c>
       <c r="BH28" s="35">
-        <f t="shared" si="82"/>
-        <v>115693.73649921358</v>
+        <f t="shared" si="83"/>
+        <v>158362.5050994395</v>
       </c>
       <c r="BI28" s="35">
-        <f t="shared" si="82"/>
-        <v>113379.8617692293</v>
+        <f t="shared" si="83"/>
+        <v>155195.25499745071</v>
       </c>
       <c r="BJ28" s="35">
-        <f t="shared" si="82"/>
-        <v>111112.26453384472</v>
+        <f t="shared" si="83"/>
+        <v>152091.3498975017</v>
       </c>
       <c r="BK28" s="35">
-        <f t="shared" si="82"/>
-        <v>108890.01924316782</v>
+        <f t="shared" si="83"/>
+        <v>149049.52289955167</v>
       </c>
       <c r="BL28" s="35">
-        <f t="shared" si="82"/>
-        <v>106712.21885830446</v>
+        <f t="shared" si="83"/>
+        <v>146068.53244156064</v>
       </c>
       <c r="BM28" s="35">
-        <f t="shared" si="82"/>
-        <v>104577.97448113837</v>
+        <f t="shared" si="83"/>
+        <v>143147.16179272943</v>
       </c>
       <c r="BN28" s="35">
-        <f t="shared" si="82"/>
-        <v>102486.4149915156</v>
+        <f t="shared" si="83"/>
+        <v>140284.21855687484</v>
       </c>
       <c r="BO28" s="35">
-        <f t="shared" si="82"/>
-        <v>100436.68669168529</v>
+        <f t="shared" si="83"/>
+        <v>137478.53418573734</v>
       </c>
       <c r="BP28" s="35">
-        <f t="shared" si="82"/>
-        <v>98427.952957851579</v>
+        <f t="shared" si="83"/>
+        <v>134728.96350202258</v>
       </c>
       <c r="BQ28" s="35">
-        <f t="shared" si="82"/>
-        <v>96459.393898694543</v>
+        <f t="shared" si="83"/>
+        <v>132034.38423198214</v>
       </c>
       <c r="BR28" s="35">
-        <f t="shared" si="82"/>
-        <v>94530.206020720652</v>
+        <f t="shared" si="83"/>
+        <v>129393.69654734249</v>
       </c>
       <c r="BS28" s="35">
-        <f t="shared" si="82"/>
-        <v>92639.601900306239</v>
+        <f t="shared" si="83"/>
+        <v>126805.82261639564</v>
       </c>
       <c r="BT28" s="35">
-        <f t="shared" si="82"/>
-        <v>90786.809862300113</v>
+        <f t="shared" si="83"/>
+        <v>124269.70616406773</v>
       </c>
       <c r="BU28" s="35">
-        <f t="shared" si="82"/>
-        <v>88971.073665054108</v>
+        <f t="shared" si="83"/>
+        <v>121784.31204078638</v>
       </c>
       <c r="BV28" s="35">
-        <f t="shared" si="82"/>
-        <v>87191.652191753019</v>
+        <f t="shared" si="83"/>
+        <v>119348.62579997064</v>
       </c>
       <c r="BW28" s="35">
-        <f t="shared" si="82"/>
-        <v>85447.819147917951</v>
+        <f t="shared" si="83"/>
+        <v>116961.65328397123</v>
       </c>
       <c r="BX28" s="35">
-        <f t="shared" si="82"/>
-        <v>83738.862764959587</v>
+        <f t="shared" si="83"/>
+        <v>114622.42021829181</v>
       </c>
       <c r="BY28" s="35">
-        <f t="shared" si="82"/>
-        <v>82064.085509660392</v>
+        <f t="shared" si="83"/>
+        <v>112329.97181392596</v>
       </c>
       <c r="BZ28" s="35">
-        <f t="shared" si="82"/>
-        <v>80422.803799467176</v>
+        <f t="shared" si="83"/>
+        <v>110083.37237764744</v>
       </c>
       <c r="CA28" s="35">
-        <f t="shared" si="82"/>
-        <v>78814.347723477826</v>
+        <f t="shared" si="83"/>
+        <v>107881.70493009449</v>
       </c>
       <c r="CB28" s="35">
-        <f t="shared" si="82"/>
-        <v>77238.060769008269</v>
+        <f t="shared" si="83"/>
+        <v>105724.0708314926</v>
       </c>
       <c r="CC28" s="35">
-        <f t="shared" si="82"/>
-        <v>75693.299553628109</v>
+        <f t="shared" si="83"/>
+        <v>103609.58941486274</v>
       </c>
       <c r="CD28" s="35">
-        <f t="shared" si="82"/>
-        <v>74179.43356255554</v>
+        <f t="shared" si="83"/>
+        <v>101537.39762656548</v>
       </c>
       <c r="CE28" s="35">
-        <f t="shared" ref="CE28:DR28" si="83">CD28*($F$2+1)</f>
-        <v>72695.844891304427</v>
+        <f t="shared" ref="CE28:DR28" si="84">CD28*($F$2+1)</f>
+        <v>99506.649674034168</v>
       </c>
       <c r="CF28" s="35">
-        <f t="shared" si="83"/>
-        <v>71241.927993478341</v>
+        <f t="shared" si="84"/>
+        <v>97516.516680553483</v>
       </c>
       <c r="CG28" s="35">
-        <f t="shared" si="83"/>
-        <v>69817.089433608766</v>
+        <f t="shared" si="84"/>
+        <v>95566.186346942413</v>
       </c>
       <c r="CH28" s="35">
-        <f t="shared" si="83"/>
-        <v>68420.747644936593</v>
+        <f t="shared" si="84"/>
+        <v>93654.862620003565</v>
       </c>
       <c r="CI28" s="35">
-        <f t="shared" si="83"/>
-        <v>67052.33269203786</v>
+        <f t="shared" si="84"/>
+        <v>91781.765367603497</v>
       </c>
       <c r="CJ28" s="35">
-        <f t="shared" si="83"/>
-        <v>65711.286038197097</v>
+        <f t="shared" si="84"/>
+        <v>89946.130060251424</v>
       </c>
       <c r="CK28" s="35">
-        <f t="shared" si="83"/>
-        <v>64397.060317433155</v>
+        <f t="shared" si="84"/>
+        <v>88147.207459046389</v>
       </c>
       <c r="CL28" s="35">
-        <f t="shared" si="83"/>
-        <v>63109.119111084488</v>
+        <f t="shared" si="84"/>
+        <v>86384.263309865462</v>
       </c>
       <c r="CM28" s="35">
-        <f t="shared" si="83"/>
-        <v>61846.936728862798</v>
+        <f t="shared" si="84"/>
+        <v>84656.578043668153</v>
       </c>
       <c r="CN28" s="35">
-        <f t="shared" si="83"/>
-        <v>60609.997994285543</v>
+        <f t="shared" si="84"/>
+        <v>82963.446482794781</v>
       </c>
       <c r="CO28" s="35">
-        <f t="shared" si="83"/>
-        <v>59397.798034399828</v>
+        <f t="shared" si="84"/>
+        <v>81304.177553138885</v>
       </c>
       <c r="CP28" s="35">
-        <f t="shared" si="83"/>
-        <v>58209.842073711829</v>
+        <f t="shared" si="84"/>
+        <v>79678.094002076105</v>
       </c>
       <c r="CQ28" s="35">
-        <f t="shared" si="83"/>
-        <v>57045.645232237592</v>
+        <f t="shared" si="84"/>
+        <v>78084.53212203458</v>
       </c>
       <c r="CR28" s="35">
-        <f t="shared" si="83"/>
-        <v>55904.732327592836</v>
+        <f t="shared" si="84"/>
+        <v>76522.841479593888</v>
       </c>
       <c r="CS28" s="35">
-        <f t="shared" si="83"/>
-        <v>54786.637681040978</v>
+        <f t="shared" si="84"/>
+        <v>74992.384650002015</v>
       </c>
       <c r="CT28" s="35">
-        <f t="shared" si="83"/>
-        <v>53690.904927420161</v>
+        <f t="shared" si="84"/>
+        <v>73492.536957001968</v>
       </c>
       <c r="CU28" s="35">
-        <f t="shared" si="83"/>
-        <v>52617.086828871754</v>
+        <f t="shared" si="84"/>
+        <v>72022.686217861934</v>
       </c>
       <c r="CV28" s="35">
-        <f t="shared" si="83"/>
-        <v>51564.745092294317</v>
+        <f t="shared" si="84"/>
+        <v>70582.232493504693</v>
       </c>
       <c r="CW28" s="35">
-        <f t="shared" si="83"/>
-        <v>50533.450190448428</v>
+        <f t="shared" si="84"/>
+        <v>69170.587843634596</v>
       </c>
       <c r="CX28" s="35">
-        <f t="shared" si="83"/>
-        <v>49522.781186639455</v>
+        <f t="shared" si="84"/>
+        <v>67787.176086761901</v>
       </c>
       <c r="CY28" s="35">
-        <f t="shared" si="83"/>
-        <v>48532.325562906663</v>
+        <f t="shared" si="84"/>
+        <v>66431.432565026669</v>
       </c>
       <c r="CZ28" s="35">
-        <f t="shared" si="83"/>
-        <v>47561.679051648527</v>
+        <f t="shared" si="84"/>
+        <v>65102.803913726137</v>
       </c>
       <c r="DA28" s="35">
-        <f t="shared" si="83"/>
-        <v>46610.445470615559</v>
+        <f t="shared" si="84"/>
+        <v>63800.747835451613</v>
       </c>
       <c r="DB28" s="35">
-        <f t="shared" si="83"/>
-        <v>45678.236561203244</v>
+        <f t="shared" si="84"/>
+        <v>62524.732878742579</v>
       </c>
       <c r="DC28" s="35">
-        <f t="shared" si="83"/>
-        <v>44764.671829979176</v>
+        <f t="shared" si="84"/>
+        <v>61274.238221167725</v>
       </c>
       <c r="DD28" s="35">
-        <f t="shared" si="83"/>
-        <v>43869.378393379593</v>
+        <f t="shared" si="84"/>
+        <v>60048.753456744373</v>
       </c>
       <c r="DE28" s="35">
-        <f t="shared" si="83"/>
-        <v>42991.990825512003</v>
+        <f t="shared" si="84"/>
+        <v>58847.778387609484</v>
       </c>
       <c r="DF28" s="35">
-        <f t="shared" si="83"/>
-        <v>42132.151009001762</v>
+        <f t="shared" si="84"/>
+        <v>57670.822819857291</v>
       </c>
       <c r="DG28" s="35">
-        <f t="shared" si="83"/>
-        <v>41289.507988821722</v>
+        <f t="shared" si="84"/>
+        <v>56517.406363460141</v>
       </c>
       <c r="DH28" s="35">
-        <f t="shared" si="83"/>
-        <v>40463.717829045287</v>
+        <f t="shared" si="84"/>
+        <v>55387.05823619094</v>
       </c>
       <c r="DI28" s="35">
-        <f t="shared" si="83"/>
-        <v>39654.44347246438</v>
+        <f t="shared" si="84"/>
+        <v>54279.317071467121</v>
       </c>
       <c r="DJ28" s="35">
-        <f t="shared" si="83"/>
-        <v>38861.35460301509</v>
+        <f t="shared" si="84"/>
+        <v>53193.73073003778</v>
       </c>
       <c r="DK28" s="35">
-        <f t="shared" si="83"/>
-        <v>38084.127510954786</v>
+        <f t="shared" si="84"/>
+        <v>52129.856115437025</v>
       </c>
       <c r="DL28" s="35">
-        <f t="shared" si="83"/>
-        <v>37322.444960735687</v>
+        <f t="shared" si="84"/>
+        <v>51087.258993128286</v>
       </c>
       <c r="DM28" s="35">
-        <f t="shared" si="83"/>
-        <v>36575.996061520971</v>
+        <f t="shared" si="84"/>
+        <v>50065.513813265716</v>
       </c>
       <c r="DN28" s="35">
-        <f t="shared" si="83"/>
-        <v>35844.47614029055</v>
+        <f t="shared" si="84"/>
+        <v>49064.203537000401</v>
       </c>
       <c r="DO28" s="35">
-        <f t="shared" si="83"/>
-        <v>35127.58661748474</v>
+        <f t="shared" si="84"/>
+        <v>48082.919466260391</v>
       </c>
       <c r="DP28" s="35">
-        <f t="shared" si="83"/>
-        <v>34425.034885135043</v>
+        <f t="shared" si="84"/>
+        <v>47121.261076935181</v>
       </c>
       <c r="DQ28" s="35">
-        <f t="shared" si="83"/>
-        <v>33736.534187432342</v>
+        <f t="shared" si="84"/>
+        <v>46178.835855396479</v>
       </c>
       <c r="DR28" s="35">
-        <f t="shared" si="83"/>
-        <v>33061.803503683695</v>
+        <f t="shared" si="84"/>
+        <v>45255.259138288551</v>
       </c>
       <c r="DS28" s="35">
-        <f t="shared" ref="DS28" si="84">DR28*($F$2+1)</f>
-        <v>32400.56743361002</v>
+        <f t="shared" ref="DS28" si="85">DR28*($F$2+1)</f>
+        <v>44350.153955522779</v>
       </c>
       <c r="DT28" s="35">
-        <f t="shared" ref="DT28" si="85">DS28*($F$2+1)</f>
-        <v>31752.55608493782</v>
+        <f t="shared" ref="DT28" si="86">DS28*($F$2+1)</f>
+        <v>43463.150876412321</v>
       </c>
       <c r="DU28" s="35">
-        <f t="shared" ref="DU28" si="86">DT28*($F$2+1)</f>
-        <v>31117.504963239062</v>
+        <f t="shared" ref="DU28" si="87">DT28*($F$2+1)</f>
+        <v>42593.887858884074</v>
       </c>
       <c r="DV28" s="35">
-        <f t="shared" ref="DV28" si="87">DU28*($F$2+1)</f>
-        <v>30495.15486397428</v>
+        <f t="shared" ref="DV28" si="88">DU28*($F$2+1)</f>
+        <v>41742.010101706393</v>
       </c>
       <c r="DW28" s="35">
-        <f t="shared" ref="DW28" si="88">DV28*($F$2+1)</f>
-        <v>29885.251766694793</v>
+        <f t="shared" ref="DW28" si="89">DV28*($F$2+1)</f>
+        <v>40907.169899672263</v>
       </c>
       <c r="DX28" s="35">
-        <f t="shared" ref="DX28" si="89">DW28*($F$2+1)</f>
-        <v>29287.546731360897</v>
+        <f t="shared" ref="DX28" si="90">DW28*($F$2+1)</f>
+        <v>40089.026501678818</v>
       </c>
       <c r="DY28" s="35">
-        <f t="shared" ref="DY28" si="90">DX28*($F$2+1)</f>
-        <v>28701.795796733677</v>
+        <f t="shared" ref="DY28" si="91">DX28*($F$2+1)</f>
+        <v>39287.245971645243</v>
       </c>
       <c r="DZ28" s="35">
-        <f t="shared" ref="DZ28" si="91">DY28*($F$2+1)</f>
-        <v>28127.759880799003</v>
+        <f t="shared" ref="DZ28" si="92">DY28*($F$2+1)</f>
+        <v>38501.501052212341</v>
       </c>
       <c r="EA28" s="35">
-        <f t="shared" ref="EA28" si="92">DZ28*($F$2+1)</f>
-        <v>27565.204683183023</v>
+        <f t="shared" ref="EA28" si="93">DZ28*($F$2+1)</f>
+        <v>37731.47103116809</v>
       </c>
       <c r="EB28" s="35">
-        <f t="shared" ref="EB28" si="93">EA28*($F$2+1)</f>
-        <v>27013.900589519362</v>
+        <f t="shared" ref="EB28" si="94">EA28*($F$2+1)</f>
+        <v>36976.841610544725</v>
       </c>
       <c r="EC28" s="35">
-        <f t="shared" ref="EC28" si="94">EB28*($F$2+1)</f>
-        <v>26473.622577728973</v>
+        <f t="shared" ref="EC28" si="95">EB28*($F$2+1)</f>
+        <v>36237.304778333833</v>
       </c>
       <c r="ED28" s="35">
-        <f t="shared" ref="ED28" si="95">EC28*($F$2+1)</f>
-        <v>25944.150126174394</v>
+        <f t="shared" ref="ED28" si="96">EC28*($F$2+1)</f>
+        <v>35512.558682767158</v>
       </c>
       <c r="EE28" s="35">
-        <f t="shared" ref="EE28" si="96">ED28*($F$2+1)</f>
-        <v>25425.267123650905</v>
+        <f t="shared" ref="EE28" si="97">ED28*($F$2+1)</f>
+        <v>34802.307509111815</v>
       </c>
       <c r="EF28" s="35">
-        <f t="shared" ref="EF28" si="97">EE28*($F$2+1)</f>
-        <v>24916.761781177887</v>
+        <f t="shared" ref="EF28" si="98">EE28*($F$2+1)</f>
+        <v>34106.26135892958</v>
       </c>
       <c r="EG28" s="35">
-        <f t="shared" ref="EG28" si="98">EF28*($F$2+1)</f>
-        <v>24418.426545554328</v>
+        <f t="shared" ref="EG28" si="99">EF28*($F$2+1)</f>
+        <v>33424.136131750987</v>
       </c>
       <c r="EH28" s="35">
-        <f t="shared" ref="EH28" si="99">EG28*($F$2+1)</f>
-        <v>23930.05801464324</v>
+        <f t="shared" ref="EH28" si="100">EG28*($F$2+1)</f>
+        <v>32755.653409115966</v>
       </c>
       <c r="EI28" s="35">
-        <f t="shared" ref="EI28" si="100">EH28*($F$2+1)</f>
-        <v>23451.456854350374</v>
+        <f t="shared" ref="EI28" si="101">EH28*($F$2+1)</f>
+        <v>32100.540340933647</v>
       </c>
       <c r="EJ28" s="35">
-        <f t="shared" ref="EJ28" si="101">EI28*($F$2+1)</f>
-        <v>22982.427717263367</v>
+        <f t="shared" ref="EJ28" si="102">EI28*($F$2+1)</f>
+        <v>31458.529534114972</v>
       </c>
       <c r="EK28" s="35">
-        <f t="shared" ref="EK28" si="102">EJ28*($F$2+1)</f>
-        <v>22522.779162918097</v>
+        <f t="shared" ref="EK28" si="103">EJ28*($F$2+1)</f>
+        <v>30829.358943432671</v>
       </c>
       <c r="EL28" s="35">
-        <f t="shared" ref="EL28" si="103">EK28*($F$2+1)</f>
-        <v>22072.323579659736</v>
+        <f t="shared" ref="EL28" si="104">EK28*($F$2+1)</f>
+        <v>30212.771764564019</v>
       </c>
       <c r="EM28" s="35">
-        <f t="shared" ref="EM28" si="104">EL28*($F$2+1)</f>
-        <v>21630.877108066543</v>
+        <f t="shared" ref="EM28" si="105">EL28*($F$2+1)</f>
+        <v>29608.516329272737</v>
       </c>
       <c r="EN28" s="35">
-        <f t="shared" ref="EN28" si="105">EM28*($F$2+1)</f>
-        <v>21198.259565905213</v>
+        <f t="shared" ref="EN28" si="106">EM28*($F$2+1)</f>
+        <v>29016.346002687282</v>
       </c>
       <c r="EO28" s="35">
-        <f t="shared" ref="EO28" si="106">EN28*($F$2+1)</f>
-        <v>20774.294374587109</v>
+        <f t="shared" ref="EO28" si="107">EN28*($F$2+1)</f>
+        <v>28436.019082633535</v>
       </c>
       <c r="EP28" s="35">
-        <f t="shared" ref="EP28" si="107">EO28*($F$2+1)</f>
-        <v>20358.808487095368</v>
+        <f t="shared" ref="EP28" si="108">EO28*($F$2+1)</f>
+        <v>27867.298700980864</v>
       </c>
       <c r="EQ28" s="35">
-        <f t="shared" ref="EQ28" si="108">EP28*($F$2+1)</f>
-        <v>19951.632317353462</v>
+        <f t="shared" ref="EQ28" si="109">EP28*($F$2+1)</f>
+        <v>27309.952726961244</v>
       </c>
       <c r="ER28" s="35">
-        <f t="shared" ref="ER28" si="109">EQ28*($F$2+1)</f>
-        <v>19552.599671006392</v>
+        <f t="shared" ref="ER28" si="110">EQ28*($F$2+1)</f>
+        <v>26763.753672422019</v>
       </c>
       <c r="ES28" s="35">
-        <f t="shared" ref="ES28" si="110">ER28*($F$2+1)</f>
-        <v>19161.547677586263</v>
+        <f t="shared" ref="ES28" si="111">ER28*($F$2+1)</f>
+        <v>26228.478598973579</v>
       </c>
       <c r="ET28" s="35">
-        <f t="shared" ref="ET28" si="111">ES28*($F$2+1)</f>
-        <v>18778.316724034536</v>
+        <f t="shared" ref="ET28" si="112">ES28*($F$2+1)</f>
+        <v>25703.909026994108</v>
       </c>
       <c r="EU28" s="35">
-        <f t="shared" ref="EU28" si="112">ET28*($F$2+1)</f>
-        <v>18402.750389553843</v>
+        <f t="shared" ref="EU28" si="113">ET28*($F$2+1)</f>
+        <v>25189.830846454224</v>
       </c>
       <c r="EV28" s="35">
-        <f t="shared" ref="EV28" si="113">EU28*($F$2+1)</f>
-        <v>18034.695381762765</v>
+        <f t="shared" ref="EV28" si="114">EU28*($F$2+1)</f>
+        <v>24686.034229525139</v>
       </c>
       <c r="EW28" s="35">
-        <f t="shared" ref="EW28" si="114">EV28*($F$2+1)</f>
-        <v>17674.001474127508</v>
+        <f t="shared" ref="EW28" si="115">EV28*($F$2+1)</f>
+        <v>24192.313544934637</v>
       </c>
       <c r="EX28" s="35">
-        <f t="shared" ref="EX28" si="115">EW28*($F$2+1)</f>
-        <v>17320.521444644957</v>
+        <f t="shared" ref="EX28" si="116">EW28*($F$2+1)</f>
+        <v>23708.467274035946</v>
       </c>
       <c r="EY28" s="35">
-        <f t="shared" ref="EY28" si="116">EX28*($F$2+1)</f>
-        <v>16974.111015752056</v>
+        <f t="shared" ref="EY28" si="117">EX28*($F$2+1)</f>
+        <v>23234.297928555225</v>
       </c>
       <c r="EZ28" s="35">
-        <f t="shared" ref="EZ28" si="117">EY28*($F$2+1)</f>
-        <v>16634.628795437016</v>
+        <f t="shared" ref="EZ28" si="118">EY28*($F$2+1)</f>
+        <v>22769.611969984118</v>
       </c>
       <c r="FA28" s="35">
-        <f t="shared" ref="FA28" si="118">EZ28*($F$2+1)</f>
-        <v>16301.936219528276</v>
+        <f t="shared" ref="FA28" si="119">EZ28*($F$2+1)</f>
+        <v>22314.219730584435</v>
       </c>
       <c r="FB28" s="35">
-        <f t="shared" ref="FB28" si="119">FA28*($F$2+1)</f>
-        <v>15975.897495137709</v>
+        <f t="shared" ref="FB28" si="120">FA28*($F$2+1)</f>
+        <v>21867.935335972747</v>
       </c>
       <c r="FC28" s="35">
-        <f t="shared" ref="FC28" si="120">FB28*($F$2+1)</f>
-        <v>15656.379545234955</v>
+        <f t="shared" ref="FC28" si="121">FB28*($F$2+1)</f>
+        <v>21430.57662925329</v>
       </c>
       <c r="FD28" s="35">
-        <f t="shared" ref="FD28" si="121">FC28*($F$2+1)</f>
-        <v>15343.251954330255</v>
+        <f t="shared" ref="FD28" si="122">FC28*($F$2+1)</f>
+        <v>21001.965096668224</v>
       </c>
       <c r="FE28" s="35">
-        <f t="shared" ref="FE28" si="122">FD28*($F$2+1)</f>
-        <v>15036.386915243649</v>
+        <f t="shared" ref="FE28" si="123">FD28*($F$2+1)</f>
+        <v>20581.92579473486</v>
       </c>
       <c r="FF28" s="35">
-        <f t="shared" ref="FF28" si="123">FE28*($F$2+1)</f>
-        <v>14735.659176938776</v>
+        <f t="shared" ref="FF28" si="124">FE28*($F$2+1)</f>
+        <v>20170.287278840162</v>
       </c>
       <c r="FG28" s="35">
-        <f t="shared" ref="FG28" si="124">FF28*($F$2+1)</f>
-        <v>14440.945993400001</v>
+        <f t="shared" ref="FG28" si="125">FF28*($F$2+1)</f>
+        <v>19766.881533263357</v>
       </c>
       <c r="FH28" s="35">
-        <f t="shared" ref="FH28" si="125">FG28*($F$2+1)</f>
-        <v>14152.127073531999</v>
+        <f t="shared" ref="FH28" si="126">FG28*($F$2+1)</f>
+        <v>19371.543902598089</v>
       </c>
       <c r="FI28" s="35">
-        <f t="shared" ref="FI28" si="126">FH28*($F$2+1)</f>
-        <v>13869.084532061359</v>
+        <f t="shared" ref="FI28" si="127">FH28*($F$2+1)</f>
+        <v>18984.113024546128</v>
       </c>
       <c r="FJ28" s="35">
-        <f t="shared" ref="FJ28" si="127">FI28*($F$2+1)</f>
-        <v>13591.702841420132</v>
+        <f t="shared" ref="FJ28" si="128">FI28*($F$2+1)</f>
+        <v>18604.430764055207</v>
       </c>
       <c r="FK28" s="35">
-        <f t="shared" ref="FK28" si="128">FJ28*($F$2+1)</f>
-        <v>13319.86878459173</v>
+        <f t="shared" ref="FK28" si="129">FJ28*($F$2+1)</f>
+        <v>18232.342148774103</v>
       </c>
       <c r="FL28" s="35">
-        <f t="shared" ref="FL28" si="129">FK28*($F$2+1)</f>
-        <v>13053.471408899895</v>
+        <f t="shared" ref="FL28" si="130">FK28*($F$2+1)</f>
+        <v>17867.695305798621</v>
       </c>
       <c r="FM28" s="35">
-        <f t="shared" ref="FM28" si="130">FL28*($F$2+1)</f>
-        <v>12792.401980721897</v>
+        <f t="shared" ref="FM28" si="131">FL28*($F$2+1)</f>
+        <v>17510.341399682649</v>
       </c>
       <c r="FN28" s="35">
-        <f t="shared" ref="FN28" si="131">FM28*($F$2+1)</f>
-        <v>12536.553941107459</v>
+        <f t="shared" ref="FN28" si="132">FM28*($F$2+1)</f>
+        <v>17160.134571688995</v>
       </c>
       <c r="FO28" s="35">
-        <f t="shared" ref="FO28" si="132">FN28*($F$2+1)</f>
-        <v>12285.822862285309</v>
+        <f t="shared" ref="FO28" si="133">FN28*($F$2+1)</f>
+        <v>16816.931880255215</v>
       </c>
       <c r="FP28" s="35">
-        <f t="shared" ref="FP28" si="133">FO28*($F$2+1)</f>
-        <v>12040.106405039603</v>
+        <f t="shared" ref="FP28" si="134">FO28*($F$2+1)</f>
+        <v>16480.593242650109</v>
       </c>
       <c r="FQ28" s="35">
-        <f t="shared" ref="FQ28" si="134">FP28*($F$2+1)</f>
-        <v>11799.304276938812</v>
+        <f t="shared" ref="FQ28" si="135">FP28*($F$2+1)</f>
+        <v>16150.981377797107</v>
       </c>
       <c r="FR28" s="35">
-        <f t="shared" ref="FR28" si="135">FQ28*($F$2+1)</f>
-        <v>11563.318191400036</v>
+        <f t="shared" ref="FR28" si="136">FQ28*($F$2+1)</f>
+        <v>15827.961750241164</v>
       </c>
       <c r="FS28" s="35">
-        <f t="shared" ref="FS28" si="136">FR28*($F$2+1)</f>
-        <v>11332.051827572035</v>
+        <f t="shared" ref="FS28" si="137">FR28*($F$2+1)</f>
+        <v>15511.402515236341</v>
       </c>
       <c r="FT28" s="35">
-        <f t="shared" ref="FT28" si="137">FS28*($F$2+1)</f>
-        <v>11105.410791020595</v>
+        <f t="shared" ref="FT28" si="138">FS28*($F$2+1)</f>
+        <v>15201.174464931613</v>
       </c>
       <c r="FU28" s="35">
-        <f t="shared" ref="FU28" si="138">FT28*($F$2+1)</f>
-        <v>10883.302575200183</v>
+        <f t="shared" ref="FU28" si="139">FT28*($F$2+1)</f>
+        <v>14897.150975632981</v>
       </c>
       <c r="FV28" s="35">
-        <f t="shared" ref="FV28" si="139">FU28*($F$2+1)</f>
-        <v>10665.636523696179</v>
+        <f t="shared" ref="FV28" si="140">FU28*($F$2+1)</f>
+        <v>14599.207956120321</v>
       </c>
       <c r="FW28" s="35">
-        <f t="shared" ref="FW28" si="140">FV28*($F$2+1)</f>
-        <v>10452.323793222255</v>
+        <f t="shared" ref="FW28" si="141">FV28*($F$2+1)</f>
+        <v>14307.223796997914</v>
       </c>
       <c r="FX28" s="35">
-        <f t="shared" ref="FX28" si="141">FW28*($F$2+1)</f>
-        <v>10243.27731735781</v>
+        <f t="shared" ref="FX28" si="142">FW28*($F$2+1)</f>
+        <v>14021.079321057956</v>
       </c>
       <c r="FY28" s="35">
-        <f t="shared" ref="FY28" si="142">FX28*($F$2+1)</f>
-        <v>10038.411771010653</v>
+        <f t="shared" ref="FY28" si="143">FX28*($F$2+1)</f>
+        <v>13740.657734636796</v>
       </c>
       <c r="FZ28" s="35">
-        <f t="shared" ref="FZ28" si="143">FY28*($F$2+1)</f>
-        <v>9837.6435355904396</v>
+        <f t="shared" ref="FZ28" si="144">FY28*($F$2+1)</f>
+        <v>13465.84457994406</v>
       </c>
       <c r="GA28" s="35">
-        <f t="shared" ref="GA28" si="144">FZ28*($F$2+1)</f>
-        <v>9640.8906648786306</v>
+        <f t="shared" ref="GA28" si="145">FZ28*($F$2+1)</f>
+        <v>13196.527688345179</v>
       </c>
       <c r="GB28" s="35">
-        <f t="shared" ref="GB28" si="145">GA28*($F$2+1)</f>
-        <v>9448.072851581057</v>
+        <f t="shared" ref="GB28" si="146">GA28*($F$2+1)</f>
+        <v>12932.597134578275</v>
       </c>
       <c r="GC28" s="35">
-        <f t="shared" ref="GC28" si="146">GB28*($F$2+1)</f>
-        <v>9259.1113945494362</v>
+        <f t="shared" ref="GC28" si="147">GB28*($F$2+1)</f>
+        <v>12673.945191886709</v>
       </c>
       <c r="GD28" s="35">
-        <f t="shared" ref="GD28" si="147">GC28*($F$2+1)</f>
-        <v>9073.9291666584468</v>
+        <f t="shared" ref="GD28" si="148">GC28*($F$2+1)</f>
+        <v>12420.466288048974</v>
       </c>
       <c r="GE28" s="35">
-        <f t="shared" ref="GE28" si="148">GD28*($F$2+1)</f>
-        <v>8892.450583325277</v>
+        <f t="shared" ref="GE28" si="149">GD28*($F$2+1)</f>
+        <v>12172.056962287994</v>
       </c>
       <c r="GF28" s="35">
-        <f t="shared" ref="GF28" si="149">GE28*($F$2+1)</f>
-        <v>8714.6015716587717</v>
+        <f t="shared" ref="GF28" si="150">GE28*($F$2+1)</f>
+        <v>11928.615823042233</v>
       </c>
       <c r="GG28" s="35">
-        <f t="shared" ref="GG28" si="150">GF28*($F$2+1)</f>
-        <v>8540.3095402255967</v>
+        <f t="shared" ref="GG28" si="151">GF28*($F$2+1)</f>
+        <v>11690.043506581389</v>
       </c>
       <c r="GH28" s="35">
-        <f t="shared" ref="GH28" si="151">GG28*($F$2+1)</f>
-        <v>8369.5033494210838</v>
+        <f t="shared" ref="GH28" si="152">GG28*($F$2+1)</f>
+        <v>11456.242636449761</v>
       </c>
       <c r="GI28" s="35">
-        <f t="shared" ref="GI28" si="152">GH28*($F$2+1)</f>
-        <v>8202.1132824326614</v>
+        <f t="shared" ref="GI28" si="153">GH28*($F$2+1)</f>
+        <v>11227.117783720765</v>
       </c>
       <c r="GJ28" s="35">
-        <f t="shared" ref="GJ28" si="153">GI28*($F$2+1)</f>
-        <v>8038.071016784008</v>
+        <f t="shared" ref="GJ28" si="154">GI28*($F$2+1)</f>
+        <v>11002.57542804635</v>
       </c>
       <c r="GK28" s="35">
-        <f t="shared" ref="GK28" si="154">GJ28*($F$2+1)</f>
-        <v>7877.3095964483273</v>
+        <f t="shared" ref="GK28" si="155">GJ28*($F$2+1)</f>
+        <v>10782.523919485422</v>
       </c>
       <c r="GL28" s="35">
-        <f t="shared" ref="GL28" si="155">GK28*($F$2+1)</f>
-        <v>7719.7634045193608</v>
+        <f t="shared" ref="GL28" si="156">GK28*($F$2+1)</f>
+        <v>10566.873441095713</v>
       </c>
       <c r="GM28" s="35">
-        <f t="shared" ref="GM28" si="156">GL28*($F$2+1)</f>
-        <v>7565.3681364289732</v>
+        <f t="shared" ref="GM28" si="157">GL28*($F$2+1)</f>
+        <v>10355.535972273799</v>
       </c>
       <c r="GN28" s="35">
-        <f t="shared" ref="GN28" si="157">GM28*($F$2+1)</f>
-        <v>7414.0607737003938</v>
+        <f t="shared" ref="GN28" si="158">GM28*($F$2+1)</f>
+        <v>10148.425252828323</v>
       </c>
       <c r="GO28" s="35">
-        <f t="shared" ref="GO28" si="158">GN28*($F$2+1)</f>
-        <v>7265.7795582263861</v>
+        <f t="shared" ref="GO28" si="159">GN28*($F$2+1)</f>
+        <v>9945.4567477717574</v>
       </c>
       <c r="GP28" s="35">
-        <f t="shared" ref="GP28" si="159">GO28*($F$2+1)</f>
-        <v>7120.4639670618581</v>
+        <f t="shared" ref="GP28" si="160">GO28*($F$2+1)</f>
+        <v>9746.5476128163227</v>
       </c>
       <c r="GQ28" s="35">
-        <f t="shared" ref="GQ28" si="160">GP28*($F$2+1)</f>
-        <v>6978.0546877206207</v>
+        <f t="shared" ref="GQ28" si="161">GP28*($F$2+1)</f>
+        <v>9551.6166605599956</v>
       </c>
       <c r="GR28" s="35">
-        <f t="shared" ref="GR28" si="161">GQ28*($F$2+1)</f>
-        <v>6838.4935939662082</v>
+        <f t="shared" ref="GR28" si="162">GQ28*($F$2+1)</f>
+        <v>9360.5843273487953</v>
       </c>
       <c r="GS28" s="35">
-        <f t="shared" ref="GS28" si="162">GR28*($F$2+1)</f>
-        <v>6701.7237220868838</v>
+        <f t="shared" ref="GS28" si="163">GR28*($F$2+1)</f>
+        <v>9173.3726408018192</v>
       </c>
       <c r="GT28" s="35">
-        <f t="shared" ref="GT28" si="163">GS28*($F$2+1)</f>
-        <v>6567.6892476451458</v>
+        <f t="shared" ref="GT28" si="164">GS28*($F$2+1)</f>
+        <v>8989.9051879857834</v>
       </c>
       <c r="GU28" s="35">
-        <f t="shared" ref="GU28" si="164">GT28*($F$2+1)</f>
-        <v>6436.3354626922428</v>
+        <f t="shared" ref="GU28" si="165">GT28*($F$2+1)</f>
+        <v>8810.1070842260669</v>
       </c>
     </row>
     <row r="29" spans="1:203" x14ac:dyDescent="0.15">
@@ -3463,86 +3524,89 @@
         <v>16</v>
       </c>
       <c r="B29" s="38">
-        <f>B28/B30</f>
+        <f t="shared" ref="B29:G29" si="166">B28/B30</f>
         <v>1.2182952182952183</v>
       </c>
       <c r="C29" s="38">
-        <f>C28/C30</f>
+        <f t="shared" si="166"/>
         <v>4.8786008230452671</v>
       </c>
       <c r="D29" s="38">
-        <f>D28/D30</f>
+        <f t="shared" si="166"/>
         <v>6.11491935483871</v>
       </c>
       <c r="E29" s="38">
-        <f>E28/E30</f>
+        <f t="shared" si="166"/>
         <v>20.105788423153694</v>
       </c>
       <c r="F29" s="38">
-        <f>F28/F30</f>
+        <f t="shared" si="166"/>
         <v>22.954455445544554</v>
       </c>
-      <c r="G29" s="39">
-        <f t="shared" ref="G29" si="165">G28/G30</f>
-        <v>28.899316909183309</v>
+      <c r="G29" s="38">
+        <f t="shared" si="166"/>
+        <v>41.409356725146196</v>
       </c>
       <c r="H29" s="39">
-        <f t="shared" ref="H29" si="166">H28/H30</f>
-        <v>33.722446996366067</v>
+        <f t="shared" ref="H29" si="167">H28/H30</f>
+        <v>46.071114628471399</v>
       </c>
       <c r="I29" s="39">
-        <f t="shared" ref="I29" si="167">I28/I30</f>
-        <v>40.027321785416312</v>
+        <f t="shared" ref="I29" si="168">I28/I30</f>
+        <v>55.404034832910163</v>
       </c>
       <c r="J29" s="39">
-        <f t="shared" ref="J29" si="168">J28/J30</f>
-        <v>48.485007872661285</v>
+        <f t="shared" ref="J29" si="169">J28/J30</f>
+        <v>68.042235303446489</v>
       </c>
       <c r="K29" s="39">
-        <f t="shared" ref="K29" si="169">K28/K30</f>
-        <v>60.099429153510222</v>
+        <f t="shared" ref="K29:L29" si="170">K28/K30</f>
+        <v>85.4654203501875</v>
       </c>
       <c r="L29" s="39">
-        <f t="shared" ref="L29" si="170">L28/L30</f>
-        <v>83.358991145862035</v>
+        <f t="shared" si="170"/>
+        <v>109.81784008848702</v>
       </c>
       <c r="M29" s="39">
         <f t="shared" ref="M29" si="171">M28/M30</f>
-        <v>110.02340772164756</v>
+        <v>139.81438542786378</v>
       </c>
       <c r="N29" s="39">
         <f t="shared" ref="N29" si="172">N28/N30</f>
-        <v>140.48991019539136</v>
+        <v>173.95636665457954</v>
       </c>
       <c r="O29" s="39">
         <f t="shared" ref="O29" si="173">O28/O30</f>
-        <v>175.19832035862126</v>
+        <v>212.71762719859757</v>
       </c>
       <c r="P29" s="39">
         <f t="shared" ref="P29" si="174">P28/P30</f>
-        <v>214.6354530544784</v>
+        <v>256.6223679088431</v>
       </c>
       <c r="Q29" s="39">
         <f t="shared" ref="Q29:R29" si="175">Q28/Q30</f>
-        <v>259.33996618182465</v>
+        <v>306.25033106433938</v>
       </c>
       <c r="R29" s="39">
         <f t="shared" si="175"/>
-        <v>309.9077032301787</v>
+        <v>362.242510182942</v>
       </c>
       <c r="S29" s="39">
         <f t="shared" ref="S29:U29" si="176">S28/S30</f>
-        <v>366.9975779748724</v>
+        <v>425.30743857675776</v>
       </c>
       <c r="T29" s="39">
         <f t="shared" si="176"/>
-        <v>431.33805594355323</v>
+        <v>496.22811491669876</v>
       </c>
       <c r="U29" s="39">
         <f t="shared" si="176"/>
-        <v>503.73429274602563</v>
-      </c>
-      <c r="V29" s="39"/>
+        <v>575.86962991423957</v>
+      </c>
+      <c r="V29" s="39">
+        <f t="shared" ref="V29" si="177">V28/V30</f>
+        <v>665.18756465960087</v>
+      </c>
     </row>
     <row r="30" spans="1:203" x14ac:dyDescent="0.15">
       <c r="A30" s="24" t="s">
@@ -3569,66 +3633,69 @@
         <v>505</v>
       </c>
       <c r="G30" s="28">
-        <f t="shared" ref="G30" si="177">F30</f>
-        <v>505</v>
+        <f>Reports!Y23</f>
+        <v>513</v>
       </c>
       <c r="H30" s="28">
-        <f t="shared" ref="H30:U30" si="178">G30</f>
-        <v>505</v>
+        <f t="shared" ref="H30:V30" si="178">G30</f>
+        <v>513</v>
       </c>
       <c r="I30" s="28">
         <f t="shared" si="178"/>
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="J30" s="28">
         <f t="shared" si="178"/>
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="K30" s="28">
         <f t="shared" si="178"/>
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="L30" s="28">
         <f t="shared" si="178"/>
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="M30" s="28">
         <f t="shared" si="178"/>
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="N30" s="28">
         <f t="shared" si="178"/>
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="O30" s="28">
         <f t="shared" si="178"/>
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="P30" s="28">
         <f t="shared" si="178"/>
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="Q30" s="28">
         <f t="shared" si="178"/>
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="R30" s="28">
         <f t="shared" si="178"/>
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="S30" s="28">
         <f t="shared" si="178"/>
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="T30" s="28">
         <f t="shared" si="178"/>
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="U30" s="28">
         <f t="shared" si="178"/>
-        <v>505</v>
-      </c>
-      <c r="V30" s="28"/>
+        <v>513</v>
+      </c>
+      <c r="V30" s="28">
+        <f t="shared" si="178"/>
+        <v>513</v>
+      </c>
     </row>
     <row r="31" spans="1:203" x14ac:dyDescent="0.15">
       <c r="B31" s="28"/>
@@ -3679,237 +3746,246 @@
       </c>
       <c r="G32" s="42">
         <f t="shared" si="179"/>
-        <v>0.27648533804835274</v>
+        <v>0.24411306845702949</v>
       </c>
       <c r="H32" s="42">
         <f t="shared" si="179"/>
-        <v>0.28648533804835274</v>
+        <v>0.25411306845702947</v>
       </c>
       <c r="I32" s="42">
         <f t="shared" si="179"/>
-        <v>0.29648533804835275</v>
+        <v>0.26411306845702948</v>
       </c>
       <c r="J32" s="42">
         <f t="shared" si="179"/>
-        <v>0.30648533804835276</v>
+        <v>0.27411306845702949</v>
       </c>
       <c r="K32" s="42">
         <f t="shared" si="179"/>
-        <v>0.31648533804835277</v>
+        <v>0.28411306845702949</v>
       </c>
       <c r="L32" s="42">
-        <f t="shared" si="179"/>
-        <v>0.31648533804835277</v>
+        <f t="shared" ref="L32" si="180">IFERROR(L19/L17,0)</f>
+        <v>0.2941130684570295</v>
       </c>
       <c r="M32" s="42">
         <f t="shared" si="179"/>
-        <v>0.31648533804835283</v>
+        <v>0.2941130684570295</v>
       </c>
       <c r="N32" s="42">
         <f t="shared" si="179"/>
-        <v>0.31648533804835283</v>
+        <v>0.2941130684570295</v>
       </c>
       <c r="O32" s="42">
         <f t="shared" si="179"/>
-        <v>0.31648533804835283</v>
+        <v>0.2941130684570295</v>
       </c>
       <c r="P32" s="42">
         <f t="shared" si="179"/>
-        <v>0.31648533804835283</v>
+        <v>0.2941130684570295</v>
       </c>
       <c r="Q32" s="42">
         <f t="shared" si="179"/>
-        <v>0.31648533804835283</v>
+        <v>0.2941130684570295</v>
       </c>
       <c r="R32" s="42">
-        <f t="shared" ref="R32:U32" si="180">IFERROR(R19/R17,0)</f>
-        <v>0.31648533804835283</v>
+        <f t="shared" ref="R32:U32" si="181">IFERROR(R19/R17,0)</f>
+        <v>0.2941130684570295</v>
       </c>
       <c r="S32" s="42">
-        <f t="shared" si="180"/>
-        <v>0.31648533804835283</v>
+        <f t="shared" si="181"/>
+        <v>0.2941130684570295</v>
       </c>
       <c r="T32" s="42">
-        <f t="shared" si="180"/>
-        <v>0.31648533804835283</v>
+        <f t="shared" si="181"/>
+        <v>0.2941130684570295</v>
       </c>
       <c r="U32" s="42">
-        <f t="shared" si="180"/>
-        <v>0.31648533804835283</v>
-      </c>
-      <c r="V32" s="42"/>
+        <f t="shared" si="181"/>
+        <v>0.2941130684570295</v>
+      </c>
+      <c r="V32" s="42">
+        <f t="shared" ref="V32" si="182">IFERROR(V19/V17,0)</f>
+        <v>0.2941130684570295</v>
+      </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A33" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="41">
-        <f t="shared" ref="B33:Q33" si="181">IFERROR(B24/B17,0)</f>
+        <f t="shared" ref="B33:Q33" si="183">IFERROR(B24/B17,0)</f>
         <v>2.0776283447199454E-2</v>
       </c>
       <c r="C33" s="41">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>3.0782354195621642E-2</v>
       </c>
       <c r="D33" s="41">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>2.3090416380870993E-2</v>
       </c>
       <c r="E33" s="41">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>5.3330585219441187E-2</v>
       </c>
       <c r="F33" s="41">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>5.1831941879781268E-2</v>
       </c>
       <c r="G33" s="41">
         <f>IFERROR(G24/G17,0)</f>
-        <v>4.9586550212360747E-2</v>
+        <v>5.9321309513633645E-2</v>
       </c>
       <c r="H33" s="41">
-        <f t="shared" si="181"/>
-        <v>4.7897656780059208E-2</v>
+        <f t="shared" si="183"/>
+        <v>5.9341452889832981E-2</v>
       </c>
       <c r="I33" s="41">
-        <f t="shared" si="181"/>
-        <v>4.6882966300197323E-2</v>
+        <f t="shared" si="183"/>
+        <v>6.0141987183956525E-2</v>
       </c>
       <c r="J33" s="41">
-        <f t="shared" si="181"/>
-        <v>4.6663870941199878E-2</v>
+        <f t="shared" si="183"/>
+        <v>6.1903388942939799E-2</v>
       </c>
       <c r="K33" s="41">
-        <f t="shared" si="181"/>
-        <v>4.7362926624828376E-2</v>
+        <f t="shared" si="183"/>
+        <v>6.4791037876768973E-2</v>
       </c>
       <c r="L33" s="41">
-        <f t="shared" si="181"/>
-        <v>6.0014278480729329E-2</v>
+        <f t="shared" ref="L33" si="184">IFERROR(L24/L17,0)</f>
+        <v>6.8946295027845841E-2</v>
       </c>
       <c r="M33" s="41">
-        <f t="shared" si="181"/>
-        <v>7.2060131436052013E-2</v>
+        <f t="shared" si="183"/>
+        <v>7.9673921473022824E-2</v>
       </c>
       <c r="N33" s="41">
-        <f t="shared" si="181"/>
-        <v>8.3530221801010524E-2</v>
+        <f t="shared" si="183"/>
+        <v>8.9878090490147278E-2</v>
       </c>
       <c r="O33" s="41">
-        <f t="shared" si="181"/>
-        <v>9.4452773243870011E-2</v>
+        <f t="shared" si="183"/>
+        <v>9.958520200188932E-2</v>
       </c>
       <c r="P33" s="41">
-        <f t="shared" si="181"/>
-        <v>0.10485457725587025</v>
+        <f t="shared" si="183"/>
+        <v>0.10882026637783659</v>
       </c>
       <c r="Q33" s="41">
-        <f t="shared" si="181"/>
-        <v>0.11476106910712837</v>
+        <f t="shared" si="183"/>
+        <v>0.11760698138193272</v>
       </c>
       <c r="R33" s="41">
-        <f t="shared" ref="R33:U33" si="182">IFERROR(R24/R17,0)</f>
-        <v>0.12419639956040299</v>
+        <f t="shared" ref="R33:U33" si="185">IFERROR(R24/R17,0)</f>
+        <v>0.12596780461969087</v>
       </c>
       <c r="S33" s="41">
-        <f t="shared" si="182"/>
-        <v>0.13318350259297229</v>
+        <f t="shared" si="185"/>
+        <v>0.13392402176265644</v>
       </c>
       <c r="T33" s="41">
-        <f t="shared" si="182"/>
-        <v>0.14174415936132215</v>
+        <f t="shared" si="185"/>
+        <v>0.14149581080967596</v>
       </c>
       <c r="U33" s="41">
-        <f t="shared" si="182"/>
-        <v>0.1498990586288021</v>
-      </c>
-      <c r="V33" s="41"/>
+        <f t="shared" si="185"/>
+        <v>0.14870230262781423</v>
+      </c>
+      <c r="V33" s="41">
+        <f t="shared" ref="V33" si="186">IFERROR(V24/V17,0)</f>
+        <v>0.15556163800016376</v>
+      </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A34" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="41">
-        <f t="shared" ref="B34:Q34" si="183">IFERROR(B27/B26,0)</f>
+        <f t="shared" ref="B34:Q34" si="187">IFERROR(B27/B26,0)</f>
         <v>0.62387676508344025</v>
       </c>
       <c r="C34" s="41">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.39080164439876669</v>
       </c>
       <c r="D34" s="41">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.20330969267139479</v>
       </c>
       <c r="E34" s="41">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.10549684752686263</v>
       </c>
       <c r="F34" s="41">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.1699248120300752</v>
       </c>
       <c r="G34" s="41">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
+        <v>0.11876711192234299</v>
+      </c>
+      <c r="H34" s="41">
+        <f t="shared" si="187"/>
         <v>0.15</v>
       </c>
-      <c r="H34" s="41">
-        <f t="shared" si="183"/>
+      <c r="I34" s="41">
+        <f t="shared" si="187"/>
         <v>0.15</v>
       </c>
-      <c r="I34" s="41">
-        <f t="shared" si="183"/>
+      <c r="J34" s="41">
+        <f t="shared" si="187"/>
         <v>0.15</v>
       </c>
-      <c r="J34" s="41">
-        <f t="shared" si="183"/>
+      <c r="K34" s="41">
+        <f t="shared" si="187"/>
         <v>0.15</v>
       </c>
-      <c r="K34" s="41">
-        <f t="shared" si="183"/>
+      <c r="L34" s="41">
+        <f t="shared" ref="L34" si="188">IFERROR(L27/L26,0)</f>
         <v>0.15</v>
       </c>
-      <c r="L34" s="41">
-        <f t="shared" si="183"/>
+      <c r="M34" s="41">
+        <f t="shared" si="187"/>
         <v>0.15</v>
       </c>
-      <c r="M34" s="41">
-        <f t="shared" si="183"/>
+      <c r="N34" s="41">
+        <f t="shared" si="187"/>
         <v>0.15</v>
       </c>
-      <c r="N34" s="41">
-        <f t="shared" si="183"/>
+      <c r="O34" s="41">
+        <f t="shared" si="187"/>
         <v>0.15</v>
       </c>
-      <c r="O34" s="41">
-        <f t="shared" si="183"/>
+      <c r="P34" s="41">
+        <f t="shared" si="187"/>
         <v>0.15</v>
       </c>
-      <c r="P34" s="41">
-        <f t="shared" si="183"/>
+      <c r="Q34" s="41">
+        <f t="shared" si="187"/>
         <v>0.15</v>
       </c>
-      <c r="Q34" s="41">
-        <f t="shared" si="183"/>
+      <c r="R34" s="41">
+        <f t="shared" ref="R34:U34" si="189">IFERROR(R27/R26,0)</f>
+        <v>0.14999999999999997</v>
+      </c>
+      <c r="S34" s="41">
+        <f t="shared" si="189"/>
         <v>0.15</v>
       </c>
-      <c r="R34" s="41">
-        <f t="shared" ref="R34:U34" si="184">IFERROR(R27/R26,0)</f>
+      <c r="T34" s="41">
+        <f t="shared" si="189"/>
         <v>0.15</v>
       </c>
-      <c r="S34" s="41">
-        <f t="shared" si="184"/>
+      <c r="U34" s="41">
+        <f t="shared" si="189"/>
         <v>0.15</v>
       </c>
-      <c r="T34" s="41">
-        <f t="shared" si="184"/>
+      <c r="V34" s="41">
+        <f t="shared" ref="V34" si="190">IFERROR(V27/V26,0)</f>
         <v>0.15</v>
       </c>
-      <c r="U34" s="41">
-        <f t="shared" si="184"/>
-        <v>0.15</v>
-      </c>
-      <c r="V34" s="41"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B35" s="6"/>
@@ -3940,15 +4016,15 @@
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="40">
-        <f t="shared" ref="C36:U36" si="185">C17/B17-1</f>
+        <f t="shared" ref="C36:V36" si="191">C17/B17-1</f>
         <v>0.27094217594885839</v>
       </c>
       <c r="D36" s="40">
-        <f t="shared" si="185"/>
+        <f t="shared" si="191"/>
         <v>0.30796326119408479</v>
       </c>
       <c r="E36" s="40">
-        <f t="shared" si="185"/>
+        <f t="shared" si="191"/>
         <v>0.3093396152159491</v>
       </c>
       <c r="F36" s="40">
@@ -3957,65 +4033,68 @@
       </c>
       <c r="G36" s="40">
         <f>G17/F17-1</f>
-        <v>0.18887948182317249</v>
+        <v>0.37624500039212605</v>
       </c>
       <c r="H36" s="40">
         <f>H17/G17-1</f>
-        <v>0.196371761179718</v>
+        <v>0.16778408929020094</v>
       </c>
       <c r="I36" s="40">
-        <f t="shared" si="185"/>
-        <v>0.20368095196374658</v>
+        <f t="shared" si="191"/>
+        <v>0.1769928061415631</v>
       </c>
       <c r="J36" s="40">
-        <f t="shared" si="185"/>
-        <v>0.21086916665471445</v>
+        <f t="shared" si="191"/>
+        <v>0.18644508407177507</v>
       </c>
       <c r="K36" s="40">
-        <f t="shared" si="185"/>
-        <v>0.21798682645004819</v>
+        <f t="shared" si="191"/>
+        <v>0.1961058400368294</v>
       </c>
       <c r="L36" s="40">
-        <f t="shared" si="185"/>
+        <f t="shared" si="191"/>
+        <v>0.20592541695715783</v>
+      </c>
+      <c r="M36" s="40">
+        <f t="shared" si="191"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="M36" s="40">
-        <f t="shared" si="185"/>
+      <c r="N36" s="40">
+        <f t="shared" si="191"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="N36" s="40">
-        <f t="shared" si="185"/>
+      <c r="O36" s="40">
+        <f t="shared" si="191"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O36" s="40">
-        <f t="shared" si="185"/>
+      <c r="P36" s="40">
+        <f t="shared" si="191"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="P36" s="40">
-        <f t="shared" si="185"/>
+      <c r="Q36" s="40">
+        <f t="shared" si="191"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q36" s="40">
-        <f t="shared" si="185"/>
+      <c r="R36" s="40">
+        <f t="shared" si="191"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="R36" s="40">
-        <f t="shared" si="185"/>
+      <c r="S36" s="40">
+        <f t="shared" si="191"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="S36" s="40">
-        <f t="shared" si="185"/>
+      <c r="T36" s="40">
+        <f t="shared" si="191"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="T36" s="40">
-        <f t="shared" si="185"/>
+      <c r="U36" s="40">
+        <f t="shared" si="191"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="U36" s="40">
-        <f t="shared" si="185"/>
+      <c r="V36" s="40">
+        <f t="shared" si="191"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="V36" s="41"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A37" s="24" t="s">
@@ -4023,82 +4102,85 @@
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="41">
-        <f t="shared" ref="C37:U37" si="186">C20/B20-1</f>
+        <f t="shared" ref="C37:V37" si="192">C20/B20-1</f>
         <v>0.28257056290862703</v>
       </c>
       <c r="D37" s="41">
-        <f t="shared" si="186"/>
+        <f t="shared" si="192"/>
         <v>0.40619171950764632</v>
       </c>
       <c r="E37" s="41">
-        <f t="shared" si="186"/>
+        <f t="shared" si="192"/>
         <v>0.27484526967285583</v>
       </c>
       <c r="F37" s="41">
-        <f t="shared" si="186"/>
+        <f t="shared" si="192"/>
         <v>0.24603807608281025</v>
       </c>
       <c r="G37" s="41">
-        <f t="shared" si="186"/>
-        <v>0.25</v>
+        <f t="shared" si="192"/>
+        <v>0.18941333630190349</v>
       </c>
       <c r="H37" s="41">
-        <f t="shared" si="186"/>
-        <v>0.25</v>
+        <f t="shared" si="192"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="I37" s="41">
-        <f t="shared" si="186"/>
-        <v>0.25</v>
+        <f t="shared" si="192"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="J37" s="41">
-        <f t="shared" si="186"/>
-        <v>0.25</v>
+        <f t="shared" si="192"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="K37" s="41">
-        <f t="shared" si="186"/>
-        <v>0.25</v>
+        <f t="shared" si="192"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="L37" s="41">
-        <f t="shared" si="186"/>
+        <f t="shared" si="192"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="M37" s="41">
+        <f t="shared" si="192"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="M37" s="41">
-        <f t="shared" si="186"/>
+      <c r="N37" s="41">
+        <f t="shared" si="192"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="N37" s="41">
-        <f t="shared" si="186"/>
+      <c r="O37" s="41">
+        <f t="shared" si="192"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="O37" s="41">
-        <f t="shared" si="186"/>
+      <c r="P37" s="41">
+        <f t="shared" si="192"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="P37" s="41">
-        <f t="shared" si="186"/>
+      <c r="Q37" s="41">
+        <f t="shared" si="192"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="Q37" s="41">
-        <f t="shared" si="186"/>
+      <c r="R37" s="41">
+        <f t="shared" si="192"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="R37" s="41">
-        <f t="shared" si="186"/>
+      <c r="S37" s="41">
+        <f t="shared" si="192"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="S37" s="41">
-        <f t="shared" si="186"/>
+      <c r="T37" s="41">
+        <f t="shared" si="192"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="T37" s="41">
-        <f t="shared" si="186"/>
+      <c r="U37" s="41">
+        <f t="shared" si="192"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="U37" s="41">
-        <f t="shared" si="186"/>
+      <c r="V37" s="41">
+        <f t="shared" si="192"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="V37" s="41"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A38" s="24" t="s">
@@ -4106,82 +4188,85 @@
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="41">
-        <f t="shared" ref="C38:U38" si="187">C21/B21-1</f>
+        <f t="shared" ref="C38:V38" si="193">C21/B21-1</f>
         <v>0.37718964204112715</v>
       </c>
       <c r="D38" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="193"/>
         <v>0.3919535462463708</v>
       </c>
       <c r="E38" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="193"/>
         <v>0.37206992451330945</v>
       </c>
       <c r="F38" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="193"/>
         <v>0.36665701462284628</v>
       </c>
       <c r="G38" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="193"/>
+        <v>0.1658456486042692</v>
+      </c>
+      <c r="H38" s="41">
+        <f t="shared" si="193"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="H38" s="41">
-        <f t="shared" si="187"/>
+      <c r="I38" s="41">
+        <f t="shared" si="193"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="I38" s="41">
-        <f t="shared" si="187"/>
-        <v>0.29999999999999982</v>
-      </c>
       <c r="J38" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="193"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="K38" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="193"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="L38" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="193"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="M38" s="41">
+        <f t="shared" si="193"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="M38" s="41">
-        <f t="shared" si="187"/>
+      <c r="N38" s="41">
+        <f t="shared" si="193"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="N38" s="41">
-        <f t="shared" si="187"/>
+      <c r="O38" s="41">
+        <f t="shared" si="193"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="O38" s="41">
-        <f t="shared" si="187"/>
+      <c r="P38" s="41">
+        <f t="shared" si="193"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="P38" s="41">
-        <f t="shared" si="187"/>
+      <c r="Q38" s="41">
+        <f t="shared" si="193"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="Q38" s="41">
-        <f t="shared" si="187"/>
+      <c r="R38" s="41">
+        <f t="shared" si="193"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="R38" s="41">
-        <f t="shared" si="187"/>
+      <c r="S38" s="41">
+        <f t="shared" si="193"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="S38" s="41">
-        <f t="shared" si="187"/>
+      <c r="T38" s="41">
+        <f t="shared" si="193"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="T38" s="41">
-        <f t="shared" si="187"/>
+      <c r="U38" s="41">
+        <f t="shared" si="193"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="U38" s="41">
-        <f t="shared" si="187"/>
+      <c r="V38" s="41">
+        <f t="shared" si="193"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="V38" s="41"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A39" s="24" t="s">
@@ -4189,82 +4274,85 @@
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="41">
-        <f t="shared" ref="C39:U39" si="188">C22/B22-1</f>
+        <f t="shared" ref="C39:V39" si="194">C22/B22-1</f>
         <v>0.39267315397824842</v>
       </c>
       <c r="D39" s="41">
-        <f t="shared" si="188"/>
+        <f t="shared" si="194"/>
         <v>0.53431976983148366</v>
       </c>
       <c r="E39" s="41">
-        <f t="shared" si="188"/>
+        <f t="shared" si="194"/>
         <v>0.24109295472810066</v>
       </c>
       <c r="F39" s="41">
-        <f t="shared" si="188"/>
+        <f t="shared" si="194"/>
         <v>0.16641484998920775</v>
       </c>
       <c r="G39" s="41">
-        <f t="shared" si="188"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="194"/>
+        <v>0.22020725388601026</v>
       </c>
       <c r="H39" s="41">
-        <f t="shared" si="188"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="194"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="I39" s="41">
-        <f t="shared" si="188"/>
-        <v>0.15000000000000013</v>
+        <f t="shared" si="194"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="J39" s="41">
-        <f t="shared" si="188"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="194"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="K39" s="41">
-        <f t="shared" si="188"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="194"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="L39" s="41">
-        <f t="shared" si="188"/>
+        <f t="shared" si="194"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="M39" s="41">
+        <f t="shared" si="194"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="M39" s="41">
-        <f t="shared" si="188"/>
+      <c r="N39" s="41">
+        <f t="shared" si="194"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="N39" s="41">
-        <f t="shared" si="188"/>
+      <c r="O39" s="41">
+        <f t="shared" si="194"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="O39" s="41">
-        <f t="shared" si="188"/>
+      <c r="P39" s="41">
+        <f t="shared" si="194"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="P39" s="41">
-        <f t="shared" si="188"/>
+      <c r="Q39" s="41">
+        <f t="shared" si="194"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="Q39" s="41">
-        <f t="shared" si="188"/>
+      <c r="R39" s="41">
+        <f t="shared" si="194"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="R39" s="41">
-        <f t="shared" si="188"/>
+      <c r="S39" s="41">
+        <f t="shared" si="194"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="S39" s="41">
-        <f t="shared" si="188"/>
+      <c r="T39" s="41">
+        <f t="shared" si="194"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="T39" s="41">
-        <f t="shared" si="188"/>
+      <c r="U39" s="41">
+        <f t="shared" si="194"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="U39" s="41">
-        <f t="shared" si="188"/>
+      <c r="V39" s="41">
+        <f t="shared" si="194"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="V39" s="41"/>
     </row>
     <row r="40" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="29" t="s">
@@ -4276,78 +4364,81 @@
         <v>0.31784453200962082</v>
       </c>
       <c r="D40" s="50">
-        <f t="shared" ref="D40:U40" si="189">D23/C23-1</f>
+        <f t="shared" ref="D40:V40" si="195">D23/C23-1</f>
         <v>0.41429791860826337</v>
       </c>
       <c r="E40" s="50">
-        <f t="shared" si="189"/>
+        <f t="shared" si="195"/>
         <v>0.29826199170808043</v>
       </c>
       <c r="F40" s="50">
-        <f t="shared" si="189"/>
+        <f t="shared" si="195"/>
         <v>0.27347517130530408</v>
       </c>
       <c r="G40" s="50">
-        <f t="shared" si="189"/>
-        <v>0.25670181848376661</v>
+        <f t="shared" si="195"/>
+        <v>0.18478784356057454</v>
       </c>
       <c r="H40" s="50">
-        <f t="shared" si="189"/>
-        <v>0.25800391953198187</v>
+        <f t="shared" si="195"/>
+        <v>0.23085139188696702</v>
       </c>
       <c r="I40" s="50">
-        <f t="shared" si="189"/>
-        <v>0.25925034704696248</v>
+        <f t="shared" si="195"/>
+        <v>0.23258460746554532</v>
       </c>
       <c r="J40" s="50">
-        <f t="shared" si="189"/>
-        <v>0.26044396594307773</v>
+        <f t="shared" si="195"/>
+        <v>0.23436680082538941</v>
       </c>
       <c r="K40" s="50">
-        <f t="shared" si="189"/>
-        <v>0.26158764118262767</v>
+        <f t="shared" si="195"/>
+        <v>0.23619413698029779</v>
       </c>
       <c r="L40" s="50">
-        <f t="shared" si="189"/>
-        <v>4.8289378919133208E-2</v>
+        <f t="shared" si="195"/>
+        <v>0.23806228865421075</v>
       </c>
       <c r="M40" s="50">
-        <f t="shared" si="189"/>
-        <v>4.8335542134097409E-2</v>
+        <f t="shared" si="195"/>
+        <v>4.7592671378728246E-2</v>
       </c>
       <c r="N40" s="50">
-        <f t="shared" si="189"/>
-        <v>4.838053089398775E-2</v>
+        <f t="shared" si="195"/>
+        <v>4.7656078301439919E-2</v>
       </c>
       <c r="O40" s="50">
-        <f t="shared" si="189"/>
-        <v>4.8424371266486688E-2</v>
+        <f t="shared" si="195"/>
+        <v>4.7717953265342894E-2</v>
       </c>
       <c r="P40" s="50">
-        <f t="shared" si="189"/>
-        <v>4.8467088945822523E-2</v>
+        <f t="shared" si="195"/>
+        <v>4.7778326063712573E-2</v>
       </c>
       <c r="Q40" s="50">
-        <f t="shared" si="189"/>
-        <v>4.8508709246340542E-2</v>
+        <f t="shared" si="195"/>
+        <v>4.7837226292390733E-2</v>
       </c>
       <c r="R40" s="50">
-        <f t="shared" si="189"/>
-        <v>4.8549257096942799E-2</v>
+        <f t="shared" si="195"/>
+        <v>4.7894683328280951E-2</v>
       </c>
       <c r="S40" s="50">
-        <f t="shared" si="189"/>
-        <v>4.8588757036350572E-2</v>
+        <f t="shared" si="195"/>
+        <v>4.7950726309314851E-2</v>
       </c>
       <c r="T40" s="50">
-        <f t="shared" si="189"/>
-        <v>4.8627233209145748E-2</v>
+        <f t="shared" si="195"/>
+        <v>4.8005384115853866E-2</v>
       </c>
       <c r="U40" s="50">
-        <f t="shared" si="189"/>
-        <v>4.8664709362557623E-2</v>
-      </c>
-      <c r="V40" s="50"/>
+        <f t="shared" si="195"/>
+        <v>4.8058685353467689E-2</v>
+      </c>
+      <c r="V40" s="50">
+        <f t="shared" si="195"/>
+        <v>4.8110658337042311E-2</v>
+      </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B41" s="6"/>
@@ -4377,84 +4468,88 @@
         <v>37</v>
       </c>
       <c r="B42" s="45">
-        <f>B43-B44</f>
+        <f t="shared" ref="B42:G42" si="196">B43-B44</f>
         <v>11581</v>
       </c>
       <c r="C42" s="45">
-        <f>C43-C44</f>
+        <f t="shared" si="196"/>
         <v>18287</v>
       </c>
       <c r="D42" s="45">
-        <f>D43-D44</f>
+        <f t="shared" si="196"/>
         <v>6243</v>
       </c>
       <c r="E42" s="45">
-        <f>E43-E44</f>
+        <f t="shared" si="196"/>
         <v>17755</v>
       </c>
       <c r="F42" s="45">
-        <f>F43-F44</f>
+        <f t="shared" si="196"/>
         <v>31607</v>
       </c>
-      <c r="G42" s="46">
-        <f t="shared" ref="G42:U42" si="190">F42+G28</f>
-        <v>46201.155039137571</v>
+      <c r="G42" s="45">
+        <f t="shared" si="196"/>
+        <v>52580</v>
       </c>
       <c r="H42" s="46">
-        <f t="shared" si="190"/>
-        <v>63230.990772302437</v>
+        <f t="shared" ref="H42:V42" si="197">G42+H28</f>
+        <v>76214.481804405834</v>
       </c>
       <c r="I42" s="46">
-        <f t="shared" si="190"/>
-        <v>83444.78827393768</v>
+        <f t="shared" si="197"/>
+        <v>104636.75167368875</v>
       </c>
       <c r="J42" s="46">
-        <f t="shared" si="190"/>
-        <v>107929.71724963163</v>
+        <f t="shared" si="197"/>
+        <v>139542.4183843568</v>
       </c>
       <c r="K42" s="46">
-        <f t="shared" si="190"/>
-        <v>138279.9289721543</v>
+        <f t="shared" si="197"/>
+        <v>183386.17902400298</v>
       </c>
       <c r="L42" s="46">
-        <f t="shared" si="190"/>
-        <v>180376.21950081462</v>
+        <f t="shared" si="197"/>
+        <v>239722.7309893968</v>
       </c>
       <c r="M42" s="46">
-        <f t="shared" si="190"/>
-        <v>235938.04040024662</v>
+        <f t="shared" si="197"/>
+        <v>311447.51071389089</v>
       </c>
       <c r="N42" s="46">
-        <f t="shared" si="190"/>
-        <v>306885.4450489193</v>
+        <f t="shared" si="197"/>
+        <v>400687.12680769019</v>
       </c>
       <c r="O42" s="46">
-        <f t="shared" si="190"/>
-        <v>395360.59683002305</v>
+        <f t="shared" si="197"/>
+        <v>509811.26956057071</v>
       </c>
       <c r="P42" s="46">
-        <f t="shared" si="190"/>
-        <v>503751.50062253466</v>
+        <f t="shared" si="197"/>
+        <v>641458.54429780715</v>
       </c>
       <c r="Q42" s="46">
-        <f t="shared" si="190"/>
-        <v>634718.18354435614</v>
+        <f t="shared" si="197"/>
+        <v>798564.96413381328</v>
       </c>
       <c r="R42" s="46">
-        <f t="shared" si="190"/>
-        <v>791221.57367559639</v>
+        <f t="shared" si="197"/>
+        <v>984395.37185766245</v>
       </c>
       <c r="S42" s="46">
-        <f t="shared" si="190"/>
-        <v>976555.35055290698</v>
+        <f t="shared" si="197"/>
+        <v>1202578.0878475392</v>
       </c>
       <c r="T42" s="46">
-        <f t="shared" si="190"/>
-        <v>1194381.0688044014</v>
+        <f t="shared" si="197"/>
+        <v>1457143.1107998057</v>
       </c>
       <c r="U42" s="46">
-        <f t="shared" si="190"/>
-        <v>1448766.8866411443</v>
+        <f t="shared" si="197"/>
+        <v>1752564.2309458107</v>
+      </c>
+      <c r="V42" s="46">
+        <f t="shared" si="197"/>
+        <v>2093805.451616186</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.15">
@@ -4481,6 +4576,10 @@
         <f>Reports!U35</f>
         <v>55021</v>
       </c>
+      <c r="G43" s="44">
+        <f>Reports!Y35</f>
+        <v>84396</v>
+      </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
@@ -4506,6 +4605,10 @@
         <f>Reports!U36</f>
         <v>23414</v>
       </c>
+      <c r="G44" s="44">
+        <f>Reports!Y36</f>
+        <v>31816</v>
+      </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
@@ -4522,6 +4625,10 @@
         <f>Reports!U38</f>
         <v>14754</v>
       </c>
+      <c r="G46" s="44">
+        <f>Reports!Y38</f>
+        <v>15017</v>
+      </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A47" s="23" t="s">
@@ -4535,6 +4642,10 @@
         <f>Reports!U39</f>
         <v>225248</v>
       </c>
+      <c r="G47" s="44">
+        <f>Reports!Y39</f>
+        <v>321195</v>
+      </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A48" s="23" t="s">
@@ -4548,6 +4659,10 @@
         <f>Reports!U40</f>
         <v>163188</v>
       </c>
+      <c r="G48" s="44">
+        <f>Reports!Y40</f>
+        <v>227791</v>
+      </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
@@ -4564,6 +4679,10 @@
         <f>F47-F46-F43</f>
         <v>155473</v>
       </c>
+      <c r="G50" s="10">
+        <f>G47-G46-G43</f>
+        <v>221782</v>
+      </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A51" s="23" t="s">
@@ -4576,12 +4695,17 @@
       <c r="F51" s="10">
         <f>F47-F48</f>
         <v>62060</v>
+      </c>
+      <c r="G51" s="10">
+        <f>G47-G48</f>
+        <v>93404</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A52" s="23"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A53" s="23" t="s">
@@ -4595,6 +4719,10 @@
         <f>F28/F51</f>
         <v>0.1867869803416049</v>
       </c>
+      <c r="G53" s="19">
+        <f>G28/G51</f>
+        <v>0.22743137338871997</v>
+      </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A54" s="23" t="s">
@@ -4608,6 +4736,10 @@
         <f>F28/F47</f>
         <v>5.1463276033527489E-2</v>
       </c>
+      <c r="G54" s="19">
+        <f>G28/G47</f>
+        <v>6.6137393172371925E-2</v>
+      </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A55" s="23" t="s">
@@ -4621,6 +4753,10 @@
         <f>F28/(F51-F46)</f>
         <v>0.24504291210417284</v>
       </c>
+      <c r="G55" s="19">
+        <f>G28/(G51-G46)</f>
+        <v>0.27100156913773965</v>
+      </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A56" s="23" t="s">
@@ -4633,6 +4769,10 @@
       <c r="F56" s="19">
         <f>F28/F50</f>
         <v>7.4559569828844874E-2</v>
+      </c>
+      <c r="G56" s="19">
+        <f>G28/G50</f>
+        <v>9.5783246611537462E-2</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.15">
@@ -4675,28 +4815,32 @@
         <v>0.13503760786304286</v>
       </c>
       <c r="F58" s="43">
-        <f t="shared" ref="F58:K58" si="191">F10/E10-1</f>
+        <f t="shared" ref="F58:L58" si="198">F10/E10-1</f>
         <v>0.14847097660728359</v>
       </c>
       <c r="G58" s="43">
-        <f t="shared" si="191"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="198"/>
+        <v>0.39719073679440986</v>
       </c>
       <c r="H58" s="43">
-        <f t="shared" si="191"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="198"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="I58" s="43">
-        <f t="shared" si="191"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="198"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="J58" s="43">
-        <f t="shared" si="191"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="198"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="K58" s="43">
-        <f t="shared" si="191"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="198"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="L58" s="43">
+        <f t="shared" si="198"/>
+        <v>0.10000000000000009</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.15">
@@ -4706,31 +4850,35 @@
       <c r="C59" s="43"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43">
-        <f t="shared" ref="E59:K63" si="192">E11/D11-1</f>
+        <f t="shared" ref="E59:L63" si="199">E11/D11-1</f>
         <v>1.9706795446705763</v>
       </c>
       <c r="F59" s="43">
-        <f t="shared" si="192"/>
+        <f t="shared" si="199"/>
         <v>-1.8578727357175806E-3</v>
       </c>
       <c r="G59" s="43">
-        <f t="shared" si="192"/>
+        <f t="shared" si="199"/>
+        <v>-5.6305258259655599E-2</v>
+      </c>
+      <c r="H59" s="43">
+        <f t="shared" si="199"/>
         <v>-5.0000000000000044E-2</v>
       </c>
-      <c r="H59" s="43">
-        <f t="shared" si="192"/>
+      <c r="I59" s="43">
+        <f t="shared" si="199"/>
         <v>-5.0000000000000044E-2</v>
       </c>
-      <c r="I59" s="43">
-        <f t="shared" si="192"/>
+      <c r="J59" s="43">
+        <f t="shared" si="199"/>
         <v>-5.0000000000000044E-2</v>
       </c>
-      <c r="J59" s="43">
-        <f t="shared" si="192"/>
+      <c r="K59" s="43">
+        <f t="shared" si="199"/>
         <v>-5.0000000000000044E-2</v>
       </c>
-      <c r="K59" s="43">
-        <f t="shared" si="192"/>
+      <c r="L59" s="43">
+        <f t="shared" si="199"/>
         <v>-5.0000000000000044E-2</v>
       </c>
     </row>
@@ -4740,35 +4888,39 @@
       </c>
       <c r="C60" s="43"/>
       <c r="D60" s="43">
-        <f t="shared" ref="D60:D63" si="193">D12/C12-1</f>
+        <f t="shared" ref="D60:D63" si="200">D12/C12-1</f>
         <v>0.3865089375027182</v>
       </c>
       <c r="E60" s="43">
-        <f t="shared" si="192"/>
+        <f t="shared" si="199"/>
         <v>0.34080928481806771</v>
       </c>
       <c r="F60" s="43">
-        <f t="shared" si="192"/>
+        <f t="shared" si="199"/>
         <v>0.25771435255585451</v>
       </c>
       <c r="G60" s="43">
-        <f t="shared" si="192"/>
+        <f t="shared" si="199"/>
+        <v>0.4961961273041795</v>
+      </c>
+      <c r="H60" s="43">
+        <f t="shared" si="199"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="H60" s="43">
-        <f t="shared" si="192"/>
+      <c r="I60" s="43">
+        <f t="shared" si="199"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="I60" s="43">
-        <f t="shared" si="192"/>
+      <c r="J60" s="43">
+        <f t="shared" si="199"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="J60" s="43">
-        <f t="shared" si="192"/>
+      <c r="K60" s="43">
+        <f t="shared" si="199"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="K60" s="43">
-        <f t="shared" si="192"/>
+      <c r="L60" s="43">
+        <f t="shared" si="199"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -4778,35 +4930,39 @@
       </c>
       <c r="C61" s="43"/>
       <c r="D61" s="43">
-        <f t="shared" si="193"/>
+        <f t="shared" si="200"/>
         <v>0.52048795746011889</v>
       </c>
       <c r="E61" s="43">
-        <f t="shared" si="192"/>
+        <f t="shared" si="199"/>
         <v>0.45721045052458331</v>
       </c>
       <c r="F61" s="43">
-        <f t="shared" si="192"/>
+        <f t="shared" si="199"/>
         <v>0.35596809486835612</v>
       </c>
       <c r="G61" s="43">
-        <f t="shared" si="192"/>
+        <f t="shared" si="199"/>
+        <v>0.31218115564810001</v>
+      </c>
+      <c r="H61" s="43">
+        <f t="shared" si="199"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="H61" s="43">
-        <f t="shared" si="192"/>
+      <c r="I61" s="43">
+        <f t="shared" si="199"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="I61" s="43">
-        <f t="shared" si="192"/>
+      <c r="J61" s="43">
+        <f t="shared" si="199"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="J61" s="43">
-        <f t="shared" si="192"/>
+      <c r="K61" s="43">
+        <f t="shared" si="199"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="K61" s="43">
-        <f t="shared" si="192"/>
+      <c r="L61" s="43">
+        <f t="shared" si="199"/>
         <v>0.30000000000000004</v>
       </c>
     </row>
@@ -4815,39 +4971,43 @@
         <v>80</v>
       </c>
       <c r="C62" s="43">
-        <f t="shared" ref="C62" si="194">C14/B14-1</f>
+        <f t="shared" ref="C62" si="201">C14/B14-1</f>
         <v>0.5526048284625158</v>
       </c>
       <c r="D62" s="43">
-        <f t="shared" si="193"/>
+        <f t="shared" si="200"/>
         <v>0.42875849087486695</v>
       </c>
       <c r="E62" s="43">
-        <f t="shared" si="192"/>
+        <f t="shared" si="199"/>
         <v>0.46958414480467403</v>
       </c>
       <c r="F62" s="43">
-        <f t="shared" si="192"/>
+        <f t="shared" si="199"/>
         <v>0.36521671343935136</v>
       </c>
       <c r="G62" s="43">
-        <f t="shared" si="192"/>
+        <f t="shared" si="199"/>
+        <v>0.2954091246502597</v>
+      </c>
+      <c r="H62" s="43">
+        <f t="shared" si="199"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="H62" s="43">
-        <f t="shared" si="192"/>
+      <c r="I62" s="43">
+        <f t="shared" si="199"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="I62" s="43">
-        <f t="shared" si="192"/>
+      <c r="J62" s="43">
+        <f t="shared" si="199"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="J62" s="43">
-        <f t="shared" si="192"/>
+      <c r="K62" s="43">
+        <f t="shared" si="199"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="K62" s="43">
-        <f t="shared" si="192"/>
+      <c r="L62" s="43">
+        <f t="shared" si="199"/>
         <v>0.30000000000000004</v>
       </c>
     </row>
@@ -4857,35 +5017,39 @@
       </c>
       <c r="C63" s="43"/>
       <c r="D63" s="43">
-        <f t="shared" si="193"/>
+        <f t="shared" si="200"/>
         <v>0.57728813559322023</v>
       </c>
       <c r="E63" s="43">
-        <f t="shared" si="192"/>
+        <f t="shared" si="199"/>
         <v>1.1723619170427679</v>
       </c>
       <c r="F63" s="43">
-        <f t="shared" si="192"/>
+        <f t="shared" si="199"/>
         <v>0.39354966363276622</v>
       </c>
       <c r="G63" s="43">
-        <f t="shared" si="192"/>
+        <f t="shared" si="199"/>
+        <v>0.52470538122958965</v>
+      </c>
+      <c r="H63" s="43">
+        <f t="shared" si="199"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="H63" s="43">
-        <f t="shared" si="192"/>
+      <c r="I63" s="43">
+        <f t="shared" si="199"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="I63" s="43">
-        <f t="shared" si="192"/>
+      <c r="J63" s="43">
+        <f t="shared" si="199"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="J63" s="43">
-        <f t="shared" si="192"/>
+      <c r="K63" s="43">
+        <f t="shared" si="199"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="K63" s="43">
-        <f t="shared" si="192"/>
+      <c r="L63" s="43">
+        <f t="shared" si="199"/>
         <v>0.39999999999999991</v>
       </c>
     </row>
@@ -4924,12 +5088,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A1" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4938,10 +5101,10 @@
   <dimension ref="A1:AA56"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA13" sqref="AA13"/>
+      <selection pane="bottomRight" activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4957,7 +5120,7 @@
     <col min="15" max="17" width="10.83203125" style="2"/>
     <col min="18" max="18" width="10.83203125" style="3"/>
     <col min="19" max="21" width="10.83203125" style="6"/>
-    <col min="22" max="22" width="10.83203125" style="57"/>
+    <col min="22" max="22" width="10.83203125" style="56"/>
     <col min="23" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
@@ -5025,7 +5188,7 @@
       <c r="U1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="V1" s="54" t="s">
+      <c r="V1" s="53" t="s">
         <v>173</v>
       </c>
       <c r="W1" s="2" t="s">
@@ -5033,6 +5196,9 @@
       </c>
       <c r="X1" s="2" t="s">
         <v>175</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -5097,14 +5263,17 @@
       <c r="U2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="V2" s="55">
+      <c r="V2" s="54">
         <v>43921</v>
       </c>
-      <c r="W2" s="59">
+      <c r="W2" s="58">
         <v>44012</v>
       </c>
-      <c r="X2" s="59">
+      <c r="X2" s="58">
         <v>44104</v>
+      </c>
+      <c r="Y2" s="58">
+        <v>44196</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -5176,14 +5345,17 @@
       <c r="U3" s="5">
         <v>45657</v>
       </c>
-      <c r="V3" s="56">
+      <c r="V3" s="55">
         <v>36652</v>
       </c>
-      <c r="W3" s="61">
+      <c r="W3" s="59">
         <v>45896</v>
       </c>
       <c r="X3" s="28">
         <v>48350</v>
+      </c>
+      <c r="Y3" s="28">
+        <v>66451</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -5250,14 +5422,17 @@
       <c r="U4" s="5">
         <v>4363</v>
       </c>
-      <c r="V4" s="56">
+      <c r="V4" s="55">
         <v>4640</v>
       </c>
-      <c r="W4" s="61">
+      <c r="W4" s="59">
         <v>3774</v>
       </c>
       <c r="X4" s="28">
         <v>3788</v>
+      </c>
+      <c r="Y4" s="28">
+        <v>4022</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -5325,14 +5500,17 @@
       <c r="U5" s="5">
         <v>17446</v>
       </c>
-      <c r="V5" s="56">
+      <c r="V5" s="55">
         <v>14479</v>
       </c>
-      <c r="W5" s="61">
+      <c r="W5" s="59">
         <v>18195</v>
       </c>
       <c r="X5" s="28">
         <v>20436</v>
+      </c>
+      <c r="Y5" s="28">
+        <v>27327</v>
       </c>
     </row>
     <row r="6" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -5400,14 +5578,17 @@
       <c r="U6" s="5">
         <v>5235</v>
       </c>
-      <c r="V6" s="56">
+      <c r="V6" s="55">
         <v>5556</v>
       </c>
-      <c r="W6" s="61">
+      <c r="W6" s="59">
         <v>6018</v>
       </c>
       <c r="X6" s="28">
         <v>6572</v>
+      </c>
+      <c r="Y6" s="28">
+        <v>7061</v>
       </c>
     </row>
     <row r="7" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -5475,14 +5656,17 @@
       <c r="U7" s="5">
         <v>9954</v>
       </c>
-      <c r="V7" s="56">
+      <c r="V7" s="55">
         <v>10219</v>
       </c>
-      <c r="W7" s="61">
+      <c r="W7" s="59">
         <v>10808</v>
       </c>
       <c r="X7" s="28">
         <v>11604</v>
+      </c>
+      <c r="Y7" s="28">
+        <v>12742</v>
       </c>
     </row>
     <row r="8" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -5550,31 +5734,34 @@
       <c r="U8" s="5">
         <v>4782</v>
       </c>
-      <c r="V8" s="56">
+      <c r="V8" s="55">
         <v>3906</v>
       </c>
-      <c r="W8" s="61">
+      <c r="W8" s="59">
         <v>4221</v>
       </c>
       <c r="X8" s="28">
         <v>5398</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="U9" s="51">
+      <c r="Y8" s="28">
+        <v>7952</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="U9" s="65">
         <v>86500</v>
       </c>
-      <c r="V9" s="60">
+      <c r="V9" s="66">
         <v>73000</v>
       </c>
-      <c r="W9" s="51">
+      <c r="W9" s="65">
         <v>81000</v>
       </c>
-      <c r="Y9" s="51">
+      <c r="Y9" s="65">
         <v>112000</v>
       </c>
     </row>
@@ -5639,7 +5826,7 @@
         <v>52886</v>
       </c>
       <c r="P10" s="8">
-        <f t="shared" ref="P10:X10" si="3">SUM(P3:P8)</f>
+        <f t="shared" ref="P10:Y10" si="3">SUM(P3:P8)</f>
         <v>56576</v>
       </c>
       <c r="Q10" s="8">
@@ -5674,12 +5861,9 @@
         <f t="shared" si="3"/>
         <v>96148</v>
       </c>
-      <c r="Y10" s="37">
-        <v>112000</v>
-      </c>
-      <c r="AA10" s="37">
-        <f>SUM(V10:Y10)</f>
-        <v>372512</v>
+      <c r="Y10" s="8">
+        <f t="shared" si="3"/>
+        <v>125555</v>
       </c>
     </row>
     <row r="11" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -5766,7 +5950,7 @@
         <f>53977+12192</f>
         <v>66169</v>
       </c>
-      <c r="V11" s="56">
+      <c r="V11" s="55">
         <f>44257+11531</f>
         <v>55788</v>
       </c>
@@ -5778,7 +5962,11 @@
         <f>57106+14705</f>
         <v>71811</v>
       </c>
-      <c r="AA11" s="66" t="s">
+      <c r="Y11" s="28">
+        <f>79284+18474</f>
+        <v>97758</v>
+      </c>
+      <c r="AA11" s="64" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5878,6 +6066,10 @@
         <f>X10-X11</f>
         <v>24337</v>
       </c>
+      <c r="Y12" s="10">
+        <f>Y10-Y11</f>
+        <v>27797</v>
+      </c>
     </row>
     <row r="13" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28" t="s">
@@ -5943,7 +6135,7 @@
       <c r="U13" s="5">
         <v>9740</v>
       </c>
-      <c r="V13" s="56">
+      <c r="V13" s="55">
         <v>9325</v>
       </c>
       <c r="W13" s="28">
@@ -5951,6 +6143,9 @@
       </c>
       <c r="X13" s="28">
         <v>10976</v>
+      </c>
+      <c r="Y13" s="28">
+        <v>12049</v>
       </c>
     </row>
     <row r="14" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -6017,7 +6212,7 @@
       <c r="U14" s="5">
         <v>6172</v>
       </c>
-      <c r="V14" s="56">
+      <c r="V14" s="55">
         <v>4828</v>
       </c>
       <c r="W14" s="28">
@@ -6025,6 +6220,9 @@
       </c>
       <c r="X14" s="28">
         <v>5434</v>
+      </c>
+      <c r="Y14" s="28">
+        <v>7403</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -6100,7 +6298,7 @@
         <f>1412+65</f>
         <v>1477</v>
       </c>
-      <c r="V15" s="62">
+      <c r="V15" s="60">
         <f>1452+70</f>
         <v>1522</v>
       </c>
@@ -6112,6 +6310,10 @@
         <f>1668+62</f>
         <v>1730</v>
       </c>
+      <c r="Y15" s="28">
+        <f>1968+-496</f>
+        <v>1472</v>
+      </c>
     </row>
     <row r="16" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="28" t="s">
@@ -6206,8 +6408,12 @@
         <v>16603</v>
       </c>
       <c r="X16" s="10">
-        <f t="shared" ref="X16" si="16">SUM(X13:X15)</f>
+        <f t="shared" ref="X16:Y16" si="16">SUM(X13:X15)</f>
         <v>18140</v>
+      </c>
+      <c r="Y16" s="10">
+        <f t="shared" si="16"/>
+        <v>20924</v>
       </c>
     </row>
     <row r="17" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -6303,8 +6509,12 @@
         <v>5843</v>
       </c>
       <c r="X17" s="10">
-        <f t="shared" ref="X17" si="22">X12-X16</f>
+        <f t="shared" ref="X17:Y17" si="22">X12-X16</f>
         <v>6197</v>
+      </c>
+      <c r="Y17" s="10">
+        <f t="shared" si="22"/>
+        <v>6873</v>
       </c>
     </row>
     <row r="18" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -6391,7 +6601,7 @@
         <f>211-455+418+1</f>
         <v>175</v>
       </c>
-      <c r="V18" s="62">
+      <c r="V18" s="60">
         <f>202-402-406-104</f>
         <v>-710</v>
       </c>
@@ -6402,6 +6612,10 @@
       <c r="X18" s="28">
         <v>615</v>
       </c>
+      <c r="Y18" s="28">
+        <f>100-414+1206+23</f>
+        <v>915</v>
+      </c>
     </row>
     <row r="19" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="28" t="s">
@@ -6480,7 +6694,7 @@
         <v>2882</v>
       </c>
       <c r="T19" s="10">
-        <f t="shared" ref="T19:X19" si="30">T17+T18</f>
+        <f t="shared" ref="T19:Y19" si="30">T17+T18</f>
         <v>2628</v>
       </c>
       <c r="U19" s="10">
@@ -6499,6 +6713,10 @@
         <f t="shared" si="30"/>
         <v>6812</v>
       </c>
+      <c r="Y19" s="10">
+        <f t="shared" si="30"/>
+        <v>7788</v>
+      </c>
     </row>
     <row r="20" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="28" t="s">
@@ -6577,7 +6795,7 @@
       <c r="U20" s="5">
         <v>786</v>
       </c>
-      <c r="V20" s="56">
+      <c r="V20" s="55">
         <v>744</v>
       </c>
       <c r="W20" s="28">
@@ -6585,6 +6803,9 @@
       </c>
       <c r="X20" s="28">
         <v>569</v>
+      </c>
+      <c r="Y20" s="28">
+        <v>566</v>
       </c>
     </row>
     <row r="21" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.15">
@@ -6660,28 +6881,32 @@
         <v>3565</v>
       </c>
       <c r="S21" s="8">
-        <f>S19-S20</f>
+        <f t="shared" ref="S21:Y21" si="34">S19-S20</f>
         <v>2625</v>
       </c>
       <c r="T21" s="8">
-        <f>T19-T20</f>
+        <f t="shared" si="34"/>
         <v>2134</v>
       </c>
       <c r="U21" s="8">
-        <f>U19-U20</f>
+        <f t="shared" si="34"/>
         <v>3268</v>
       </c>
       <c r="V21" s="9">
-        <f>V19-V20</f>
+        <f t="shared" si="34"/>
         <v>2535</v>
       </c>
       <c r="W21" s="8">
-        <f>W19-W20</f>
+        <f t="shared" si="34"/>
         <v>5243</v>
       </c>
       <c r="X21" s="8">
-        <f>X19-X20</f>
+        <f t="shared" si="34"/>
         <v>6243</v>
+      </c>
+      <c r="Y21" s="8">
+        <f t="shared" si="34"/>
+        <v>7222</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.15">
@@ -6693,39 +6918,39 @@
         <v>-0.14408602150537633</v>
       </c>
       <c r="C22" s="13">
-        <f t="shared" ref="C22:H22" si="34">IFERROR(C21/C23,0)</f>
+        <f t="shared" ref="C22:H22" si="35">IFERROR(C21/C23,0)</f>
         <v>0.19327731092436976</v>
       </c>
       <c r="D22" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.16527196652719664</v>
       </c>
       <c r="E22" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.002079002079002</v>
       </c>
       <c r="F22" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0665280665280665</v>
       </c>
       <c r="G22" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.7743271221532091</v>
       </c>
       <c r="H22" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.51958762886597942</v>
       </c>
       <c r="I22" s="13">
-        <f t="shared" ref="I22:K22" si="35">IFERROR(I21/I23,0)</f>
+        <f t="shared" ref="I22:K22" si="36">IFERROR(I21/I23,0)</f>
         <v>1.5411522633744856</v>
       </c>
       <c r="J22" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.4775510204081632</v>
       </c>
       <c r="K22" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.39878542510121456</v>
       </c>
       <c r="L22" s="13">
@@ -6737,48 +6962,52 @@
         <v>3.7419354838709675</v>
       </c>
       <c r="N22" s="14">
-        <f t="shared" ref="N22" si="36">IFERROR(N21/N23,0)</f>
+        <f t="shared" ref="N22" si="37">IFERROR(N21/N23,0)</f>
         <v>3.2710843373493974</v>
       </c>
       <c r="O22" s="13">
-        <f t="shared" ref="O22" si="37">IFERROR(O21/O23,0)</f>
+        <f t="shared" ref="O22" si="38">IFERROR(O21/O23,0)</f>
         <v>5.0679999999999996</v>
       </c>
       <c r="P22" s="13">
-        <f t="shared" ref="P22:T22" si="38">IFERROR(P21/P23,0)</f>
+        <f t="shared" ref="P22:T22" si="39">IFERROR(P21/P23,0)</f>
         <v>5.7544910179640718</v>
       </c>
       <c r="Q22" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>6.0419161676646711</v>
       </c>
       <c r="R22" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>7.1015936254980083</v>
       </c>
       <c r="S22" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>5.2186878727634198</v>
       </c>
       <c r="T22" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>4.2341269841269842</v>
       </c>
       <c r="U22" s="13">
-        <f t="shared" ref="U22:W22" si="39">IFERROR(U21/U23,0)</f>
+        <f t="shared" ref="U22:W22" si="40">IFERROR(U21/U23,0)</f>
         <v>6.4712871287128717</v>
       </c>
       <c r="V22" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>5.0098814229249014</v>
       </c>
       <c r="W22" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>10.300589390962672</v>
       </c>
       <c r="X22" s="13">
-        <f t="shared" ref="X22" si="40">IFERROR(X21/X23,0)</f>
+        <f t="shared" ref="X22:Y22" si="41">IFERROR(X21/X23,0)</f>
         <v>12.386904761904763</v>
+      </c>
+      <c r="Y22" s="13">
+        <f t="shared" si="41"/>
+        <v>14.077972709551657</v>
       </c>
     </row>
     <row r="23" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -6846,7 +7075,7 @@
       <c r="U23" s="5">
         <v>505</v>
       </c>
-      <c r="V23" s="56">
+      <c r="V23" s="55">
         <v>506</v>
       </c>
       <c r="W23" s="28">
@@ -6854,6 +7083,9 @@
       </c>
       <c r="X23" s="28">
         <v>504</v>
+      </c>
+      <c r="Y23" s="28">
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.15">
@@ -6883,96 +7115,100 @@
         <v>19</v>
       </c>
       <c r="B25" s="19">
-        <f t="shared" ref="B25:Q25" si="41">IFERROR(B12/B10,0)</f>
+        <f t="shared" ref="B25:Q25" si="42">IFERROR(B12/B10,0)</f>
         <v>0.19857312722948869</v>
       </c>
       <c r="C25" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.22001293940047445</v>
       </c>
       <c r="D25" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.21019007808186765</v>
       </c>
       <c r="E25" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.19089713822138921</v>
       </c>
       <c r="F25" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.22418291678110408</v>
       </c>
       <c r="G25" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.23980397316142613</v>
       </c>
       <c r="H25" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.21663507978235619</v>
       </c>
       <c r="I25" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.20644246816487963</v>
       </c>
       <c r="J25" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.23892591140729125</v>
       </c>
       <c r="K25" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.24450006586747464</v>
       </c>
       <c r="L25" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.22243050475493781</v>
       </c>
       <c r="M25" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.21479496468330769</v>
       </c>
       <c r="N25" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.24519023549233965</v>
       </c>
       <c r="O25" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.27080890973036342</v>
       </c>
       <c r="P25" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.27039734162895929</v>
       </c>
       <c r="Q25" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.24272273876462705</v>
       </c>
       <c r="R25" s="20">
-        <f t="shared" ref="R25:S25" si="42">IFERROR(R12/R10,0)</f>
+        <f t="shared" ref="R25:S25" si="43">IFERROR(R12/R10,0)</f>
         <v>0.28775544388609714</v>
       </c>
       <c r="S25" s="19">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.28067629802536115</v>
       </c>
       <c r="T25" s="19">
-        <f t="shared" ref="T25:U25" si="43">IFERROR(T12/T10,0)</f>
+        <f t="shared" ref="T25:U25" si="44">IFERROR(T12/T10,0)</f>
         <v>0.26452894357039769</v>
       </c>
       <c r="U25" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.24323798849457323</v>
       </c>
       <c r="V25" s="20">
-        <f t="shared" ref="V25:W25" si="44">IFERROR(V12/V10,0)</f>
+        <f t="shared" ref="V25:W25" si="45">IFERROR(V12/V10,0)</f>
         <v>0.26061602078142393</v>
       </c>
       <c r="W25" s="19">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.25245186251574592</v>
       </c>
       <c r="X25" s="19">
-        <f t="shared" ref="X25" si="45">IFERROR(X12/X10,0)</f>
+        <f t="shared" ref="X25:Y25" si="46">IFERROR(X12/X10,0)</f>
         <v>0.25312018970753419</v>
+      </c>
+      <c r="Y25" s="19">
+        <f t="shared" si="46"/>
+        <v>0.22139301501334077</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.15">
@@ -6980,96 +7216,100 @@
         <v>20</v>
       </c>
       <c r="B26" s="21">
-        <f t="shared" ref="B26:Q26" si="46">IFERROR(B17/B10,0)</f>
+        <f t="shared" ref="B26:Q26" si="47">IFERROR(B17/B10,0)</f>
         <v>1.0789624344915665E-2</v>
       </c>
       <c r="C26" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>2.0012939400474446E-2</v>
       </c>
       <c r="D26" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.6010726397980915E-2</v>
       </c>
       <c r="E26" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>3.0995608023050885E-2</v>
       </c>
       <c r="F26" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>3.6768744850315845E-2</v>
       </c>
       <c r="G26" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>4.2264175766346536E-2</v>
       </c>
       <c r="H26" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.7576572721159138E-2</v>
       </c>
       <c r="I26" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>2.8691616561121146E-2</v>
       </c>
       <c r="J26" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>2.8140225121800973E-2</v>
       </c>
       <c r="K26" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.6545909629824794E-2</v>
       </c>
       <c r="L26" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>7.932516459400147E-3</v>
       </c>
       <c r="M26" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>3.5184358096372388E-2</v>
       </c>
       <c r="N26" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>3.7753222836095765E-2</v>
       </c>
       <c r="O26" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>5.6404341413606625E-2</v>
       </c>
       <c r="P26" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>6.5822963800904979E-2</v>
       </c>
       <c r="Q26" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>5.230509926363925E-2</v>
       </c>
       <c r="R26" s="22">
-        <f t="shared" ref="R26:S26" si="47">IFERROR(R17/R10,0)</f>
+        <f t="shared" ref="R26:S26" si="48">IFERROR(R17/R10,0)</f>
         <v>7.4036850921273031E-2</v>
       </c>
       <c r="S26" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>4.8640464324017411E-2</v>
       </c>
       <c r="T26" s="21">
-        <f t="shared" ref="T26:U26" si="48">IFERROR(T17/T10,0)</f>
+        <f t="shared" ref="T26:U26" si="49">IFERROR(T17/T10,0)</f>
         <v>4.5112244752147014E-2</v>
       </c>
       <c r="U26" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>4.4363370197971111E-2</v>
       </c>
       <c r="V26" s="22">
-        <f t="shared" ref="V26:W26" si="49">IFERROR(V17/V10,0)</f>
+        <f t="shared" ref="V26:W26" si="50">IFERROR(V17/V10,0)</f>
         <v>5.2868048560674334E-2</v>
       </c>
       <c r="W26" s="21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>6.5716663667446468E-2</v>
       </c>
       <c r="X26" s="21">
-        <f t="shared" ref="X26" si="50">IFERROR(X17/X10,0)</f>
+        <f t="shared" ref="X26:Y26" si="51">IFERROR(X17/X10,0)</f>
         <v>6.4452718725298494E-2</v>
+      </c>
+      <c r="Y26" s="21">
+        <f t="shared" si="51"/>
+        <v>5.4740950181195493E-2</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.15">
@@ -7077,96 +7317,100 @@
         <v>21</v>
       </c>
       <c r="B27" s="21">
-        <f t="shared" ref="B27:Q27" si="51">IFERROR(B20/B19,0)</f>
+        <f t="shared" ref="B27:Q27" si="52">IFERROR(B20/B19,0)</f>
         <v>7.0909090909090908</v>
       </c>
       <c r="C27" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.7458563535911602</v>
       </c>
       <c r="D27" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.68016194331983804</v>
       </c>
       <c r="E27" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.48614072494669508</v>
       </c>
       <c r="F27" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.51420454545454541</v>
       </c>
       <c r="G27" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2731128074639525</v>
       </c>
       <c r="H27" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.48676171079429736</v>
       </c>
       <c r="I27" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.35763293310463123</v>
       </c>
       <c r="J27" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2402938090241343</v>
       </c>
       <c r="K27" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.70420420420420415</v>
       </c>
       <c r="L27" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.189873417721519</v>
       </c>
       <c r="M27" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>8.5470085470085479E-3</v>
       </c>
       <c r="N27" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.14979123173277661</v>
       </c>
       <c r="O27" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>2.72552783109405E-2</v>
       </c>
       <c r="P27" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.14955752212389381</v>
       </c>
       <c r="Q27" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>9.6417910447761199E-2</v>
       </c>
       <c r="R27" s="22">
-        <f t="shared" ref="R27:S27" si="52">IFERROR(R20/R19,0)</f>
+        <f t="shared" ref="R27:S27" si="53">IFERROR(R20/R19,0)</f>
         <v>0.18995682799363781</v>
       </c>
       <c r="S27" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>8.9174184594031924E-2</v>
       </c>
       <c r="T27" s="21">
-        <f t="shared" ref="T27:U27" si="53">IFERROR(T20/T19,0)</f>
+        <f t="shared" ref="T27:U27" si="54">IFERROR(T20/T19,0)</f>
         <v>0.18797564687975646</v>
       </c>
       <c r="U27" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.19388258510113468</v>
       </c>
       <c r="V27" s="22">
-        <f t="shared" ref="V27:W27" si="54">IFERROR(V20/V19,0)</f>
+        <f t="shared" ref="V27:W27" si="55">IFERROR(V20/V19,0)</f>
         <v>0.22689844464775846</v>
       </c>
       <c r="W27" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.15802151919062149</v>
       </c>
       <c r="X27" s="21">
-        <f t="shared" ref="X27" si="55">IFERROR(X20/X19,0)</f>
+        <f t="shared" ref="X27:Y27" si="56">IFERROR(X20/X19,0)</f>
         <v>8.352906635349383E-2</v>
+      </c>
+      <c r="Y27" s="21">
+        <f t="shared" si="56"/>
+        <v>7.2675911658962505E-2</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.15">
@@ -7176,6 +7420,7 @@
       <c r="V28" s="3"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
     </row>
     <row r="29" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
@@ -7186,84 +7431,84 @@
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="16">
-        <f t="shared" ref="F29:R29" si="56">IFERROR((F10/B10)-1,0)</f>
+        <f t="shared" ref="F29:R29" si="57">IFERROR((F10/B10)-1,0)</f>
         <v>0.28277623640287142</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.31136510675005402</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.29008596892499416</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.22362715752370832</v>
       </c>
       <c r="J29" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.22610546553144739</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.24835547954216541</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.33716451672067005</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.38206716810315267</v>
       </c>
       <c r="N29" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.42918743349946809</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.39338690554604128</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.29334308705193846</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.19734339073329688</v>
       </c>
       <c r="R29" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.16962501469378166</v>
       </c>
       <c r="S29" s="15">
-        <f>IFERROR((S10/O10)-1,0)</f>
+        <f t="shared" ref="S29:Y29" si="58">IFERROR((S10/O10)-1,0)</f>
         <v>0.1988806111258179</v>
       </c>
       <c r="T29" s="15">
-        <f>IFERROR((T10/P10)-1,0)</f>
+        <f t="shared" si="58"/>
         <v>0.23693792420814486</v>
       </c>
       <c r="U29" s="15">
-        <f>IFERROR((U10/Q10)-1,0)</f>
+        <f t="shared" si="58"/>
         <v>0.20797701117665746</v>
       </c>
       <c r="V29" s="16">
-        <f>IFERROR((V10/R10)-1,0)</f>
+        <f t="shared" si="58"/>
         <v>0.26385259631490787</v>
       </c>
       <c r="W29" s="15">
-        <f>IFERROR((W10/S10)-1,0)</f>
+        <f t="shared" si="58"/>
         <v>0.40230900258658764</v>
       </c>
       <c r="X29" s="15">
-        <f>IFERROR((X10/T10)-1,0)</f>
+        <f t="shared" si="58"/>
         <v>0.37391577713950919</v>
       </c>
       <c r="Y29" s="15">
-        <f>IFERROR((Y10/U10)-1,0)</f>
-        <v>0.28092226403010168</v>
+        <f t="shared" si="58"/>
+        <v>0.43594816839553041</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.15">
@@ -7275,80 +7520,84 @@
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="18">
-        <f t="shared" ref="F30:T32" si="57">F13/B13-1</f>
+        <f t="shared" ref="F30:T32" si="59">F13/B13-1</f>
         <v>0.280319535221496</v>
       </c>
       <c r="G30" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.2847682119205297</v>
       </c>
       <c r="H30" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.29340006255864881</v>
       </c>
       <c r="I30" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.27275273032763936</v>
       </c>
       <c r="J30" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.36500283607487227</v>
       </c>
       <c r="K30" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.43015463917525776</v>
       </c>
       <c r="L30" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.43748488512696504</v>
       </c>
       <c r="M30" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.38921892189218932</v>
       </c>
       <c r="N30" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.40432162892167045</v>
       </c>
       <c r="O30" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.30600108127590553</v>
       </c>
       <c r="P30" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.20491251682368783</v>
       </c>
       <c r="Q30" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.21460247070003158</v>
       </c>
       <c r="R30" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.17280662819943782</v>
       </c>
       <c r="S30" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.25086242583137852</v>
       </c>
       <c r="T30" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.28455738620497062</v>
       </c>
       <c r="U30" s="17">
-        <f t="shared" ref="U30:X32" si="58">U13/Q13-1</f>
+        <f t="shared" ref="U30:Y32" si="60">U13/Q13-1</f>
         <v>0.27004824618594347</v>
       </c>
       <c r="V30" s="18">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.17635927841554189</v>
       </c>
       <c r="W30" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.14594594594594601</v>
       </c>
       <c r="X30" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.19304347826086965</v>
+      </c>
+      <c r="Y30" s="17">
+        <f t="shared" si="60"/>
+        <v>0.23706365503080074</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.15">
@@ -7360,80 +7609,84 @@
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.32594644506001846</v>
       </c>
       <c r="G31" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.34434782608695658</v>
       </c>
       <c r="H31" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.375</v>
       </c>
       <c r="I31" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.431908831908832</v>
       </c>
       <c r="J31" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.3370473537604457</v>
       </c>
       <c r="K31" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.44178525226390675</v>
       </c>
       <c r="L31" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.42635212888377438</v>
       </c>
       <c r="M31" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.36888181456426583</v>
       </c>
       <c r="N31" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.4057291666666667</v>
       </c>
       <c r="O31" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.30148048452220721</v>
       </c>
       <c r="P31" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.33239209358612354</v>
       </c>
       <c r="Q31" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.42761627906976751</v>
       </c>
       <c r="R31" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.35753982956650621</v>
       </c>
       <c r="S31" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.4791451223715959</v>
       </c>
       <c r="T31" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.43869209809264298</v>
       </c>
       <c r="U31" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.25677051517002658</v>
       </c>
       <c r="V31" s="18">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.31768558951965065</v>
       </c>
       <c r="W31" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1.2584479142391025E-2</v>
       </c>
       <c r="X31" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.1435185185185186</v>
+      </c>
+      <c r="Y31" s="17">
+        <f t="shared" si="60"/>
+        <v>0.19944912508101109</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.15">
@@ -7445,89 +7698,93 @@
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
       <c r="F32" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.16393442622950816</v>
       </c>
       <c r="G32" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.24197002141327628</v>
       </c>
       <c r="H32" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.38012958963282939</v>
       </c>
       <c r="I32" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.83846153846153837</v>
       </c>
       <c r="J32" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.5995975855130784</v>
       </c>
       <c r="K32" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.50689655172413794</v>
       </c>
       <c r="L32" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.50234741784037551</v>
       </c>
       <c r="M32" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.53974895397489542</v>
       </c>
       <c r="N32" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.42138364779874204</v>
       </c>
       <c r="O32" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.36270022883295194</v>
       </c>
       <c r="P32" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.15520833333333339</v>
       </c>
       <c r="Q32" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>8.9673913043478271E-2</v>
       </c>
       <c r="R32" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>3.3628318584070893E-2</v>
       </c>
       <c r="S32" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.13853904282115859</v>
       </c>
       <c r="T32" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.26510369702434633</v>
       </c>
       <c r="U32" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.22776392352452213</v>
       </c>
       <c r="V32" s="18">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.30308219178082196</v>
       </c>
       <c r="W32" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.37905604719764008</v>
       </c>
       <c r="X32" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.23307198859586609</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y32" s="17">
+        <f t="shared" si="60"/>
+        <v>-3.3852403520649998E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="3"/>
     </row>
-    <row r="34" spans="1:24" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="37" t="s">
         <v>37</v>
       </c>
@@ -7552,23 +7809,23 @@
         <v>7640</v>
       </c>
       <c r="G34" s="8">
-        <f t="shared" ref="G34:K34" si="59">G35-G36</f>
+        <f t="shared" ref="G34:K34" si="61">G35-G36</f>
         <v>8328</v>
       </c>
       <c r="H34" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>10142</v>
       </c>
       <c r="I34" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>18287</v>
       </c>
       <c r="J34" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>13840</v>
       </c>
       <c r="K34" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>13768</v>
       </c>
       <c r="L34" s="8">
@@ -7580,31 +7837,31 @@
         <v>6243</v>
       </c>
       <c r="N34" s="9">
-        <f t="shared" ref="N34" si="60">N35-N36</f>
+        <f t="shared" ref="N34" si="62">N35-N36</f>
         <v>323</v>
       </c>
       <c r="O34" s="8">
-        <f t="shared" ref="O34" si="61">O35-O36</f>
+        <f t="shared" ref="O34" si="63">O35-O36</f>
         <v>2412</v>
       </c>
       <c r="P34" s="8">
-        <f t="shared" ref="P34:T34" si="62">P35-P36</f>
+        <f t="shared" ref="P34:T34" si="64">P35-P36</f>
         <v>5081</v>
       </c>
       <c r="Q34" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>17755</v>
       </c>
       <c r="R34" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>13745</v>
       </c>
       <c r="S34" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>18134</v>
       </c>
       <c r="T34" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>20929</v>
       </c>
       <c r="U34" s="8">
@@ -7616,15 +7873,19 @@
         <v>25855</v>
       </c>
       <c r="W34" s="8">
-        <f t="shared" ref="W34:X34" si="63">W35-W36</f>
+        <f t="shared" ref="W34:Y34" si="65">W35-W36</f>
         <v>38263</v>
       </c>
       <c r="X34" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>35473</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y34" s="8">
+        <f t="shared" si="65"/>
+        <v>52580</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="28" t="s">
         <v>38</v>
       </c>
@@ -7720,8 +7981,12 @@
         <f>29930+38472</f>
         <v>68402</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y35" s="28">
+        <f>42122+42274</f>
+        <v>84396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="28" t="s">
         <v>39</v>
       </c>
@@ -7795,8 +8060,11 @@
       <c r="X36" s="28">
         <v>32929</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y36" s="28">
+        <v>31816</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -7819,8 +8087,8 @@
       <c r="U37" s="5"/>
       <c r="V37" s="4"/>
     </row>
-    <row r="38" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="63" t="s">
+    <row r="38" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="61" t="s">
         <v>82</v>
       </c>
       <c r="B38" s="5"/>
@@ -7868,9 +8136,12 @@
       <c r="X38" s="28">
         <v>14960</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="63" t="s">
+      <c r="Y38" s="28">
+        <v>15017</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="61" t="s">
         <v>83</v>
       </c>
       <c r="B39" s="5"/>
@@ -7918,9 +8189,12 @@
       <c r="X39" s="28">
         <v>282179</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="63" t="s">
+      <c r="Y39" s="28">
+        <v>321195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="61" t="s">
         <v>84</v>
       </c>
       <c r="B40" s="5"/>
@@ -7979,8 +8253,12 @@
         <f>101912+48589+32929+15974</f>
         <v>199404</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y40" s="28">
+        <f>126385+52573+31816+17017</f>
+        <v>227791</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -8003,8 +8281,8 @@
       <c r="U41" s="5"/>
       <c r="V41" s="4"/>
     </row>
-    <row r="42" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="63" t="s">
+    <row r="42" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="61" t="s">
         <v>85</v>
       </c>
       <c r="B42" s="5"/>
@@ -8020,31 +8298,31 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="11">
-        <f t="shared" ref="N42:T42" si="64">N39-N38-N35</f>
+        <f t="shared" ref="N42:T42" si="66">N39-N38-N35</f>
         <v>88011</v>
       </c>
       <c r="O42" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>93106</v>
       </c>
       <c r="P42" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>99377</v>
       </c>
       <c r="Q42" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>106850</v>
       </c>
       <c r="R42" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>126374</v>
       </c>
       <c r="S42" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>135161</v>
       </c>
       <c r="T42" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>140964</v>
       </c>
       <c r="U42" s="10">
@@ -8056,16 +8334,20 @@
         <v>157207</v>
       </c>
       <c r="W42" s="10">
-        <f t="shared" ref="W42:X42" si="65">W39-W38-W35</f>
+        <f t="shared" ref="W42:X42" si="67">W39-W38-W35</f>
         <v>172172</v>
       </c>
       <c r="X42" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>198817</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="63" t="s">
+      <c r="Y42" s="10">
+        <f t="shared" ref="Y42" si="68">Y39-Y38-Y35</f>
+        <v>221782</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="61" t="s">
         <v>86</v>
       </c>
       <c r="B43" s="5"/>
@@ -8081,31 +8363,31 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="11">
-        <f t="shared" ref="N43:T43" si="66">N39-N40</f>
+        <f t="shared" ref="N43:T43" si="69">N39-N40</f>
         <v>31463</v>
       </c>
       <c r="O43" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>34995</v>
       </c>
       <c r="P43" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>39125</v>
       </c>
       <c r="Q43" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>43549</v>
       </c>
       <c r="R43" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>48410</v>
       </c>
       <c r="S43" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>53061</v>
       </c>
       <c r="T43" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>56508</v>
       </c>
       <c r="U43" s="10">
@@ -8117,15 +8399,19 @@
         <v>65272</v>
       </c>
       <c r="W43" s="10">
-        <f t="shared" ref="W43:X43" si="67">W39-W40</f>
+        <f t="shared" ref="W43:X43" si="70">W39-W40</f>
         <v>73728</v>
       </c>
       <c r="X43" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>82775</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y43" s="10">
+        <f t="shared" ref="Y43" si="71">Y39-Y40</f>
+        <v>93404</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -8148,48 +8434,48 @@
       <c r="U44" s="5"/>
       <c r="V44" s="4"/>
     </row>
-    <row r="45" spans="1:24" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="64"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
       <c r="N45" s="9">
-        <f t="shared" ref="N45:T45" si="68">SUM(K21:N21)</f>
+        <f t="shared" ref="N45:T45" si="72">SUM(K21:N21)</f>
         <v>3938</v>
       </c>
       <c r="O45" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>6275</v>
       </c>
       <c r="P45" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>8902</v>
       </c>
       <c r="Q45" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>10073</v>
       </c>
       <c r="R45" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>12009</v>
       </c>
       <c r="S45" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>12100</v>
       </c>
       <c r="T45" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>11351</v>
       </c>
       <c r="U45" s="8">
@@ -8201,300 +8487,325 @@
         <v>10562</v>
       </c>
       <c r="W45" s="8">
-        <f t="shared" ref="W45:X45" si="69">SUM(T21:W21)</f>
+        <f t="shared" ref="W45:X45" si="73">SUM(T21:W21)</f>
         <v>13180</v>
       </c>
       <c r="X45" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>17289</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y45" s="8">
+        <f>SUM(V21:Y21)</f>
+        <v>21243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A46" s="23" t="s">
         <v>88</v>
       </c>
       <c r="N46" s="20">
-        <f t="shared" ref="N46:U46" si="70">N45/N43</f>
+        <f t="shared" ref="N46:U46" si="74">N45/N43</f>
         <v>0.12516288974350825</v>
       </c>
       <c r="O46" s="19">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0.17931133019002715</v>
       </c>
       <c r="P46" s="19">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0.22752715654952077</v>
       </c>
       <c r="Q46" s="19">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0.231302670555007</v>
       </c>
       <c r="R46" s="20">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0.24806858087172071</v>
       </c>
       <c r="S46" s="19">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0.22803942632064983</v>
       </c>
       <c r="T46" s="19">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0.20087421250088483</v>
       </c>
       <c r="U46" s="19">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0.1867869803416049</v>
       </c>
       <c r="V46" s="20">
-        <f t="shared" ref="V46:W46" si="71">V45/V43</f>
+        <f t="shared" ref="V46:W46" si="75">V45/V43</f>
         <v>0.16181517342811619</v>
       </c>
       <c r="W46" s="19">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>0.17876519097222221</v>
       </c>
       <c r="X46" s="19">
-        <f t="shared" ref="X46" si="72">X45/X43</f>
+        <f t="shared" ref="X46:Y46" si="76">X45/X43</f>
         <v>0.20886741165810932</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y46" s="19">
+        <f t="shared" si="76"/>
+        <v>0.22743137338871997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A47" s="23" t="s">
         <v>89</v>
       </c>
       <c r="N47" s="20">
-        <f t="shared" ref="N47:U47" si="73">N45/N39</f>
+        <f t="shared" ref="N47:U47" si="77">N45/N39</f>
         <v>3.116443234516706E-2</v>
       </c>
       <c r="O47" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>4.679343773303505E-2</v>
       </c>
       <c r="P47" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>6.1950659382720347E-2</v>
       </c>
       <c r="Q47" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>6.1931287196891449E-2</v>
       </c>
       <c r="R47" s="20">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>6.7427653816352434E-2</v>
       </c>
       <c r="S47" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>6.3234579385527123E-2</v>
       </c>
       <c r="T47" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>5.7011838331684238E-2</v>
       </c>
       <c r="U47" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>5.1463276033527489E-2</v>
       </c>
       <c r="V47" s="20">
-        <f t="shared" ref="V47:W47" si="74">V45/V39</f>
+        <f t="shared" ref="V47:W47" si="78">V45/V39</f>
         <v>4.7740442419475858E-2</v>
       </c>
       <c r="W47" s="19">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>5.1023173347166627E-2</v>
       </c>
       <c r="X47" s="19">
-        <f t="shared" ref="X47" si="75">X45/X39</f>
+        <f t="shared" ref="X47:Y47" si="79">X45/X39</f>
         <v>6.1269619638598193E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y47" s="19">
+        <f t="shared" si="79"/>
+        <v>6.6137393172371925E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A48" s="23" t="s">
         <v>90</v>
       </c>
       <c r="N48" s="20">
-        <f t="shared" ref="N48:U48" si="76">N45/(N43-N38)</f>
+        <f t="shared" ref="N48:U48" si="80">N45/(N43-N38)</f>
         <v>0.21786998616874134</v>
       </c>
       <c r="O48" s="19">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.29808560163412662</v>
       </c>
       <c r="P48" s="19">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.36228227250529055</v>
       </c>
       <c r="Q48" s="19">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.34733285059135893</v>
       </c>
       <c r="R48" s="20">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.35632900124621686</v>
       </c>
       <c r="S48" s="19">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.3156466844054886</v>
       </c>
       <c r="T48" s="19">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.27172403887585578</v>
       </c>
       <c r="U48" s="19">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.24504291210417284</v>
       </c>
       <c r="V48" s="20">
-        <f t="shared" ref="V48:W48" si="77">V45/(V43-V38)</f>
+        <f t="shared" ref="V48:W48" si="81">V45/(V43-V38)</f>
         <v>0.20901193279639046</v>
       </c>
       <c r="W48" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>0.22347694864099565</v>
       </c>
       <c r="X48" s="19">
-        <f t="shared" ref="X48" si="78">X45/(X43-X38)</f>
+        <f t="shared" ref="X48:Y48" si="82">X45/(X43-X38)</f>
         <v>0.25494359654943599</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y48" s="19">
+        <f t="shared" si="82"/>
+        <v>0.27100156913773965</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A49" s="23" t="s">
         <v>91</v>
       </c>
       <c r="N49" s="20">
-        <f t="shared" ref="N49:U49" si="79">N45/N42</f>
+        <f t="shared" ref="N49:U49" si="83">N45/N42</f>
         <v>4.4744406949131357E-2</v>
       </c>
       <c r="O49" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>6.7396300990269151E-2</v>
       </c>
       <c r="P49" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>8.9578071384726843E-2</v>
       </c>
       <c r="Q49" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>9.4272344408048672E-2</v>
       </c>
       <c r="R49" s="20">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>9.5027458179688856E-2</v>
       </c>
       <c r="S49" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>8.9522865323577061E-2</v>
       </c>
       <c r="T49" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>8.052410544536194E-2</v>
       </c>
       <c r="U49" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>7.4559569828844874E-2</v>
       </c>
       <c r="V49" s="20">
-        <f t="shared" ref="V49:W49" si="80">V45/V42</f>
+        <f t="shared" ref="V49:W49" si="84">V45/V42</f>
         <v>6.7185303453408562E-2</v>
       </c>
       <c r="W49" s="19">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>7.6551355621123057E-2</v>
       </c>
       <c r="X49" s="19">
-        <f t="shared" ref="X49" si="81">X45/X42</f>
+        <f t="shared" ref="X49:Y49" si="85">X45/X42</f>
         <v>8.6959364641856579E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y49" s="19">
+        <f t="shared" si="85"/>
+        <v>9.5783246611537462E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.15">
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="3"/>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y50" s="2"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A51" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F51" s="18">
-        <f t="shared" ref="F51:X51" si="82">F3/B3-1</f>
+        <f t="shared" ref="F51:Y51" si="86">F3/B3-1</f>
         <v>-5.8389674247080525E-2</v>
       </c>
       <c r="G51" s="21">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>-4.6018444829361904E-2</v>
       </c>
       <c r="H51" s="21">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>-7.2315558802045321E-2</v>
       </c>
       <c r="I51" s="21">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>-0.11382040669425952</v>
       </c>
       <c r="J51" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.14611367744527004</v>
       </c>
       <c r="K51" s="21">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.16566885857297087</v>
       </c>
       <c r="L51" s="21">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.22241778601204265</v>
       </c>
       <c r="M51" s="21">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.19751582224929765</v>
       </c>
       <c r="N51" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.18018925786383955</v>
       </c>
       <c r="O51" s="21">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.1435968678959334</v>
       </c>
       <c r="P51" s="21">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.10112913003940593</v>
       </c>
       <c r="Q51" s="21">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.12545572732668231</v>
       </c>
       <c r="R51" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>9.4992390214930111E-2</v>
       </c>
       <c r="S51" s="21">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.14312534511319708</v>
       </c>
       <c r="T51" s="21">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.20570524070059526</v>
       </c>
       <c r="U51" s="21">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.14652704535181549</v>
       </c>
       <c r="V51" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.24252491694352152</v>
       </c>
       <c r="W51" s="21">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.47798924419540789</v>
       </c>
       <c r="X51" s="21">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.37989097862381915</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y51" s="21">
+        <f t="shared" si="86"/>
+        <v>0.45543947258908823</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
         <v>75</v>
       </c>
@@ -8509,11 +8820,11 @@
       <c r="N52" s="22"/>
       <c r="O52" s="21"/>
       <c r="P52" s="21">
-        <f t="shared" ref="P52:X56" si="83">P4/L4-1</f>
+        <f t="shared" ref="P52:Y56" si="87">P4/L4-1</f>
         <v>2.3291536050156738</v>
       </c>
       <c r="Q52" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>-2.6758071649712556E-2</v>
       </c>
       <c r="R52" s="22">
@@ -8521,31 +8832,35 @@
         <v>1.0321369927281276E-2</v>
       </c>
       <c r="S52" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>4.1743970315399892E-3</v>
       </c>
       <c r="T52" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>-1.3182674199623379E-2</v>
       </c>
       <c r="U52" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>-8.6344012724380859E-3</v>
       </c>
       <c r="V52" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>7.7315997213837973E-2</v>
       </c>
       <c r="W52" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>-0.12840646651270204</v>
       </c>
       <c r="X52" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>-9.6374045801526753E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y52" s="21">
+        <f t="shared" si="87"/>
+        <v>-7.8157231262892535E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
         <v>78</v>
       </c>
@@ -8554,67 +8869,71 @@
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
       <c r="J53" s="22">
-        <f t="shared" ref="J53:O56" si="84">J5/F5-1</f>
+        <f t="shared" ref="J53:O56" si="88">J5/F5-1</f>
         <v>0.340970631118517</v>
       </c>
       <c r="K53" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.37536887664764906</v>
       </c>
       <c r="L53" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.40268931351733905</v>
       </c>
       <c r="M53" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.41115730186402044</v>
       </c>
       <c r="N53" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.4391115253184219</v>
       </c>
       <c r="O53" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.38778429409240456</v>
       </c>
       <c r="P53" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.31117558022199798</v>
       </c>
       <c r="Q53" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.27178561246792743</v>
       </c>
       <c r="R53" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.20248246087425792</v>
       </c>
       <c r="S53" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.23294166151309015</v>
       </c>
       <c r="T53" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.2709956709956709</v>
       </c>
       <c r="U53" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.30359411193304942</v>
       </c>
       <c r="V53" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.29961403823714217</v>
       </c>
       <c r="W53" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.52106671125229886</v>
       </c>
       <c r="X53" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.54677565849227983</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y53" s="21">
+        <f t="shared" si="87"/>
+        <v>0.56637624670411557</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A54" s="6" t="s">
         <v>79</v>
       </c>
@@ -8624,67 +8943,71 @@
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
       <c r="J54" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.49153846153846148</v>
       </c>
       <c r="K54" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.51292802236198454</v>
       </c>
       <c r="L54" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.59334203655352491</v>
       </c>
       <c r="M54" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.49084936649460342</v>
       </c>
       <c r="N54" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.59979370809695709</v>
       </c>
       <c r="O54" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.57413394919168592</v>
       </c>
       <c r="P54" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.51495288816058982</v>
       </c>
       <c r="Q54" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.24614416115832549</v>
       </c>
       <c r="R54" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.39974210186976133</v>
       </c>
       <c r="S54" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.3720657276995305</v>
       </c>
       <c r="T54" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.34045429962141704</v>
       </c>
       <c r="U54" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.3223036120232381</v>
       </c>
       <c r="V54" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.27959465684016571</v>
       </c>
       <c r="W54" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.28699743370402042</v>
       </c>
       <c r="X54" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.32580189630825096</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y54" s="21">
+        <f t="shared" si="87"/>
+        <v>0.34880611270296091</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A55" s="6" t="s">
         <v>80</v>
       </c>
@@ -8705,67 +9028,71 @@
         <v>0.47027027027027035</v>
       </c>
       <c r="J55" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.42673421667965705</v>
       </c>
       <c r="K55" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.42065142065142069</v>
       </c>
       <c r="L55" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.41875580315691741</v>
       </c>
       <c r="M55" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.44598416289592757</v>
       </c>
       <c r="N55" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.48647910406992634</v>
       </c>
       <c r="O55" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.48902439024390243</v>
       </c>
       <c r="P55" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.45702443280977323</v>
       </c>
       <c r="Q55" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.45315861529434764</v>
       </c>
       <c r="R55" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.41418596104373395</v>
       </c>
       <c r="S55" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.37280917280917292</v>
       </c>
       <c r="T55" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.34675849678095516</v>
       </c>
       <c r="U55" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.33970390309555865</v>
       </c>
       <c r="V55" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.32783264033264037</v>
       </c>
       <c r="W55" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.28958358191146649</v>
       </c>
       <c r="X55" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.29005002779321853</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y55" s="21">
+        <f t="shared" si="87"/>
+        <v>0.28008840667068524</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
         <v>81</v>
       </c>
@@ -8774,64 +9101,68 @@
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
       <c r="J56" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.55963302752293576</v>
       </c>
       <c r="K56" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.50958466453674123</v>
       </c>
       <c r="L56" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.58392101551480957</v>
       </c>
       <c r="M56" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.62149532710280364</v>
       </c>
       <c r="N56" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>1.3894117647058826</v>
       </c>
       <c r="O56" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>1.3216931216931216</v>
       </c>
       <c r="P56" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>1.2217275155832592</v>
       </c>
       <c r="Q56" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.95273775216138334</v>
       </c>
       <c r="R56" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.33727227966518947</v>
       </c>
       <c r="S56" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.3682771194165908</v>
       </c>
       <c r="T56" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.43727454909819641</v>
       </c>
       <c r="U56" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.41145218417945695</v>
       </c>
       <c r="V56" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.43814432989690721</v>
       </c>
       <c r="W56" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.40606262491672229</v>
       </c>
       <c r="X56" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.50529838259899607</v>
+      </c>
+      <c r="Y56" s="21">
+        <f t="shared" si="87"/>
+        <v>0.66290255123379338</v>
       </c>
     </row>
   </sheetData>
@@ -8883,7 +9214,7 @@
       <c r="C7" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="53"/>
+      <c r="D7" s="52"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="24" t="s">
@@ -8892,7 +9223,7 @@
       <c r="C8" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="51" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8903,7 +9234,7 @@
       <c r="C9" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="51" t="s">
         <v>156</v>
       </c>
     </row>
@@ -8922,7 +9253,7 @@
       <c r="C11" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="51" t="s">
         <v>157</v>
       </c>
     </row>
@@ -8933,7 +9264,7 @@
       <c r="C12" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="51" t="s">
         <v>158</v>
       </c>
     </row>
@@ -8944,23 +9275,23 @@
       <c r="C13" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="51" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="52" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="52" t="s">
         <v>153</v>
       </c>
     </row>
@@ -8984,7 +9315,7 @@
       <c r="C20" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="51" t="s">
         <v>160</v>
       </c>
     </row>
@@ -8995,7 +9326,7 @@
       <c r="C21" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="51" t="s">
         <v>161</v>
       </c>
     </row>
@@ -9006,7 +9337,7 @@
       <c r="C22" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="51" t="s">
         <v>162</v>
       </c>
     </row>
@@ -9017,7 +9348,7 @@
       <c r="C23" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="51" t="s">
         <v>163</v>
       </c>
     </row>
@@ -9028,7 +9359,7 @@
       <c r="C24" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="51" t="s">
         <v>164</v>
       </c>
     </row>
@@ -9039,7 +9370,7 @@
       <c r="C25" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="51" t="s">
         <v>165</v>
       </c>
     </row>
@@ -9050,18 +9381,18 @@
       <c r="C26" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="51" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="51" t="s">
         <v>172</v>
       </c>
     </row>
@@ -9085,7 +9416,7 @@
       <c r="C32" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="51" t="s">
         <v>167</v>
       </c>
     </row>
@@ -9104,7 +9435,7 @@
       <c r="C34" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="51" t="s">
         <v>168</v>
       </c>
     </row>
@@ -9131,7 +9462,7 @@
       <c r="C37" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="51" t="s">
         <v>169</v>
       </c>
     </row>

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF89E4F-CE9F-004F-AFC5-96355AFD57C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FB0D92-88F6-5C45-A810-6C86695E1E83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18340" windowHeight="20340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-55700" yWindow="-5940" windowWidth="27420" windowHeight="27080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -1210,7 +1210,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1232,10 +1232,10 @@
         <v>65</v>
       </c>
       <c r="C2" s="26">
-        <v>3352.15</v>
+        <v>3277.71</v>
       </c>
       <c r="D2" s="57">
-        <v>44232</v>
+        <v>44239</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>41</v>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="C4" s="30">
         <f>C2*C3</f>
-        <v>1719652.95</v>
+        <v>1681465.23</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>43</v>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="F5" s="31">
         <f>NPV(F4,H28:GU28)</f>
-        <v>3507253.2809648374</v>
+        <v>1899892.2529511203</v>
       </c>
       <c r="G5" s="29"/>
       <c r="I5" s="47"/>
@@ -1316,14 +1316,14 @@
       </c>
       <c r="C6" s="30">
         <f>C4-C5</f>
-        <v>1667072.95</v>
+        <v>1628885.23</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="32">
         <f>F5+C5</f>
-        <v>3559833.2809648374</v>
+        <v>1952472.2529511203</v>
       </c>
       <c r="I6" s="47"/>
     </row>
@@ -1336,18 +1336,18 @@
       </c>
       <c r="C7" s="33">
         <f>C6/C3</f>
-        <v>3249.654873294347</v>
+        <v>3175.2148732943469</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>68</v>
       </c>
       <c r="F7" s="33">
         <f>F6/C3</f>
-        <v>6939.2461617248291</v>
+        <v>3805.988797175673</v>
       </c>
       <c r="G7" s="47">
         <f>F7/C2-1</f>
-        <v>1.0700882006249208</v>
+        <v>0.16117313526079879</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
@@ -1462,11 +1462,11 @@
         <v>197349</v>
       </c>
       <c r="H10" s="28">
-        <f>G10*1.1</f>
+        <f t="shared" ref="H10:L10" si="1">G10*1.1</f>
         <v>217083.90000000002</v>
       </c>
       <c r="I10" s="28">
-        <f t="shared" ref="I10:L10" si="1">H10*1.1</f>
+        <f t="shared" si="1"/>
         <v>238792.29000000004</v>
       </c>
       <c r="J10" s="28">
@@ -1511,24 +1511,24 @@
         <v>16224</v>
       </c>
       <c r="H11" s="28">
-        <f t="shared" ref="H11:L11" si="2">G11*0.95</f>
-        <v>15412.8</v>
+        <f>G11*1.05</f>
+        <v>17035.2</v>
       </c>
       <c r="I11" s="28">
-        <f t="shared" si="2"/>
-        <v>14642.159999999998</v>
+        <f>H11*1.05</f>
+        <v>17886.960000000003</v>
       </c>
       <c r="J11" s="28">
-        <f t="shared" si="2"/>
-        <v>13910.051999999998</v>
+        <f t="shared" ref="J11:L11" si="2">I11*1.05</f>
+        <v>18781.308000000005</v>
       </c>
       <c r="K11" s="28">
         <f t="shared" si="2"/>
-        <v>13214.549399999998</v>
+        <v>19720.373400000004</v>
       </c>
       <c r="L11" s="28">
         <f t="shared" si="2"/>
-        <v>12553.821929999998</v>
+        <v>20706.392070000005</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
@@ -1658,24 +1658,24 @@
         <v>45373</v>
       </c>
       <c r="H14" s="28">
-        <f t="shared" si="4"/>
-        <v>58984.9</v>
+        <f>G14*1.25</f>
+        <v>56716.25</v>
       </c>
       <c r="I14" s="28">
-        <f t="shared" si="4"/>
-        <v>76680.37000000001</v>
+        <f t="shared" ref="I14:L14" si="5">H14*1.25</f>
+        <v>70895.3125</v>
       </c>
       <c r="J14" s="28">
-        <f t="shared" si="4"/>
-        <v>99684.481000000014</v>
+        <f t="shared" si="5"/>
+        <v>88619.140625</v>
       </c>
       <c r="K14" s="28">
-        <f t="shared" si="4"/>
-        <v>129589.82530000003</v>
+        <f t="shared" si="5"/>
+        <v>110773.92578125</v>
       </c>
       <c r="L14" s="28">
-        <f t="shared" si="4"/>
-        <v>168466.77289000005</v>
+        <f t="shared" si="5"/>
+        <v>138467.4072265625</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
@@ -1707,24 +1707,24 @@
         <v>21477</v>
       </c>
       <c r="H15" s="28">
-        <f t="shared" ref="H15:L15" si="5">G15*1.4</f>
-        <v>30067.8</v>
+        <f>G15*1.35</f>
+        <v>28993.95</v>
       </c>
       <c r="I15" s="28">
-        <f t="shared" si="5"/>
-        <v>42094.92</v>
+        <f t="shared" ref="I15:L15" si="6">H15*1.35</f>
+        <v>39141.832500000004</v>
       </c>
       <c r="J15" s="28">
-        <f t="shared" si="5"/>
-        <v>58932.887999999992</v>
+        <f t="shared" si="6"/>
+        <v>52841.473875000011</v>
       </c>
       <c r="K15" s="28">
-        <f t="shared" si="5"/>
-        <v>82506.043199999986</v>
+        <f t="shared" si="6"/>
+        <v>71335.989731250025</v>
       </c>
       <c r="L15" s="28">
-        <f t="shared" si="5"/>
-        <v>115508.46047999997</v>
+        <f t="shared" si="6"/>
+        <v>96303.586137187536</v>
       </c>
     </row>
     <row r="17" spans="1:203" x14ac:dyDescent="0.15">
@@ -1732,88 +1732,88 @@
         <v>4</v>
       </c>
       <c r="B17" s="35">
-        <f t="shared" ref="B17:E17" si="6">SUM(B10:B15)</f>
+        <f t="shared" ref="B17:E17" si="7">SUM(B10:B15)</f>
         <v>106997</v>
       </c>
       <c r="C17" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>135987</v>
       </c>
       <c r="D17" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>177866</v>
       </c>
       <c r="E17" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>232887</v>
       </c>
       <c r="F17" s="35">
-        <f t="shared" ref="F17:K17" si="7">SUM(F10:F15)</f>
+        <f t="shared" ref="F17:K17" si="8">SUM(F10:F15)</f>
         <v>280522</v>
       </c>
       <c r="G17" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>386067</v>
       </c>
       <c r="H17" s="36">
-        <f t="shared" si="7"/>
-        <v>450842.89999999997</v>
+        <f>SUM(H10:H15)</f>
+        <v>449122.8</v>
       </c>
       <c r="I17" s="36">
-        <f t="shared" si="7"/>
-        <v>530638.85000000009</v>
+        <f t="shared" si="8"/>
+        <v>525145.505</v>
       </c>
       <c r="J17" s="36">
-        <f t="shared" si="7"/>
-        <v>629573.8550000001</v>
+        <f t="shared" si="8"/>
+        <v>617288.35650000011</v>
       </c>
       <c r="K17" s="36">
-        <f t="shared" si="7"/>
-        <v>753036.96470000013</v>
+        <f t="shared" si="8"/>
+        <v>729556.83571250003</v>
       </c>
       <c r="L17" s="36">
-        <f t="shared" ref="L17" si="8">SUM(L10:L15)</f>
-        <v>908106.41564000014</v>
+        <f t="shared" ref="L17" si="9">SUM(L10:L15)</f>
+        <v>867054.74577375024</v>
       </c>
       <c r="M17" s="37">
-        <f t="shared" ref="M17:V17" si="9">L17*1.1</f>
-        <v>998917.05720400019</v>
+        <f t="shared" ref="M17:V17" si="10">L17*1.1</f>
+        <v>953760.22035112535</v>
       </c>
       <c r="N17" s="37">
-        <f t="shared" si="9"/>
-        <v>1098808.7629244004</v>
+        <f t="shared" si="10"/>
+        <v>1049136.242386238</v>
       </c>
       <c r="O17" s="37">
-        <f t="shared" si="9"/>
-        <v>1208689.6392168405</v>
+        <f t="shared" si="10"/>
+        <v>1154049.866624862</v>
       </c>
       <c r="P17" s="37">
-        <f t="shared" si="9"/>
-        <v>1329558.6031385246</v>
+        <f t="shared" si="10"/>
+        <v>1269454.8532873483</v>
       </c>
       <c r="Q17" s="37">
-        <f t="shared" si="9"/>
-        <v>1462514.4634523771</v>
+        <f t="shared" si="10"/>
+        <v>1396400.3386160831</v>
       </c>
       <c r="R17" s="37">
-        <f t="shared" si="9"/>
-        <v>1608765.9097976149</v>
+        <f>Q17*1.05</f>
+        <v>1466220.3555468873</v>
       </c>
       <c r="S17" s="37">
-        <f t="shared" si="9"/>
-        <v>1769642.5007773766</v>
+        <f t="shared" ref="S17:V17" si="11">R17*1.05</f>
+        <v>1539531.3733242317</v>
       </c>
       <c r="T17" s="37">
-        <f t="shared" si="9"/>
-        <v>1946606.7508551143</v>
+        <f t="shared" si="11"/>
+        <v>1616507.9419904433</v>
       </c>
       <c r="U17" s="37">
-        <f t="shared" si="9"/>
-        <v>2141267.4259406258</v>
+        <f t="shared" si="11"/>
+        <v>1697333.3390899654</v>
       </c>
       <c r="V17" s="37">
-        <f t="shared" si="9"/>
-        <v>2355394.1685346887</v>
+        <f t="shared" si="11"/>
+        <v>1782200.0060444637</v>
       </c>
     </row>
     <row r="18" spans="1:203" x14ac:dyDescent="0.15">
@@ -1845,64 +1845,64 @@
         <v>291823</v>
       </c>
       <c r="H18" s="28">
-        <f t="shared" ref="H18" si="10">H17-H19</f>
-        <v>336277.82728893426</v>
+        <f t="shared" ref="H18" si="12">H17-H19</f>
+        <v>334994.8271779872</v>
       </c>
       <c r="I18" s="28">
         <f>I17-I19</f>
-        <v>390490.19508399069</v>
+        <v>386447.71428803366</v>
       </c>
       <c r="J18" s="28">
-        <f t="shared" ref="J18" si="11">J17-J19</f>
-        <v>456999.43378562911</v>
+        <f t="shared" ref="J18" si="13">J17-J19</f>
+        <v>448081.55097698839</v>
       </c>
       <c r="K18" s="28">
-        <f t="shared" ref="K18:L18" si="12">K17-K19</f>
-        <v>539089.32199751528</v>
+        <f t="shared" ref="K18:L18" si="14">K17-K19</f>
+        <v>522280.20450442069</v>
       </c>
       <c r="L18" s="28">
-        <f t="shared" si="12"/>
-        <v>641020.45125060505</v>
+        <f t="shared" si="14"/>
+        <v>612042.61397400289</v>
       </c>
       <c r="M18" s="28">
-        <f t="shared" ref="M18" si="13">M17-M19</f>
-        <v>705122.49637566565</v>
+        <f t="shared" ref="M18" si="15">M17-M19</f>
+        <v>673246.87537140329</v>
       </c>
       <c r="N18" s="28">
-        <f t="shared" ref="N18" si="14">N17-N19</f>
-        <v>775634.74601323227</v>
+        <f t="shared" ref="N18" si="16">N17-N19</f>
+        <v>740571.56290854362</v>
       </c>
       <c r="O18" s="28">
-        <f t="shared" ref="O18" si="15">O17-O19</f>
-        <v>853198.22061455552</v>
+        <f t="shared" ref="O18" si="17">O17-O19</f>
+        <v>814628.71919939818</v>
       </c>
       <c r="P18" s="28">
-        <f t="shared" ref="P18" si="16">P17-P19</f>
-        <v>938518.0426760111</v>
+        <f t="shared" ref="P18" si="18">P17-P19</f>
+        <v>896091.59111933806</v>
       </c>
       <c r="Q18" s="28">
-        <f t="shared" ref="Q18:R18" si="17">Q17-Q19</f>
-        <v>1032369.8469436124</v>
+        <f t="shared" ref="Q18:R18" si="19">Q17-Q19</f>
+        <v>985700.75023127184</v>
       </c>
       <c r="R18" s="28">
-        <f t="shared" si="17"/>
-        <v>1135606.8316379737</v>
+        <f t="shared" si="19"/>
+        <v>1034985.7877428355</v>
       </c>
       <c r="S18" s="28">
-        <f t="shared" ref="S18:U18" si="18">S17-S19</f>
-        <v>1249167.5148017711</v>
+        <f t="shared" ref="S18:U18" si="20">S17-S19</f>
+        <v>1086735.0771299773</v>
       </c>
       <c r="T18" s="28">
-        <f t="shared" si="18"/>
-        <v>1374084.2662819484</v>
+        <f t="shared" si="20"/>
+        <v>1141071.830986476</v>
       </c>
       <c r="U18" s="28">
-        <f t="shared" si="18"/>
-        <v>1511492.6929101432</v>
+        <f t="shared" si="20"/>
+        <v>1198125.4225357999</v>
       </c>
       <c r="V18" s="28">
-        <f t="shared" ref="V18" si="19">V17-V19</f>
-        <v>1662641.9622011576</v>
+        <f t="shared" ref="V18" si="21">V17-V19</f>
+        <v>1258031.6936625899</v>
       </c>
     </row>
     <row r="19" spans="1:203" x14ac:dyDescent="0.15">
@@ -1910,88 +1910,88 @@
         <v>6</v>
       </c>
       <c r="B19" s="30">
-        <f t="shared" ref="B19:G19" si="20">B17-B18</f>
+        <f t="shared" ref="B19:G19" si="22">B17-B18</f>
         <v>21764</v>
       </c>
       <c r="C19" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>29938</v>
       </c>
       <c r="D19" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>40528</v>
       </c>
       <c r="E19" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>59704</v>
       </c>
       <c r="F19" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>74755</v>
       </c>
       <c r="G19" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>94244</v>
       </c>
       <c r="H19" s="28">
-        <f t="shared" ref="H19:L19" si="21">H17*(G32+0.01)</f>
-        <v>114565.07271106569</v>
+        <f t="shared" ref="H19:L19" si="23">H17*(G32+0.01)</f>
+        <v>114127.97282201276</v>
       </c>
       <c r="I19" s="28">
-        <f t="shared" si="21"/>
-        <v>140148.65491600943</v>
+        <f t="shared" si="23"/>
+        <v>138697.79071196631</v>
       </c>
       <c r="J19" s="28">
-        <f t="shared" si="21"/>
-        <v>172574.42121437099</v>
+        <f t="shared" si="23"/>
+        <v>169206.80552301175</v>
       </c>
       <c r="K19" s="28">
-        <f t="shared" si="21"/>
-        <v>213947.64270248485</v>
+        <f t="shared" si="23"/>
+        <v>207276.63120807934</v>
       </c>
       <c r="L19" s="28">
-        <f t="shared" si="21"/>
-        <v>267085.96438939503</v>
+        <f t="shared" si="23"/>
+        <v>255012.13179974732</v>
       </c>
       <c r="M19" s="28">
-        <f t="shared" ref="M19:V19" si="22">M17*L32</f>
-        <v>293794.56082833454</v>
+        <f t="shared" ref="M19:V19" si="24">M17*L32</f>
+        <v>280513.34497972205</v>
       </c>
       <c r="N19" s="28">
-        <f t="shared" si="22"/>
-        <v>323174.01691116806</v>
+        <f t="shared" si="24"/>
+        <v>308564.67947769433</v>
       </c>
       <c r="O19" s="28">
-        <f t="shared" si="22"/>
-        <v>355491.41860228492</v>
+        <f t="shared" si="24"/>
+        <v>339421.14742546377</v>
       </c>
       <c r="P19" s="28">
-        <f t="shared" si="22"/>
-        <v>391040.56046251341</v>
+        <f t="shared" si="24"/>
+        <v>373363.26216801023</v>
       </c>
       <c r="Q19" s="28">
-        <f t="shared" si="22"/>
-        <v>430144.61650876474</v>
+        <f t="shared" si="24"/>
+        <v>410699.58838481124</v>
       </c>
       <c r="R19" s="28">
-        <f t="shared" si="22"/>
-        <v>473159.07815964124</v>
+        <f t="shared" si="24"/>
+        <v>431234.5678040518</v>
       </c>
       <c r="S19" s="28">
-        <f t="shared" si="22"/>
-        <v>520474.98597560544</v>
+        <f t="shared" si="24"/>
+        <v>452796.29619425442</v>
       </c>
       <c r="T19" s="28">
-        <f t="shared" si="22"/>
-        <v>572522.484573166</v>
+        <f t="shared" si="24"/>
+        <v>475436.11100396712</v>
       </c>
       <c r="U19" s="28">
-        <f t="shared" si="22"/>
-        <v>629774.73303048266</v>
+        <f t="shared" si="24"/>
+        <v>499207.91655416548</v>
       </c>
       <c r="V19" s="28">
-        <f t="shared" si="22"/>
-        <v>692752.20633353095</v>
+        <f t="shared" si="24"/>
+        <v>524168.31238187378</v>
       </c>
     </row>
     <row r="20" spans="1:203" x14ac:dyDescent="0.15">
@@ -2027,60 +2027,60 @@
         <v>51285.599999999999</v>
       </c>
       <c r="I20" s="28">
-        <f t="shared" ref="I20:L20" si="23">H20*1.2</f>
+        <f t="shared" ref="I20:L20" si="25">H20*1.2</f>
         <v>61542.719999999994</v>
       </c>
       <c r="J20" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>73851.263999999996</v>
       </c>
       <c r="K20" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>88621.516799999998</v>
       </c>
       <c r="L20" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>106345.82015999999</v>
       </c>
       <c r="M20" s="28">
-        <f t="shared" ref="M20:Q20" si="24">L20*1.05</f>
-        <v>111663.11116799999</v>
+        <f>L20*1.1</f>
+        <v>116980.402176</v>
       </c>
       <c r="N20" s="28">
-        <f t="shared" si="24"/>
-        <v>117246.26672639999</v>
+        <f t="shared" ref="N20:V20" si="26">M20*1.1</f>
+        <v>128678.44239360001</v>
       </c>
       <c r="O20" s="28">
-        <f t="shared" si="24"/>
-        <v>123108.58006271999</v>
+        <f t="shared" si="26"/>
+        <v>141546.28663296002</v>
       </c>
       <c r="P20" s="28">
-        <f t="shared" si="24"/>
-        <v>129264.00906585599</v>
+        <f t="shared" si="26"/>
+        <v>155700.91529625605</v>
       </c>
       <c r="Q20" s="28">
-        <f t="shared" si="24"/>
-        <v>135727.2095191488</v>
+        <f t="shared" si="26"/>
+        <v>171271.00682588166</v>
       </c>
       <c r="R20" s="28">
-        <f t="shared" ref="R20:V20" si="25">Q20*1.05</f>
-        <v>142513.56999510626</v>
+        <f>Q20*1.05</f>
+        <v>179834.55716717575</v>
       </c>
       <c r="S20" s="28">
-        <f t="shared" si="25"/>
-        <v>149639.24849486159</v>
+        <f t="shared" ref="S20:V20" si="27">R20*1.05</f>
+        <v>188826.28502553454</v>
       </c>
       <c r="T20" s="28">
-        <f t="shared" si="25"/>
-        <v>157121.21091960467</v>
+        <f t="shared" si="27"/>
+        <v>198267.59927681126</v>
       </c>
       <c r="U20" s="28">
-        <f t="shared" si="25"/>
-        <v>164977.2714655849</v>
+        <f t="shared" si="27"/>
+        <v>208180.97924065182</v>
       </c>
       <c r="V20" s="28">
-        <f t="shared" si="25"/>
-        <v>173226.13503886416</v>
+        <f t="shared" si="27"/>
+        <v>218590.02820268442</v>
       </c>
     </row>
     <row r="21" spans="1:203" x14ac:dyDescent="0.15">
@@ -2116,60 +2116,60 @@
         <v>28613</v>
       </c>
       <c r="I21" s="28">
-        <f t="shared" ref="I21:L21" si="26">H21*1.3</f>
+        <f t="shared" ref="I21:L21" si="28">H21*1.3</f>
         <v>37196.9</v>
       </c>
       <c r="J21" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>48355.97</v>
       </c>
       <c r="K21" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>62862.761000000006</v>
       </c>
       <c r="L21" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>81721.589300000007</v>
       </c>
       <c r="M21" s="28">
-        <f t="shared" ref="M21:V21" si="27">L21*1.05</f>
-        <v>85807.668765000009</v>
+        <f>L21*1.1</f>
+        <v>89893.748230000012</v>
       </c>
       <c r="N21" s="28">
-        <f t="shared" si="27"/>
-        <v>90098.052203250016</v>
+        <f t="shared" ref="N21:Q21" si="29">M21*1.1</f>
+        <v>98883.123053000018</v>
       </c>
       <c r="O21" s="28">
-        <f t="shared" si="27"/>
-        <v>94602.954813412522</v>
+        <f t="shared" si="29"/>
+        <v>108771.43535830003</v>
       </c>
       <c r="P21" s="28">
-        <f t="shared" si="27"/>
-        <v>99333.102554083147</v>
+        <f t="shared" si="29"/>
+        <v>119648.57889413004</v>
       </c>
       <c r="Q21" s="28">
-        <f t="shared" si="27"/>
-        <v>104299.75768178731</v>
+        <f t="shared" si="29"/>
+        <v>131613.43678354306</v>
       </c>
       <c r="R21" s="28">
-        <f t="shared" si="27"/>
-        <v>109514.74556587667</v>
+        <f>Q21*0.95</f>
+        <v>125032.7649443659</v>
       </c>
       <c r="S21" s="28">
-        <f t="shared" si="27"/>
-        <v>114990.4828441705</v>
+        <f t="shared" ref="S21:V21" si="30">R21*0.95</f>
+        <v>118781.1266971476</v>
       </c>
       <c r="T21" s="28">
-        <f t="shared" si="27"/>
-        <v>120740.00698637903</v>
+        <f t="shared" si="30"/>
+        <v>112842.07036229021</v>
       </c>
       <c r="U21" s="28">
-        <f t="shared" si="27"/>
-        <v>126777.00733569798</v>
+        <f t="shared" si="30"/>
+        <v>107199.96684417569</v>
       </c>
       <c r="V21" s="28">
-        <f t="shared" si="27"/>
-        <v>133115.8577024829</v>
+        <f t="shared" si="30"/>
+        <v>101839.96850196691</v>
       </c>
     </row>
     <row r="22" spans="1:203" x14ac:dyDescent="0.15">
@@ -2205,60 +2205,60 @@
         <v>7912.7999999999993</v>
       </c>
       <c r="I22" s="28">
-        <f t="shared" ref="I22:L22" si="28">H22*1.2</f>
+        <f t="shared" ref="I22:L22" si="31">H22*1.2</f>
         <v>9495.3599999999988</v>
       </c>
       <c r="J22" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>11394.431999999999</v>
       </c>
       <c r="K22" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>13673.318399999998</v>
       </c>
       <c r="L22" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>16407.982079999998</v>
       </c>
       <c r="M22" s="28">
-        <f t="shared" ref="M22:V22" si="29">L22*1.02</f>
-        <v>16736.141721599997</v>
+        <f>L22*1.05</f>
+        <v>17228.381183999998</v>
       </c>
       <c r="N22" s="28">
-        <f t="shared" si="29"/>
-        <v>17070.864556031996</v>
+        <f t="shared" ref="N22:Q22" si="32">M22*1.05</f>
+        <v>18089.800243199999</v>
       </c>
       <c r="O22" s="28">
-        <f t="shared" si="29"/>
-        <v>17412.281847152637</v>
+        <f t="shared" si="32"/>
+        <v>18994.29025536</v>
       </c>
       <c r="P22" s="28">
-        <f t="shared" si="29"/>
-        <v>17760.527484095692</v>
+        <f t="shared" si="32"/>
+        <v>19944.004768128001</v>
       </c>
       <c r="Q22" s="28">
-        <f t="shared" si="29"/>
-        <v>18115.738033777605</v>
+        <f t="shared" si="32"/>
+        <v>20941.205006534401</v>
       </c>
       <c r="R22" s="28">
-        <f t="shared" si="29"/>
-        <v>18478.052794453157</v>
+        <f>Q22*0.98</f>
+        <v>20522.380906403712</v>
       </c>
       <c r="S22" s="28">
-        <f t="shared" si="29"/>
-        <v>18847.613850342219</v>
+        <f t="shared" ref="S22:V22" si="33">R22*0.98</f>
+        <v>20111.933288275639</v>
       </c>
       <c r="T22" s="28">
-        <f t="shared" si="29"/>
-        <v>19224.566127349062</v>
+        <f t="shared" si="33"/>
+        <v>19709.694622510127</v>
       </c>
       <c r="U22" s="28">
-        <f t="shared" si="29"/>
-        <v>19609.057449896045</v>
+        <f t="shared" si="33"/>
+        <v>19315.500730059925</v>
       </c>
       <c r="V22" s="28">
-        <f t="shared" si="29"/>
-        <v>20001.238598893968</v>
+        <f t="shared" si="33"/>
+        <v>18929.190715458724</v>
       </c>
     </row>
     <row r="23" spans="1:203" x14ac:dyDescent="0.15">
@@ -2266,88 +2266,88 @@
         <v>10</v>
       </c>
       <c r="B23" s="30">
-        <f t="shared" ref="B23:F23" si="30">SUM(B20:B22)</f>
+        <f t="shared" ref="B23:F23" si="34">SUM(B20:B22)</f>
         <v>19541</v>
       </c>
       <c r="C23" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>25752</v>
       </c>
       <c r="D23" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>36421</v>
       </c>
       <c r="E23" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>47284</v>
       </c>
       <c r="F23" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>60215</v>
       </c>
       <c r="G23" s="30">
-        <f t="shared" ref="G23" si="31">SUM(G20:G22)</f>
+        <f t="shared" ref="G23" si="35">SUM(G20:G22)</f>
         <v>71342</v>
       </c>
       <c r="H23" s="28">
-        <f t="shared" ref="H23" si="32">SUM(H20:H22)</f>
+        <f t="shared" ref="H23" si="36">SUM(H20:H22)</f>
         <v>87811.400000000009</v>
       </c>
       <c r="I23" s="28">
-        <f t="shared" ref="I23" si="33">SUM(I20:I22)</f>
+        <f t="shared" ref="I23" si="37">SUM(I20:I22)</f>
         <v>108234.98</v>
       </c>
       <c r="J23" s="28">
-        <f t="shared" ref="J23" si="34">SUM(J20:J22)</f>
+        <f t="shared" ref="J23" si="38">SUM(J20:J22)</f>
         <v>133601.666</v>
       </c>
       <c r="K23" s="28">
-        <f t="shared" ref="K23:L23" si="35">SUM(K20:K22)</f>
+        <f t="shared" ref="K23:L23" si="39">SUM(K20:K22)</f>
         <v>165157.5962</v>
       </c>
       <c r="L23" s="28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>204475.39153999998</v>
       </c>
       <c r="M23" s="28">
-        <f t="shared" ref="M23" si="36">SUM(M20:M22)</f>
-        <v>214206.92165459998</v>
+        <f t="shared" ref="M23" si="40">SUM(M20:M22)</f>
+        <v>224102.53159000003</v>
       </c>
       <c r="N23" s="28">
-        <f t="shared" ref="N23" si="37">SUM(N20:N22)</f>
-        <v>224415.18348568201</v>
+        <f t="shared" ref="N23" si="41">SUM(N20:N22)</f>
+        <v>245651.36568980003</v>
       </c>
       <c r="O23" s="28">
-        <f t="shared" ref="O23" si="38">SUM(O20:O22)</f>
-        <v>235123.81672328513</v>
+        <f t="shared" ref="O23" si="42">SUM(O20:O22)</f>
+        <v>269312.01224662008</v>
       </c>
       <c r="P23" s="28">
-        <f t="shared" ref="P23" si="39">SUM(P20:P22)</f>
-        <v>246357.63910403484</v>
+        <f t="shared" ref="P23" si="43">SUM(P20:P22)</f>
+        <v>295293.49895851407</v>
       </c>
       <c r="Q23" s="28">
-        <f t="shared" ref="Q23:R23" si="40">SUM(Q20:Q22)</f>
-        <v>258142.70523471371</v>
+        <f t="shared" ref="Q23:R23" si="44">SUM(Q20:Q22)</f>
+        <v>323825.64861595916</v>
       </c>
       <c r="R23" s="28">
-        <f t="shared" si="40"/>
-        <v>270506.36835543608</v>
+        <f t="shared" si="44"/>
+        <v>325389.70301794534</v>
       </c>
       <c r="S23" s="28">
-        <f t="shared" ref="S23:U23" si="41">SUM(S20:S22)</f>
-        <v>283477.34518937429</v>
+        <f t="shared" ref="S23:U23" si="45">SUM(S20:S22)</f>
+        <v>327719.34501095774</v>
       </c>
       <c r="T23" s="28">
-        <f t="shared" si="41"/>
-        <v>297085.78403333272</v>
+        <f t="shared" si="45"/>
+        <v>330819.3642616116</v>
       </c>
       <c r="U23" s="28">
-        <f t="shared" si="41"/>
-        <v>311363.33625117893</v>
+        <f t="shared" si="45"/>
+        <v>334696.44681488746</v>
       </c>
       <c r="V23" s="28">
-        <f t="shared" ref="V23" si="42">SUM(V20:V22)</f>
-        <v>326343.23134024104</v>
+        <f t="shared" ref="V23" si="46">SUM(V20:V22)</f>
+        <v>339359.18742011004</v>
       </c>
     </row>
     <row r="24" spans="1:203" x14ac:dyDescent="0.15">
@@ -2355,88 +2355,88 @@
         <v>11</v>
       </c>
       <c r="B24" s="30">
-        <f t="shared" ref="B24:G24" si="43">B19-B23</f>
+        <f t="shared" ref="B24:G24" si="47">B19-B23</f>
         <v>2223</v>
       </c>
       <c r="C24" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>4186</v>
       </c>
       <c r="D24" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>4107</v>
       </c>
       <c r="E24" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>12420</v>
       </c>
       <c r="F24" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>14540</v>
       </c>
       <c r="G24" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>22902</v>
       </c>
       <c r="H24" s="28">
-        <f t="shared" ref="H24" si="44">H19-H23</f>
-        <v>26753.672711065679</v>
+        <f t="shared" ref="H24" si="48">H19-H23</f>
+        <v>26316.572822012749</v>
       </c>
       <c r="I24" s="28">
-        <f t="shared" ref="I24" si="45">I19-I23</f>
-        <v>31913.674916009433</v>
+        <f t="shared" ref="I24" si="49">I19-I23</f>
+        <v>30462.810711966318</v>
       </c>
       <c r="J24" s="28">
-        <f t="shared" ref="J24" si="46">J19-J23</f>
-        <v>38972.755214370991</v>
+        <f t="shared" ref="J24" si="50">J19-J23</f>
+        <v>35605.139523011749</v>
       </c>
       <c r="K24" s="28">
-        <f t="shared" ref="K24:L24" si="47">K19-K23</f>
-        <v>48790.046502484853</v>
+        <f t="shared" ref="K24:L24" si="51">K19-K23</f>
+        <v>42119.035008079343</v>
       </c>
       <c r="L24" s="28">
-        <f t="shared" si="47"/>
-        <v>62610.572849395045</v>
+        <f t="shared" si="51"/>
+        <v>50536.740259747341</v>
       </c>
       <c r="M24" s="28">
-        <f t="shared" ref="M24" si="48">M19-M23</f>
-        <v>79587.639173734555</v>
+        <f t="shared" ref="M24" si="52">M19-M23</f>
+        <v>56410.813389722025</v>
       </c>
       <c r="N24" s="28">
-        <f t="shared" ref="N24" si="49">N19-N23</f>
-        <v>98758.833425486053</v>
+        <f t="shared" ref="N24" si="53">N19-N23</f>
+        <v>62913.313787894294</v>
       </c>
       <c r="O24" s="28">
-        <f t="shared" ref="O24" si="50">O19-O23</f>
-        <v>120367.60187899979</v>
+        <f t="shared" ref="O24" si="54">O19-O23</f>
+        <v>70109.135178843688</v>
       </c>
       <c r="P24" s="28">
-        <f t="shared" ref="P24" si="51">P19-P23</f>
-        <v>144682.92135847858</v>
+        <f t="shared" ref="P24" si="55">P19-P23</f>
+        <v>78069.763209496159</v>
       </c>
       <c r="Q24" s="28">
-        <f t="shared" ref="Q24:R24" si="52">Q19-Q23</f>
-        <v>172001.91127405103</v>
+        <f t="shared" ref="Q24:R24" si="56">Q19-Q23</f>
+        <v>86873.939768852084</v>
       </c>
       <c r="R24" s="28">
-        <f t="shared" si="52"/>
-        <v>202652.70980420517</v>
+        <f t="shared" si="56"/>
+        <v>105844.86478610645</v>
       </c>
       <c r="S24" s="28">
-        <f t="shared" ref="S24:U24" si="53">S19-S23</f>
-        <v>236997.64078623115</v>
+        <f t="shared" ref="S24:U24" si="57">S19-S23</f>
+        <v>125076.95118329668</v>
       </c>
       <c r="T24" s="28">
-        <f t="shared" si="53"/>
-        <v>275436.70053983328</v>
+        <f t="shared" si="57"/>
+        <v>144616.74674235552</v>
       </c>
       <c r="U24" s="28">
-        <f t="shared" si="53"/>
-        <v>318411.39677930373</v>
+        <f t="shared" si="57"/>
+        <v>164511.46973927802</v>
       </c>
       <c r="V24" s="28">
-        <f t="shared" ref="V24" si="54">V19-V23</f>
-        <v>366408.97499328991</v>
+        <f t="shared" ref="V24" si="58">V19-V23</f>
+        <v>184809.12496176374</v>
       </c>
     </row>
     <row r="25" spans="1:203" x14ac:dyDescent="0.15">
@@ -2468,64 +2468,64 @@
         <v>1204</v>
       </c>
       <c r="H25" s="28">
-        <f t="shared" ref="H25:V25" si="55">G42*$F$3</f>
+        <f t="shared" ref="H25:V25" si="59">G42*$F$3</f>
         <v>1051.5999999999999</v>
       </c>
       <c r="I25" s="28">
-        <f t="shared" si="55"/>
-        <v>1524.2896360881166</v>
+        <f t="shared" si="59"/>
+        <v>1516.8589379742166</v>
       </c>
       <c r="J25" s="28">
-        <f t="shared" si="55"/>
-        <v>2092.7350334737748</v>
+        <f t="shared" si="59"/>
+        <v>2060.5133220232055</v>
       </c>
       <c r="K25" s="28">
-        <f t="shared" si="55"/>
-        <v>2790.848367687136</v>
+        <f t="shared" si="59"/>
+        <v>2700.8294203888004</v>
       </c>
       <c r="L25" s="28">
-        <f t="shared" si="55"/>
-        <v>3667.7235804800598</v>
+        <f t="shared" si="59"/>
+        <v>3462.7671156727588</v>
       </c>
       <c r="M25" s="28">
-        <f t="shared" si="55"/>
-        <v>4794.4546197879363</v>
+        <f t="shared" si="59"/>
+        <v>4380.7587410549004</v>
       </c>
       <c r="N25" s="28">
-        <f t="shared" si="55"/>
-        <v>6228.9502142778183</v>
+        <f t="shared" si="59"/>
+        <v>5414.2154672781089</v>
       </c>
       <c r="O25" s="28">
-        <f t="shared" si="55"/>
-        <v>8013.7425361538044</v>
+        <f t="shared" si="59"/>
+        <v>6575.7834646160391</v>
       </c>
       <c r="P25" s="28">
-        <f t="shared" si="55"/>
-        <v>10196.225391211414</v>
+        <f t="shared" si="59"/>
+        <v>7879.4270815548543</v>
       </c>
       <c r="Q25" s="28">
-        <f t="shared" si="55"/>
-        <v>12829.170885956144</v>
+        <f t="shared" si="59"/>
+        <v>9340.563316502723</v>
       </c>
       <c r="R25" s="28">
-        <f t="shared" si="55"/>
-        <v>15971.299282676266</v>
+        <f t="shared" si="59"/>
+        <v>10976.209868953754</v>
       </c>
       <c r="S25" s="28">
-        <f t="shared" si="55"/>
-        <v>19687.907437153248</v>
+        <f t="shared" si="59"/>
+        <v>12962.168138089779</v>
       </c>
       <c r="T25" s="28">
-        <f t="shared" si="55"/>
-        <v>24051.561756950785</v>
+        <f t="shared" si="59"/>
+        <v>15308.833166553348</v>
       </c>
       <c r="U25" s="28">
-        <f t="shared" si="55"/>
-        <v>29142.862215996116</v>
+        <f t="shared" si="59"/>
+        <v>18027.568025004799</v>
       </c>
       <c r="V25" s="28">
-        <f t="shared" si="55"/>
-        <v>35051.284618916216</v>
+        <f t="shared" si="59"/>
+        <v>21130.731666997606</v>
       </c>
     </row>
     <row r="26" spans="1:203" x14ac:dyDescent="0.15">
@@ -2533,88 +2533,88 @@
         <v>13</v>
       </c>
       <c r="B26" s="30">
-        <f t="shared" ref="B26:G26" si="56">B24+B25</f>
+        <f t="shared" ref="B26:G26" si="60">B24+B25</f>
         <v>1558</v>
       </c>
       <c r="C26" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>3892</v>
       </c>
       <c r="D26" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>3807</v>
       </c>
       <c r="E26" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>11261</v>
       </c>
       <c r="F26" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>13965</v>
       </c>
       <c r="G26" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>24106</v>
       </c>
       <c r="H26" s="28">
-        <f t="shared" ref="H26" si="57">H24+H25</f>
-        <v>27805.272711065678</v>
+        <f t="shared" ref="H26" si="61">H24+H25</f>
+        <v>27368.172822012748</v>
       </c>
       <c r="I26" s="28">
-        <f t="shared" ref="I26" si="58">I24+I25</f>
-        <v>33437.964552097546</v>
+        <f t="shared" ref="I26" si="62">I24+I25</f>
+        <v>31979.669649940533</v>
       </c>
       <c r="J26" s="28">
-        <f t="shared" ref="J26" si="59">J24+J25</f>
-        <v>41065.490247844762</v>
+        <f t="shared" ref="J26" si="63">J24+J25</f>
+        <v>37665.652845034958</v>
       </c>
       <c r="K26" s="28">
-        <f t="shared" ref="K26:L26" si="60">K24+K25</f>
-        <v>51580.894870171986</v>
+        <f t="shared" ref="K26:L26" si="64">K24+K25</f>
+        <v>44819.864428468143</v>
       </c>
       <c r="L26" s="28">
-        <f t="shared" si="60"/>
-        <v>66278.296429875103</v>
+        <f t="shared" si="64"/>
+        <v>53999.5073754201</v>
       </c>
       <c r="M26" s="28">
-        <f t="shared" ref="M26" si="61">M24+M25</f>
-        <v>84382.093793522494</v>
+        <f t="shared" ref="M26" si="65">M24+M25</f>
+        <v>60791.572130776927</v>
       </c>
       <c r="N26" s="28">
-        <f t="shared" ref="N26" si="62">N24+N25</f>
-        <v>104987.78363976387</v>
+        <f t="shared" ref="N26" si="66">N24+N25</f>
+        <v>68327.529255172398</v>
       </c>
       <c r="O26" s="28">
-        <f t="shared" ref="O26" si="63">O24+O25</f>
-        <v>128381.3444151536</v>
+        <f t="shared" ref="O26" si="67">O24+O25</f>
+        <v>76684.918643459721</v>
       </c>
       <c r="P26" s="28">
-        <f t="shared" ref="P26" si="64">P24+P25</f>
-        <v>154879.14674969</v>
+        <f t="shared" ref="P26" si="68">P24+P25</f>
+        <v>85949.190291051011</v>
       </c>
       <c r="Q26" s="28">
-        <f t="shared" ref="Q26:R26" si="65">Q24+Q25</f>
-        <v>184831.08216000718</v>
+        <f t="shared" ref="Q26:R26" si="69">Q24+Q25</f>
+        <v>96214.503085354809</v>
       </c>
       <c r="R26" s="28">
-        <f t="shared" si="65"/>
-        <v>218624.00908688144</v>
+        <f t="shared" si="69"/>
+        <v>116821.07465506021</v>
       </c>
       <c r="S26" s="28">
-        <f t="shared" ref="S26:U26" si="66">S24+S25</f>
-        <v>256685.54822338439</v>
+        <f t="shared" ref="S26:U26" si="70">S24+S25</f>
+        <v>138039.11932138645</v>
       </c>
       <c r="T26" s="28">
-        <f t="shared" si="66"/>
-        <v>299488.26229678409</v>
+        <f t="shared" si="70"/>
+        <v>159925.57990890887</v>
       </c>
       <c r="U26" s="28">
-        <f t="shared" si="66"/>
-        <v>347554.25899529987</v>
+        <f t="shared" si="70"/>
+        <v>182539.03776428281</v>
       </c>
       <c r="V26" s="28">
-        <f t="shared" ref="V26" si="67">V24+V25</f>
-        <v>401460.25961220614</v>
+        <f t="shared" ref="V26" si="71">V24+V25</f>
+        <v>205939.85662876134</v>
       </c>
     </row>
     <row r="27" spans="1:203" x14ac:dyDescent="0.15">
@@ -2646,64 +2646,64 @@
         <v>2863</v>
       </c>
       <c r="H27" s="28">
-        <f t="shared" ref="H27:Q27" si="68">H26*0.15</f>
-        <v>4170.7909066598513</v>
+        <f t="shared" ref="H27:Q27" si="72">H26*0.15</f>
+        <v>4105.2259233019122</v>
       </c>
       <c r="I27" s="28">
-        <f t="shared" si="68"/>
-        <v>5015.694682814632</v>
+        <f t="shared" si="72"/>
+        <v>4796.95044749108</v>
       </c>
       <c r="J27" s="28">
-        <f t="shared" si="68"/>
-        <v>6159.8235371767141</v>
+        <f t="shared" si="72"/>
+        <v>5649.8479267552439</v>
       </c>
       <c r="K27" s="28">
-        <f t="shared" si="68"/>
-        <v>7737.1342305257976</v>
+        <f t="shared" si="72"/>
+        <v>6722.9796642702213</v>
       </c>
       <c r="L27" s="28">
-        <f t="shared" ref="L27" si="69">L26*0.15</f>
-        <v>9941.7444644812658</v>
+        <f t="shared" ref="L27" si="73">L26*0.15</f>
+        <v>8099.9261063130143</v>
       </c>
       <c r="M27" s="28">
-        <f t="shared" si="68"/>
-        <v>12657.314069028374</v>
+        <f t="shared" si="72"/>
+        <v>9118.7358196165387</v>
       </c>
       <c r="N27" s="28">
-        <f t="shared" si="68"/>
-        <v>15748.167545964581</v>
+        <f t="shared" si="72"/>
+        <v>10249.12938827586</v>
       </c>
       <c r="O27" s="28">
-        <f t="shared" si="68"/>
-        <v>19257.201662273037</v>
+        <f t="shared" si="72"/>
+        <v>11502.737796518957</v>
       </c>
       <c r="P27" s="28">
-        <f t="shared" si="68"/>
-        <v>23231.872012453499</v>
+        <f t="shared" si="72"/>
+        <v>12892.378543657651</v>
       </c>
       <c r="Q27" s="28">
-        <f t="shared" si="68"/>
-        <v>27724.662324001078</v>
+        <f t="shared" si="72"/>
+        <v>14432.175462803221</v>
       </c>
       <c r="R27" s="28">
-        <f t="shared" ref="R27:U27" si="70">R26*0.15</f>
-        <v>32793.601363032212</v>
+        <f t="shared" ref="R27:U27" si="74">R26*0.15</f>
+        <v>17523.161198259029</v>
       </c>
       <c r="S27" s="28">
-        <f t="shared" si="70"/>
-        <v>38502.832233507659</v>
+        <f t="shared" si="74"/>
+        <v>20705.867898207965</v>
       </c>
       <c r="T27" s="28">
-        <f t="shared" si="70"/>
-        <v>44923.239344517613</v>
+        <f t="shared" si="74"/>
+        <v>23988.83698633633</v>
       </c>
       <c r="U27" s="28">
-        <f t="shared" si="70"/>
-        <v>52133.138849294977</v>
+        <f t="shared" si="74"/>
+        <v>27380.855664642422</v>
       </c>
       <c r="V27" s="28">
-        <f t="shared" ref="V27" si="71">V26*0.15</f>
-        <v>60219.038941830921</v>
+        <f t="shared" ref="V27" si="75">V26*0.15</f>
+        <v>30890.9784943142</v>
       </c>
     </row>
     <row r="28" spans="1:203" s="25" customFormat="1" x14ac:dyDescent="0.15">
@@ -2711,812 +2711,812 @@
         <v>15</v>
       </c>
       <c r="B28" s="35">
-        <f t="shared" ref="B28:G28" si="72">B26-B27</f>
+        <f t="shared" ref="B28:G28" si="76">B26-B27</f>
         <v>586</v>
       </c>
       <c r="C28" s="35">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>2371</v>
       </c>
       <c r="D28" s="35">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>3033</v>
       </c>
       <c r="E28" s="35">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>10073</v>
       </c>
       <c r="F28" s="35">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>11592</v>
       </c>
       <c r="G28" s="35">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>21243</v>
       </c>
       <c r="H28" s="35">
-        <f t="shared" ref="H28" si="73">H26-H27</f>
-        <v>23634.481804405827</v>
+        <f t="shared" ref="H28" si="77">H26-H27</f>
+        <v>23262.946898710834</v>
       </c>
       <c r="I28" s="35">
-        <f t="shared" ref="I28" si="74">I26-I27</f>
-        <v>28422.269869282914</v>
+        <f t="shared" ref="I28" si="78">I26-I27</f>
+        <v>27182.719202449454</v>
       </c>
       <c r="J28" s="35">
-        <f t="shared" ref="J28" si="75">J26-J27</f>
-        <v>34905.666710668047</v>
+        <f t="shared" ref="J28" si="79">J26-J27</f>
+        <v>32015.804918279715</v>
       </c>
       <c r="K28" s="35">
-        <f t="shared" ref="K28:L28" si="76">K26-K27</f>
-        <v>43843.760639646185</v>
+        <f t="shared" ref="K28:L28" si="80">K26-K27</f>
+        <v>38096.884764197923</v>
       </c>
       <c r="L28" s="35">
-        <f t="shared" si="76"/>
-        <v>56336.551965393839</v>
+        <f t="shared" si="80"/>
+        <v>45899.58126910709</v>
       </c>
       <c r="M28" s="35">
         <f>M26-M27</f>
-        <v>71724.779724494118</v>
+        <v>51672.83631116039</v>
       </c>
       <c r="N28" s="35">
-        <f t="shared" ref="N28" si="77">N26-N27</f>
-        <v>89239.616093799297</v>
+        <f t="shared" ref="N28" si="81">N26-N27</f>
+        <v>58078.399866896536</v>
       </c>
       <c r="O28" s="35">
-        <f t="shared" ref="O28" si="78">O26-O27</f>
-        <v>109124.14275288055</v>
+        <f t="shared" ref="O28" si="82">O26-O27</f>
+        <v>65182.180846940762</v>
       </c>
       <c r="P28" s="35">
-        <f t="shared" ref="P28" si="79">P26-P27</f>
-        <v>131647.2747372365</v>
+        <f t="shared" ref="P28" si="83">P26-P27</f>
+        <v>73056.811747393367</v>
       </c>
       <c r="Q28" s="35">
-        <f t="shared" ref="Q28:R28" si="80">Q26-Q27</f>
-        <v>157106.4198360061</v>
+        <f t="shared" ref="Q28:R28" si="84">Q26-Q27</f>
+        <v>81782.327622551587</v>
       </c>
       <c r="R28" s="35">
-        <f t="shared" si="80"/>
-        <v>185830.40772384923</v>
+        <f t="shared" si="84"/>
+        <v>99297.91345680118</v>
       </c>
       <c r="S28" s="35">
-        <f t="shared" ref="S28:U28" si="81">S26-S27</f>
-        <v>218182.71598987674</v>
+        <f t="shared" ref="S28:U28" si="85">S26-S27</f>
+        <v>117333.25142317847</v>
       </c>
       <c r="T28" s="35">
-        <f t="shared" si="81"/>
-        <v>254565.02295226647</v>
+        <f t="shared" si="85"/>
+        <v>135936.74292257254</v>
       </c>
       <c r="U28" s="35">
-        <f t="shared" si="81"/>
-        <v>295421.12014600489</v>
+        <f t="shared" si="85"/>
+        <v>155158.1820996404</v>
       </c>
       <c r="V28" s="35">
-        <f t="shared" ref="V28" si="82">V26-V27</f>
-        <v>341241.22067037522</v>
+        <f t="shared" ref="V28" si="86">V26-V27</f>
+        <v>175048.87813444715</v>
       </c>
       <c r="W28" s="35">
-        <f t="shared" ref="W28:CD28" si="83">V28*($F$2+1)</f>
-        <v>334416.39625696768</v>
+        <f t="shared" ref="W28:CD28" si="87">V28*($F$2+1)</f>
+        <v>171547.90057175819</v>
       </c>
       <c r="X28" s="35">
-        <f t="shared" si="83"/>
-        <v>327728.06833182834</v>
+        <f t="shared" si="87"/>
+        <v>168116.94256032302</v>
       </c>
       <c r="Y28" s="35">
-        <f t="shared" si="83"/>
-        <v>321173.50696519174</v>
+        <f t="shared" si="87"/>
+        <v>164754.60370911655</v>
       </c>
       <c r="Z28" s="35">
-        <f t="shared" si="83"/>
-        <v>314750.03682588792</v>
+        <f t="shared" si="87"/>
+        <v>161459.51163493423</v>
       </c>
       <c r="AA28" s="35">
-        <f t="shared" si="83"/>
-        <v>308455.03608937014</v>
+        <f t="shared" si="87"/>
+        <v>158230.32140223554</v>
       </c>
       <c r="AB28" s="35">
-        <f t="shared" si="83"/>
-        <v>302285.93536758272</v>
+        <f t="shared" si="87"/>
+        <v>155065.71497419084</v>
       </c>
       <c r="AC28" s="35">
-        <f t="shared" si="83"/>
-        <v>296240.21666023106</v>
+        <f t="shared" si="87"/>
+        <v>151964.40067470702</v>
       </c>
       <c r="AD28" s="35">
-        <f t="shared" si="83"/>
-        <v>290315.41232702642</v>
+        <f t="shared" si="87"/>
+        <v>148925.11266121289</v>
       </c>
       <c r="AE28" s="35">
-        <f t="shared" si="83"/>
-        <v>284509.10408048588</v>
+        <f t="shared" si="87"/>
+        <v>145946.61040798863</v>
       </c>
       <c r="AF28" s="35">
-        <f t="shared" si="83"/>
-        <v>278818.92199887615</v>
+        <f t="shared" si="87"/>
+        <v>143027.67819982886</v>
       </c>
       <c r="AG28" s="35">
-        <f t="shared" si="83"/>
-        <v>273242.54355889861</v>
+        <f t="shared" si="87"/>
+        <v>140167.1246358323</v>
       </c>
       <c r="AH28" s="35">
-        <f t="shared" si="83"/>
-        <v>267777.69268772064</v>
+        <f t="shared" si="87"/>
+        <v>137363.78214311565</v>
       </c>
       <c r="AI28" s="35">
-        <f t="shared" si="83"/>
-        <v>262422.13883396622</v>
+        <f t="shared" si="87"/>
+        <v>134616.50650025334</v>
       </c>
       <c r="AJ28" s="35">
-        <f t="shared" si="83"/>
-        <v>257173.6960572869</v>
+        <f t="shared" si="87"/>
+        <v>131924.17637024826</v>
       </c>
       <c r="AK28" s="35">
-        <f t="shared" si="83"/>
-        <v>252030.22213614115</v>
+        <f t="shared" si="87"/>
+        <v>129285.69284284329</v>
       </c>
       <c r="AL28" s="35">
-        <f t="shared" si="83"/>
-        <v>246989.61769341832</v>
+        <f t="shared" si="87"/>
+        <v>126699.97898598642</v>
       </c>
       <c r="AM28" s="35">
-        <f t="shared" si="83"/>
-        <v>242049.82533954995</v>
+        <f t="shared" si="87"/>
+        <v>124165.97940626669</v>
       </c>
       <c r="AN28" s="35">
-        <f t="shared" si="83"/>
-        <v>237208.82883275894</v>
+        <f t="shared" si="87"/>
+        <v>121682.65981814136</v>
       </c>
       <c r="AO28" s="35">
-        <f t="shared" si="83"/>
-        <v>232464.65225610376</v>
+        <f t="shared" si="87"/>
+        <v>119249.00662177854</v>
       </c>
       <c r="AP28" s="35">
-        <f t="shared" si="83"/>
-        <v>227815.35921098167</v>
+        <f t="shared" si="87"/>
+        <v>116864.02648934296</v>
       </c>
       <c r="AQ28" s="35">
-        <f t="shared" si="83"/>
-        <v>223259.05202676202</v>
+        <f t="shared" si="87"/>
+        <v>114526.74595955609</v>
       </c>
       <c r="AR28" s="35">
-        <f t="shared" si="83"/>
-        <v>218793.87098622677</v>
+        <f t="shared" si="87"/>
+        <v>112236.21104036497</v>
       </c>
       <c r="AS28" s="35">
-        <f t="shared" si="83"/>
-        <v>214417.99356650223</v>
+        <f t="shared" si="87"/>
+        <v>109991.48681955767</v>
       </c>
       <c r="AT28" s="35">
-        <f t="shared" si="83"/>
-        <v>210129.63369517218</v>
+        <f t="shared" si="87"/>
+        <v>107791.65708316652</v>
       </c>
       <c r="AU28" s="35">
-        <f t="shared" si="83"/>
-        <v>205927.04102126873</v>
+        <f t="shared" si="87"/>
+        <v>105635.82394150319</v>
       </c>
       <c r="AV28" s="35">
-        <f t="shared" si="83"/>
-        <v>201808.50020084335</v>
+        <f t="shared" si="87"/>
+        <v>103523.10746267311</v>
       </c>
       <c r="AW28" s="35">
-        <f t="shared" si="83"/>
-        <v>197772.33019682649</v>
+        <f t="shared" si="87"/>
+        <v>101452.64531341965</v>
       </c>
       <c r="AX28" s="35">
-        <f t="shared" si="83"/>
-        <v>193816.88359288996</v>
+        <f t="shared" si="87"/>
+        <v>99423.592407151256</v>
       </c>
       <c r="AY28" s="35">
-        <f t="shared" si="83"/>
-        <v>189940.54592103217</v>
+        <f t="shared" si="87"/>
+        <v>97435.120559008225</v>
       </c>
       <c r="AZ28" s="35">
-        <f t="shared" si="83"/>
-        <v>186141.73500261153</v>
+        <f t="shared" si="87"/>
+        <v>95486.418147828052</v>
       </c>
       <c r="BA28" s="35">
-        <f t="shared" si="83"/>
-        <v>182418.90030255928</v>
+        <f t="shared" si="87"/>
+        <v>93576.689784871487</v>
       </c>
       <c r="BB28" s="35">
-        <f t="shared" si="83"/>
-        <v>178770.5222965081</v>
+        <f t="shared" si="87"/>
+        <v>91705.155989174062</v>
       </c>
       <c r="BC28" s="35">
-        <f t="shared" si="83"/>
-        <v>175195.11185057793</v>
+        <f t="shared" si="87"/>
+        <v>89871.05286939058</v>
       </c>
       <c r="BD28" s="35">
-        <f t="shared" si="83"/>
-        <v>171691.20961356637</v>
+        <f t="shared" si="87"/>
+        <v>88073.631812002772</v>
       </c>
       <c r="BE28" s="35">
-        <f t="shared" si="83"/>
-        <v>168257.38542129504</v>
+        <f t="shared" si="87"/>
+        <v>86312.159175762717</v>
       </c>
       <c r="BF28" s="35">
-        <f t="shared" si="83"/>
-        <v>164892.23771286913</v>
+        <f t="shared" si="87"/>
+        <v>84585.915992247465</v>
       </c>
       <c r="BG28" s="35">
-        <f t="shared" si="83"/>
-        <v>161594.39295861174</v>
+        <f t="shared" si="87"/>
+        <v>82894.197672402515</v>
       </c>
       <c r="BH28" s="35">
-        <f t="shared" si="83"/>
-        <v>158362.5050994395</v>
+        <f t="shared" si="87"/>
+        <v>81236.313718954465</v>
       </c>
       <c r="BI28" s="35">
-        <f t="shared" si="83"/>
-        <v>155195.25499745071</v>
+        <f t="shared" si="87"/>
+        <v>79611.587444575373</v>
       </c>
       <c r="BJ28" s="35">
-        <f t="shared" si="83"/>
-        <v>152091.3498975017</v>
+        <f t="shared" si="87"/>
+        <v>78019.355695683858</v>
       </c>
       <c r="BK28" s="35">
-        <f t="shared" si="83"/>
-        <v>149049.52289955167</v>
+        <f t="shared" si="87"/>
+        <v>76458.968581770183</v>
       </c>
       <c r="BL28" s="35">
-        <f t="shared" si="83"/>
-        <v>146068.53244156064</v>
+        <f t="shared" si="87"/>
+        <v>74929.789210134782</v>
       </c>
       <c r="BM28" s="35">
-        <f t="shared" si="83"/>
-        <v>143147.16179272943</v>
+        <f t="shared" si="87"/>
+        <v>73431.193425932084</v>
       </c>
       <c r="BN28" s="35">
-        <f t="shared" si="83"/>
-        <v>140284.21855687484</v>
+        <f t="shared" si="87"/>
+        <v>71962.569557413444</v>
       </c>
       <c r="BO28" s="35">
-        <f t="shared" si="83"/>
-        <v>137478.53418573734</v>
+        <f t="shared" si="87"/>
+        <v>70523.318166265177</v>
       </c>
       <c r="BP28" s="35">
-        <f t="shared" si="83"/>
-        <v>134728.96350202258</v>
+        <f t="shared" si="87"/>
+        <v>69112.851802939869</v>
       </c>
       <c r="BQ28" s="35">
-        <f t="shared" si="83"/>
-        <v>132034.38423198214</v>
+        <f t="shared" si="87"/>
+        <v>67730.59476688107</v>
       </c>
       <c r="BR28" s="35">
-        <f t="shared" si="83"/>
-        <v>129393.69654734249</v>
+        <f t="shared" si="87"/>
+        <v>66375.982871543441</v>
       </c>
       <c r="BS28" s="35">
-        <f t="shared" si="83"/>
-        <v>126805.82261639564</v>
+        <f t="shared" si="87"/>
+        <v>65048.463214112569</v>
       </c>
       <c r="BT28" s="35">
-        <f t="shared" si="83"/>
-        <v>124269.70616406773</v>
+        <f t="shared" si="87"/>
+        <v>63747.493949830314</v>
       </c>
       <c r="BU28" s="35">
-        <f t="shared" si="83"/>
-        <v>121784.31204078638</v>
+        <f t="shared" si="87"/>
+        <v>62472.544070833705</v>
       </c>
       <c r="BV28" s="35">
-        <f t="shared" si="83"/>
-        <v>119348.62579997064</v>
+        <f t="shared" si="87"/>
+        <v>61223.093189417028</v>
       </c>
       <c r="BW28" s="35">
-        <f t="shared" si="83"/>
-        <v>116961.65328397123</v>
+        <f t="shared" si="87"/>
+        <v>59998.631325628689</v>
       </c>
       <c r="BX28" s="35">
-        <f t="shared" si="83"/>
-        <v>114622.42021829181</v>
+        <f t="shared" si="87"/>
+        <v>58798.658699116117</v>
       </c>
       <c r="BY28" s="35">
-        <f t="shared" si="83"/>
-        <v>112329.97181392596</v>
+        <f t="shared" si="87"/>
+        <v>57622.685525133791</v>
       </c>
       <c r="BZ28" s="35">
-        <f t="shared" si="83"/>
-        <v>110083.37237764744</v>
+        <f t="shared" si="87"/>
+        <v>56470.231814631115</v>
       </c>
       <c r="CA28" s="35">
-        <f t="shared" si="83"/>
-        <v>107881.70493009449</v>
+        <f t="shared" si="87"/>
+        <v>55340.827178338492</v>
       </c>
       <c r="CB28" s="35">
-        <f t="shared" si="83"/>
-        <v>105724.0708314926</v>
+        <f t="shared" si="87"/>
+        <v>54234.010634771723</v>
       </c>
       <c r="CC28" s="35">
-        <f t="shared" si="83"/>
-        <v>103609.58941486274</v>
+        <f t="shared" si="87"/>
+        <v>53149.330422076288</v>
       </c>
       <c r="CD28" s="35">
-        <f t="shared" si="83"/>
-        <v>101537.39762656548</v>
+        <f t="shared" si="87"/>
+        <v>52086.343813634761</v>
       </c>
       <c r="CE28" s="35">
-        <f t="shared" ref="CE28:DR28" si="84">CD28*($F$2+1)</f>
-        <v>99506.649674034168</v>
+        <f t="shared" ref="CE28:DR28" si="88">CD28*($F$2+1)</f>
+        <v>51044.616937362065</v>
       </c>
       <c r="CF28" s="35">
-        <f t="shared" si="84"/>
-        <v>97516.516680553483</v>
+        <f t="shared" si="88"/>
+        <v>50023.724598614826</v>
       </c>
       <c r="CG28" s="35">
-        <f t="shared" si="84"/>
-        <v>95566.186346942413</v>
+        <f t="shared" si="88"/>
+        <v>49023.250106642532</v>
       </c>
       <c r="CH28" s="35">
-        <f t="shared" si="84"/>
-        <v>93654.862620003565</v>
+        <f t="shared" si="88"/>
+        <v>48042.785104509683</v>
       </c>
       <c r="CI28" s="35">
-        <f t="shared" si="84"/>
-        <v>91781.765367603497</v>
+        <f t="shared" si="88"/>
+        <v>47081.92940241949</v>
       </c>
       <c r="CJ28" s="35">
-        <f t="shared" si="84"/>
-        <v>89946.130060251424</v>
+        <f t="shared" si="88"/>
+        <v>46140.290814371096</v>
       </c>
       <c r="CK28" s="35">
-        <f t="shared" si="84"/>
-        <v>88147.207459046389</v>
+        <f t="shared" si="88"/>
+        <v>45217.484998083673</v>
       </c>
       <c r="CL28" s="35">
-        <f t="shared" si="84"/>
-        <v>86384.263309865462</v>
+        <f t="shared" si="88"/>
+        <v>44313.135298121997</v>
       </c>
       <c r="CM28" s="35">
-        <f t="shared" si="84"/>
-        <v>84656.578043668153</v>
+        <f t="shared" si="88"/>
+        <v>43426.872592159554</v>
       </c>
       <c r="CN28" s="35">
-        <f t="shared" si="84"/>
-        <v>82963.446482794781</v>
+        <f t="shared" si="88"/>
+        <v>42558.335140316362</v>
       </c>
       <c r="CO28" s="35">
-        <f t="shared" si="84"/>
-        <v>81304.177553138885</v>
+        <f t="shared" si="88"/>
+        <v>41707.16843751003</v>
       </c>
       <c r="CP28" s="35">
-        <f t="shared" si="84"/>
-        <v>79678.094002076105</v>
+        <f t="shared" si="88"/>
+        <v>40873.025068759831</v>
       </c>
       <c r="CQ28" s="35">
-        <f t="shared" si="84"/>
-        <v>78084.53212203458</v>
+        <f t="shared" si="88"/>
+        <v>40055.56456738463</v>
       </c>
       <c r="CR28" s="35">
-        <f t="shared" si="84"/>
-        <v>76522.841479593888</v>
+        <f t="shared" si="88"/>
+        <v>39254.45327603694</v>
       </c>
       <c r="CS28" s="35">
-        <f t="shared" si="84"/>
-        <v>74992.384650002015</v>
+        <f t="shared" si="88"/>
+        <v>38469.3642105162</v>
       </c>
       <c r="CT28" s="35">
-        <f t="shared" si="84"/>
-        <v>73492.536957001968</v>
+        <f t="shared" si="88"/>
+        <v>37699.976926305877</v>
       </c>
       <c r="CU28" s="35">
-        <f t="shared" si="84"/>
-        <v>72022.686217861934</v>
+        <f t="shared" si="88"/>
+        <v>36945.977387779756</v>
       </c>
       <c r="CV28" s="35">
-        <f t="shared" si="84"/>
-        <v>70582.232493504693</v>
+        <f t="shared" si="88"/>
+        <v>36207.057840024157</v>
       </c>
       <c r="CW28" s="35">
-        <f t="shared" si="84"/>
-        <v>69170.587843634596</v>
+        <f t="shared" si="88"/>
+        <v>35482.916683223673</v>
       </c>
       <c r="CX28" s="35">
-        <f t="shared" si="84"/>
-        <v>67787.176086761901</v>
+        <f t="shared" si="88"/>
+        <v>34773.258349559197</v>
       </c>
       <c r="CY28" s="35">
-        <f t="shared" si="84"/>
-        <v>66431.432565026669</v>
+        <f t="shared" si="88"/>
+        <v>34077.793182568013</v>
       </c>
       <c r="CZ28" s="35">
-        <f t="shared" si="84"/>
-        <v>65102.803913726137</v>
+        <f t="shared" si="88"/>
+        <v>33396.237318916654</v>
       </c>
       <c r="DA28" s="35">
-        <f t="shared" si="84"/>
-        <v>63800.747835451613</v>
+        <f t="shared" si="88"/>
+        <v>32728.312572538322</v>
       </c>
       <c r="DB28" s="35">
-        <f t="shared" si="84"/>
-        <v>62524.732878742579</v>
+        <f t="shared" si="88"/>
+        <v>32073.746321087554</v>
       </c>
       <c r="DC28" s="35">
-        <f t="shared" si="84"/>
-        <v>61274.238221167725</v>
+        <f t="shared" si="88"/>
+        <v>31432.271394665804</v>
       </c>
       <c r="DD28" s="35">
-        <f t="shared" si="84"/>
-        <v>60048.753456744373</v>
+        <f t="shared" si="88"/>
+        <v>30803.625966772488</v>
       </c>
       <c r="DE28" s="35">
-        <f t="shared" si="84"/>
-        <v>58847.778387609484</v>
+        <f t="shared" si="88"/>
+        <v>30187.553447437036</v>
       </c>
       <c r="DF28" s="35">
-        <f t="shared" si="84"/>
-        <v>57670.822819857291</v>
+        <f t="shared" si="88"/>
+        <v>29583.802378488293</v>
       </c>
       <c r="DG28" s="35">
-        <f t="shared" si="84"/>
-        <v>56517.406363460141</v>
+        <f t="shared" si="88"/>
+        <v>28992.126330918527</v>
       </c>
       <c r="DH28" s="35">
-        <f t="shared" si="84"/>
-        <v>55387.05823619094</v>
+        <f t="shared" si="88"/>
+        <v>28412.283804300157</v>
       </c>
       <c r="DI28" s="35">
-        <f t="shared" si="84"/>
-        <v>54279.317071467121</v>
+        <f t="shared" si="88"/>
+        <v>27844.038128214153</v>
       </c>
       <c r="DJ28" s="35">
-        <f t="shared" si="84"/>
-        <v>53193.73073003778</v>
+        <f t="shared" si="88"/>
+        <v>27287.157365649869</v>
       </c>
       <c r="DK28" s="35">
-        <f t="shared" si="84"/>
-        <v>52129.856115437025</v>
+        <f t="shared" si="88"/>
+        <v>26741.414218336871</v>
       </c>
       <c r="DL28" s="35">
-        <f t="shared" si="84"/>
-        <v>51087.258993128286</v>
+        <f t="shared" si="88"/>
+        <v>26206.585933970135</v>
       </c>
       <c r="DM28" s="35">
-        <f t="shared" si="84"/>
-        <v>50065.513813265716</v>
+        <f t="shared" si="88"/>
+        <v>25682.454215290731</v>
       </c>
       <c r="DN28" s="35">
-        <f t="shared" si="84"/>
-        <v>49064.203537000401</v>
+        <f t="shared" si="88"/>
+        <v>25168.805130984914</v>
       </c>
       <c r="DO28" s="35">
-        <f t="shared" si="84"/>
-        <v>48082.919466260391</v>
+        <f t="shared" si="88"/>
+        <v>24665.429028365215</v>
       </c>
       <c r="DP28" s="35">
-        <f t="shared" si="84"/>
-        <v>47121.261076935181</v>
+        <f t="shared" si="88"/>
+        <v>24172.120447797912</v>
       </c>
       <c r="DQ28" s="35">
-        <f t="shared" si="84"/>
-        <v>46178.835855396479</v>
+        <f t="shared" si="88"/>
+        <v>23688.678038841954</v>
       </c>
       <c r="DR28" s="35">
-        <f t="shared" si="84"/>
-        <v>45255.259138288551</v>
+        <f t="shared" si="88"/>
+        <v>23214.904478065113</v>
       </c>
       <c r="DS28" s="35">
-        <f t="shared" ref="DS28" si="85">DR28*($F$2+1)</f>
-        <v>44350.153955522779</v>
+        <f t="shared" ref="DS28" si="89">DR28*($F$2+1)</f>
+        <v>22750.606388503809</v>
       </c>
       <c r="DT28" s="35">
-        <f t="shared" ref="DT28" si="86">DS28*($F$2+1)</f>
-        <v>43463.150876412321</v>
+        <f t="shared" ref="DT28" si="90">DS28*($F$2+1)</f>
+        <v>22295.594260733731</v>
       </c>
       <c r="DU28" s="35">
-        <f t="shared" ref="DU28" si="87">DT28*($F$2+1)</f>
-        <v>42593.887858884074</v>
+        <f t="shared" ref="DU28" si="91">DT28*($F$2+1)</f>
+        <v>21849.682375519056</v>
       </c>
       <c r="DV28" s="35">
-        <f t="shared" ref="DV28" si="88">DU28*($F$2+1)</f>
-        <v>41742.010101706393</v>
+        <f t="shared" ref="DV28" si="92">DU28*($F$2+1)</f>
+        <v>21412.688728008674</v>
       </c>
       <c r="DW28" s="35">
-        <f t="shared" ref="DW28" si="89">DV28*($F$2+1)</f>
-        <v>40907.169899672263</v>
+        <f t="shared" ref="DW28" si="93">DV28*($F$2+1)</f>
+        <v>20984.434953448501</v>
       </c>
       <c r="DX28" s="35">
-        <f t="shared" ref="DX28" si="90">DW28*($F$2+1)</f>
-        <v>40089.026501678818</v>
+        <f t="shared" ref="DX28" si="94">DW28*($F$2+1)</f>
+        <v>20564.74625437953</v>
       </c>
       <c r="DY28" s="35">
-        <f t="shared" ref="DY28" si="91">DX28*($F$2+1)</f>
-        <v>39287.245971645243</v>
+        <f t="shared" ref="DY28" si="95">DX28*($F$2+1)</f>
+        <v>20153.45132929194</v>
       </c>
       <c r="DZ28" s="35">
-        <f t="shared" ref="DZ28" si="92">DY28*($F$2+1)</f>
-        <v>38501.501052212341</v>
+        <f t="shared" ref="DZ28" si="96">DY28*($F$2+1)</f>
+        <v>19750.382302706101</v>
       </c>
       <c r="EA28" s="35">
-        <f t="shared" ref="EA28" si="93">DZ28*($F$2+1)</f>
-        <v>37731.47103116809</v>
+        <f t="shared" ref="EA28" si="97">DZ28*($F$2+1)</f>
+        <v>19355.374656651977</v>
       </c>
       <c r="EB28" s="35">
-        <f t="shared" ref="EB28" si="94">EA28*($F$2+1)</f>
-        <v>36976.841610544725</v>
+        <f t="shared" ref="EB28" si="98">EA28*($F$2+1)</f>
+        <v>18968.267163518936</v>
       </c>
       <c r="EC28" s="35">
-        <f t="shared" ref="EC28" si="95">EB28*($F$2+1)</f>
-        <v>36237.304778333833</v>
+        <f t="shared" ref="EC28" si="99">EB28*($F$2+1)</f>
+        <v>18588.901820248557</v>
       </c>
       <c r="ED28" s="35">
-        <f t="shared" ref="ED28" si="96">EC28*($F$2+1)</f>
-        <v>35512.558682767158</v>
+        <f t="shared" ref="ED28" si="100">EC28*($F$2+1)</f>
+        <v>18217.123783843585</v>
       </c>
       <c r="EE28" s="35">
-        <f t="shared" ref="EE28" si="97">ED28*($F$2+1)</f>
-        <v>34802.307509111815</v>
+        <f t="shared" ref="EE28" si="101">ED28*($F$2+1)</f>
+        <v>17852.781308166712</v>
       </c>
       <c r="EF28" s="35">
-        <f t="shared" ref="EF28" si="98">EE28*($F$2+1)</f>
-        <v>34106.26135892958</v>
+        <f t="shared" ref="EF28" si="102">EE28*($F$2+1)</f>
+        <v>17495.725682003376</v>
       </c>
       <c r="EG28" s="35">
-        <f t="shared" ref="EG28" si="99">EF28*($F$2+1)</f>
-        <v>33424.136131750987</v>
+        <f t="shared" ref="EG28" si="103">EF28*($F$2+1)</f>
+        <v>17145.811168363307</v>
       </c>
       <c r="EH28" s="35">
-        <f t="shared" ref="EH28" si="100">EG28*($F$2+1)</f>
-        <v>32755.653409115966</v>
+        <f t="shared" ref="EH28" si="104">EG28*($F$2+1)</f>
+        <v>16802.894944996042</v>
       </c>
       <c r="EI28" s="35">
-        <f t="shared" ref="EI28" si="101">EH28*($F$2+1)</f>
-        <v>32100.540340933647</v>
+        <f t="shared" ref="EI28" si="105">EH28*($F$2+1)</f>
+        <v>16466.83704609612</v>
       </c>
       <c r="EJ28" s="35">
-        <f t="shared" ref="EJ28" si="102">EI28*($F$2+1)</f>
-        <v>31458.529534114972</v>
+        <f t="shared" ref="EJ28" si="106">EI28*($F$2+1)</f>
+        <v>16137.500305174197</v>
       </c>
       <c r="EK28" s="35">
-        <f t="shared" ref="EK28" si="103">EJ28*($F$2+1)</f>
-        <v>30829.358943432671</v>
+        <f t="shared" ref="EK28" si="107">EJ28*($F$2+1)</f>
+        <v>15814.750299070713</v>
       </c>
       <c r="EL28" s="35">
-        <f t="shared" ref="EL28" si="104">EK28*($F$2+1)</f>
-        <v>30212.771764564019</v>
+        <f t="shared" ref="EL28" si="108">EK28*($F$2+1)</f>
+        <v>15498.455293089299</v>
       </c>
       <c r="EM28" s="35">
-        <f t="shared" ref="EM28" si="105">EL28*($F$2+1)</f>
-        <v>29608.516329272737</v>
+        <f t="shared" ref="EM28" si="109">EL28*($F$2+1)</f>
+        <v>15188.486187227512</v>
       </c>
       <c r="EN28" s="35">
-        <f t="shared" ref="EN28" si="106">EM28*($F$2+1)</f>
-        <v>29016.346002687282</v>
+        <f t="shared" ref="EN28" si="110">EM28*($F$2+1)</f>
+        <v>14884.716463482962</v>
       </c>
       <c r="EO28" s="35">
-        <f t="shared" ref="EO28" si="107">EN28*($F$2+1)</f>
-        <v>28436.019082633535</v>
+        <f t="shared" ref="EO28" si="111">EN28*($F$2+1)</f>
+        <v>14587.022134213303</v>
       </c>
       <c r="EP28" s="35">
-        <f t="shared" ref="EP28" si="108">EO28*($F$2+1)</f>
-        <v>27867.298700980864</v>
+        <f t="shared" ref="EP28" si="112">EO28*($F$2+1)</f>
+        <v>14295.281691529037</v>
       </c>
       <c r="EQ28" s="35">
-        <f t="shared" ref="EQ28" si="109">EP28*($F$2+1)</f>
-        <v>27309.952726961244</v>
+        <f t="shared" ref="EQ28" si="113">EP28*($F$2+1)</f>
+        <v>14009.376057698455</v>
       </c>
       <c r="ER28" s="35">
-        <f t="shared" ref="ER28" si="110">EQ28*($F$2+1)</f>
-        <v>26763.753672422019</v>
+        <f t="shared" ref="ER28" si="114">EQ28*($F$2+1)</f>
+        <v>13729.188536544485</v>
       </c>
       <c r="ES28" s="35">
-        <f t="shared" ref="ES28" si="111">ER28*($F$2+1)</f>
-        <v>26228.478598973579</v>
+        <f t="shared" ref="ES28" si="115">ER28*($F$2+1)</f>
+        <v>13454.604765813596</v>
       </c>
       <c r="ET28" s="35">
-        <f t="shared" ref="ET28" si="112">ES28*($F$2+1)</f>
-        <v>25703.909026994108</v>
+        <f t="shared" ref="ET28" si="116">ES28*($F$2+1)</f>
+        <v>13185.512670497325</v>
       </c>
       <c r="EU28" s="35">
-        <f t="shared" ref="EU28" si="113">ET28*($F$2+1)</f>
-        <v>25189.830846454224</v>
+        <f t="shared" ref="EU28" si="117">ET28*($F$2+1)</f>
+        <v>12921.802417087378</v>
       </c>
       <c r="EV28" s="35">
-        <f t="shared" ref="EV28" si="114">EU28*($F$2+1)</f>
-        <v>24686.034229525139</v>
+        <f t="shared" ref="EV28" si="118">EU28*($F$2+1)</f>
+        <v>12663.36636874563</v>
       </c>
       <c r="EW28" s="35">
-        <f t="shared" ref="EW28" si="115">EV28*($F$2+1)</f>
-        <v>24192.313544934637</v>
+        <f t="shared" ref="EW28" si="119">EV28*($F$2+1)</f>
+        <v>12410.099041370717</v>
       </c>
       <c r="EX28" s="35">
-        <f t="shared" ref="EX28" si="116">EW28*($F$2+1)</f>
-        <v>23708.467274035946</v>
+        <f t="shared" ref="EX28" si="120">EW28*($F$2+1)</f>
+        <v>12161.897060543302</v>
       </c>
       <c r="EY28" s="35">
-        <f t="shared" ref="EY28" si="117">EX28*($F$2+1)</f>
-        <v>23234.297928555225</v>
+        <f t="shared" ref="EY28" si="121">EX28*($F$2+1)</f>
+        <v>11918.659119332437</v>
       </c>
       <c r="EZ28" s="35">
-        <f t="shared" ref="EZ28" si="118">EY28*($F$2+1)</f>
-        <v>22769.611969984118</v>
+        <f t="shared" ref="EZ28" si="122">EY28*($F$2+1)</f>
+        <v>11680.285936945787</v>
       </c>
       <c r="FA28" s="35">
-        <f t="shared" ref="FA28" si="119">EZ28*($F$2+1)</f>
-        <v>22314.219730584435</v>
+        <f t="shared" ref="FA28" si="123">EZ28*($F$2+1)</f>
+        <v>11446.680218206871</v>
       </c>
       <c r="FB28" s="35">
-        <f t="shared" ref="FB28" si="120">FA28*($F$2+1)</f>
-        <v>21867.935335972747</v>
+        <f t="shared" ref="FB28" si="124">FA28*($F$2+1)</f>
+        <v>11217.746613842733</v>
       </c>
       <c r="FC28" s="35">
-        <f t="shared" ref="FC28" si="121">FB28*($F$2+1)</f>
-        <v>21430.57662925329</v>
+        <f t="shared" ref="FC28" si="125">FB28*($F$2+1)</f>
+        <v>10993.391681565879</v>
       </c>
       <c r="FD28" s="35">
-        <f t="shared" ref="FD28" si="122">FC28*($F$2+1)</f>
-        <v>21001.965096668224</v>
+        <f t="shared" ref="FD28" si="126">FC28*($F$2+1)</f>
+        <v>10773.523847934563</v>
       </c>
       <c r="FE28" s="35">
-        <f t="shared" ref="FE28" si="123">FD28*($F$2+1)</f>
-        <v>20581.92579473486</v>
+        <f t="shared" ref="FE28" si="127">FD28*($F$2+1)</f>
+        <v>10558.053370975871</v>
       </c>
       <c r="FF28" s="35">
-        <f t="shared" ref="FF28" si="124">FE28*($F$2+1)</f>
-        <v>20170.287278840162</v>
+        <f t="shared" ref="FF28" si="128">FE28*($F$2+1)</f>
+        <v>10346.892303556353</v>
       </c>
       <c r="FG28" s="35">
-        <f t="shared" ref="FG28" si="125">FF28*($F$2+1)</f>
-        <v>19766.881533263357</v>
+        <f t="shared" ref="FG28" si="129">FF28*($F$2+1)</f>
+        <v>10139.954457485226</v>
       </c>
       <c r="FH28" s="35">
-        <f t="shared" ref="FH28" si="126">FG28*($F$2+1)</f>
-        <v>19371.543902598089</v>
+        <f t="shared" ref="FH28" si="130">FG28*($F$2+1)</f>
+        <v>9937.1553683355214</v>
       </c>
       <c r="FI28" s="35">
-        <f t="shared" ref="FI28" si="127">FH28*($F$2+1)</f>
-        <v>18984.113024546128</v>
+        <f t="shared" ref="FI28" si="131">FH28*($F$2+1)</f>
+        <v>9738.4122609688111</v>
       </c>
       <c r="FJ28" s="35">
-        <f t="shared" ref="FJ28" si="128">FI28*($F$2+1)</f>
-        <v>18604.430764055207</v>
+        <f t="shared" ref="FJ28" si="132">FI28*($F$2+1)</f>
+        <v>9543.6440157494344</v>
       </c>
       <c r="FK28" s="35">
-        <f t="shared" ref="FK28" si="129">FJ28*($F$2+1)</f>
-        <v>18232.342148774103</v>
+        <f t="shared" ref="FK28" si="133">FJ28*($F$2+1)</f>
+        <v>9352.7711354344447</v>
       </c>
       <c r="FL28" s="35">
-        <f t="shared" ref="FL28" si="130">FK28*($F$2+1)</f>
-        <v>17867.695305798621</v>
+        <f t="shared" ref="FL28" si="134">FK28*($F$2+1)</f>
+        <v>9165.715712725756</v>
       </c>
       <c r="FM28" s="35">
-        <f t="shared" ref="FM28" si="131">FL28*($F$2+1)</f>
-        <v>17510.341399682649</v>
+        <f t="shared" ref="FM28" si="135">FL28*($F$2+1)</f>
+        <v>8982.4013984712401</v>
       </c>
       <c r="FN28" s="35">
-        <f t="shared" ref="FN28" si="132">FM28*($F$2+1)</f>
-        <v>17160.134571688995</v>
+        <f t="shared" ref="FN28" si="136">FM28*($F$2+1)</f>
+        <v>8802.7533705018159</v>
       </c>
       <c r="FO28" s="35">
-        <f t="shared" ref="FO28" si="133">FN28*($F$2+1)</f>
-        <v>16816.931880255215</v>
+        <f t="shared" ref="FO28" si="137">FN28*($F$2+1)</f>
+        <v>8626.69830309178</v>
       </c>
       <c r="FP28" s="35">
-        <f t="shared" ref="FP28" si="134">FO28*($F$2+1)</f>
-        <v>16480.593242650109</v>
+        <f t="shared" ref="FP28" si="138">FO28*($F$2+1)</f>
+        <v>8454.1643370299444</v>
       </c>
       <c r="FQ28" s="35">
-        <f t="shared" ref="FQ28" si="135">FP28*($F$2+1)</f>
-        <v>16150.981377797107</v>
+        <f t="shared" ref="FQ28" si="139">FP28*($F$2+1)</f>
+        <v>8285.0810502893455</v>
       </c>
       <c r="FR28" s="35">
-        <f t="shared" ref="FR28" si="136">FQ28*($F$2+1)</f>
-        <v>15827.961750241164</v>
+        <f t="shared" ref="FR28" si="140">FQ28*($F$2+1)</f>
+        <v>8119.3794292835582</v>
       </c>
       <c r="FS28" s="35">
-        <f t="shared" ref="FS28" si="137">FR28*($F$2+1)</f>
-        <v>15511.402515236341</v>
+        <f t="shared" ref="FS28" si="141">FR28*($F$2+1)</f>
+        <v>7956.9918406978868</v>
       </c>
       <c r="FT28" s="35">
-        <f t="shared" ref="FT28" si="138">FS28*($F$2+1)</f>
-        <v>15201.174464931613</v>
+        <f t="shared" ref="FT28" si="142">FS28*($F$2+1)</f>
+        <v>7797.8520038839288</v>
       </c>
       <c r="FU28" s="35">
-        <f t="shared" ref="FU28" si="139">FT28*($F$2+1)</f>
-        <v>14897.150975632981</v>
+        <f t="shared" ref="FU28" si="143">FT28*($F$2+1)</f>
+        <v>7641.8949638062504</v>
       </c>
       <c r="FV28" s="35">
-        <f t="shared" ref="FV28" si="140">FU28*($F$2+1)</f>
-        <v>14599.207956120321</v>
+        <f t="shared" ref="FV28" si="144">FU28*($F$2+1)</f>
+        <v>7489.057064530125</v>
       </c>
       <c r="FW28" s="35">
-        <f t="shared" ref="FW28" si="141">FV28*($F$2+1)</f>
-        <v>14307.223796997914</v>
+        <f t="shared" ref="FW28" si="145">FV28*($F$2+1)</f>
+        <v>7339.2759232395219</v>
       </c>
       <c r="FX28" s="35">
-        <f t="shared" ref="FX28" si="142">FW28*($F$2+1)</f>
-        <v>14021.079321057956</v>
+        <f t="shared" ref="FX28" si="146">FW28*($F$2+1)</f>
+        <v>7192.4904047747314</v>
       </c>
       <c r="FY28" s="35">
-        <f t="shared" ref="FY28" si="143">FX28*($F$2+1)</f>
-        <v>13740.657734636796</v>
+        <f t="shared" ref="FY28" si="147">FX28*($F$2+1)</f>
+        <v>7048.6405966792363</v>
       </c>
       <c r="FZ28" s="35">
-        <f t="shared" ref="FZ28" si="144">FY28*($F$2+1)</f>
-        <v>13465.84457994406</v>
+        <f t="shared" ref="FZ28" si="148">FY28*($F$2+1)</f>
+        <v>6907.6677847456513</v>
       </c>
       <c r="GA28" s="35">
-        <f t="shared" ref="GA28" si="145">FZ28*($F$2+1)</f>
-        <v>13196.527688345179</v>
+        <f t="shared" ref="GA28" si="149">FZ28*($F$2+1)</f>
+        <v>6769.5144290507378</v>
       </c>
       <c r="GB28" s="35">
-        <f t="shared" ref="GB28" si="146">GA28*($F$2+1)</f>
-        <v>12932.597134578275</v>
+        <f t="shared" ref="GB28" si="150">GA28*($F$2+1)</f>
+        <v>6634.124140469723</v>
       </c>
       <c r="GC28" s="35">
-        <f t="shared" ref="GC28" si="147">GB28*($F$2+1)</f>
-        <v>12673.945191886709</v>
+        <f t="shared" ref="GC28" si="151">GB28*($F$2+1)</f>
+        <v>6501.441657660328</v>
       </c>
       <c r="GD28" s="35">
-        <f t="shared" ref="GD28" si="148">GC28*($F$2+1)</f>
-        <v>12420.466288048974</v>
+        <f t="shared" ref="GD28" si="152">GC28*($F$2+1)</f>
+        <v>6371.4128245071215</v>
       </c>
       <c r="GE28" s="35">
-        <f t="shared" ref="GE28" si="149">GD28*($F$2+1)</f>
-        <v>12172.056962287994</v>
+        <f t="shared" ref="GE28" si="153">GD28*($F$2+1)</f>
+        <v>6243.9845680169792</v>
       </c>
       <c r="GF28" s="35">
-        <f t="shared" ref="GF28" si="150">GE28*($F$2+1)</f>
-        <v>11928.615823042233</v>
+        <f t="shared" ref="GF28" si="154">GE28*($F$2+1)</f>
+        <v>6119.1048766566391</v>
       </c>
       <c r="GG28" s="35">
-        <f t="shared" ref="GG28" si="151">GF28*($F$2+1)</f>
-        <v>11690.043506581389</v>
+        <f t="shared" ref="GG28" si="155">GF28*($F$2+1)</f>
+        <v>5996.7227791235064</v>
       </c>
       <c r="GH28" s="35">
-        <f t="shared" ref="GH28" si="152">GG28*($F$2+1)</f>
-        <v>11456.242636449761</v>
+        <f t="shared" ref="GH28" si="156">GG28*($F$2+1)</f>
+        <v>5876.7883235410363</v>
       </c>
       <c r="GI28" s="35">
-        <f t="shared" ref="GI28" si="153">GH28*($F$2+1)</f>
-        <v>11227.117783720765</v>
+        <f t="shared" ref="GI28" si="157">GH28*($F$2+1)</f>
+        <v>5759.2525570702155</v>
       </c>
       <c r="GJ28" s="35">
-        <f t="shared" ref="GJ28" si="154">GI28*($F$2+1)</f>
-        <v>11002.57542804635</v>
+        <f t="shared" ref="GJ28" si="158">GI28*($F$2+1)</f>
+        <v>5644.0675059288114</v>
       </c>
       <c r="GK28" s="35">
-        <f t="shared" ref="GK28" si="155">GJ28*($F$2+1)</f>
-        <v>10782.523919485422</v>
+        <f t="shared" ref="GK28" si="159">GJ28*($F$2+1)</f>
+        <v>5531.1861558102355</v>
       </c>
       <c r="GL28" s="35">
-        <f t="shared" ref="GL28" si="156">GK28*($F$2+1)</f>
-        <v>10566.873441095713</v>
+        <f t="shared" ref="GL28" si="160">GK28*($F$2+1)</f>
+        <v>5420.5624326940306</v>
       </c>
       <c r="GM28" s="35">
-        <f t="shared" ref="GM28" si="157">GL28*($F$2+1)</f>
-        <v>10355.535972273799</v>
+        <f t="shared" ref="GM28" si="161">GL28*($F$2+1)</f>
+        <v>5312.1511840401499</v>
       </c>
       <c r="GN28" s="35">
-        <f t="shared" ref="GN28" si="158">GM28*($F$2+1)</f>
-        <v>10148.425252828323</v>
+        <f t="shared" ref="GN28" si="162">GM28*($F$2+1)</f>
+        <v>5205.9081603593468</v>
       </c>
       <c r="GO28" s="35">
-        <f t="shared" ref="GO28" si="159">GN28*($F$2+1)</f>
-        <v>9945.4567477717574</v>
+        <f t="shared" ref="GO28" si="163">GN28*($F$2+1)</f>
+        <v>5101.7899971521601</v>
       </c>
       <c r="GP28" s="35">
-        <f t="shared" ref="GP28" si="160">GO28*($F$2+1)</f>
-        <v>9746.5476128163227</v>
+        <f t="shared" ref="GP28" si="164">GO28*($F$2+1)</f>
+        <v>4999.7541972091167</v>
       </c>
       <c r="GQ28" s="35">
-        <f t="shared" ref="GQ28" si="161">GP28*($F$2+1)</f>
-        <v>9551.6166605599956</v>
+        <f t="shared" ref="GQ28" si="165">GP28*($F$2+1)</f>
+        <v>4899.7591132649341</v>
       </c>
       <c r="GR28" s="35">
-        <f t="shared" ref="GR28" si="162">GQ28*($F$2+1)</f>
-        <v>9360.5843273487953</v>
+        <f t="shared" ref="GR28" si="166">GQ28*($F$2+1)</f>
+        <v>4801.7639309996357</v>
       </c>
       <c r="GS28" s="35">
-        <f t="shared" ref="GS28" si="163">GR28*($F$2+1)</f>
-        <v>9173.3726408018192</v>
+        <f t="shared" ref="GS28" si="167">GR28*($F$2+1)</f>
+        <v>4705.7286523796429</v>
       </c>
       <c r="GT28" s="35">
-        <f t="shared" ref="GT28" si="164">GS28*($F$2+1)</f>
-        <v>8989.9051879857834</v>
+        <f t="shared" ref="GT28" si="168">GS28*($F$2+1)</f>
+        <v>4611.6140793320501</v>
       </c>
       <c r="GU28" s="35">
-        <f t="shared" ref="GU28" si="165">GT28*($F$2+1)</f>
-        <v>8810.1070842260669</v>
+        <f t="shared" ref="GU28" si="169">GT28*($F$2+1)</f>
+        <v>4519.3817977454091</v>
       </c>
     </row>
     <row r="29" spans="1:203" x14ac:dyDescent="0.15">
@@ -3524,88 +3524,88 @@
         <v>16</v>
       </c>
       <c r="B29" s="38">
-        <f t="shared" ref="B29:G29" si="166">B28/B30</f>
+        <f t="shared" ref="B29:G29" si="170">B28/B30</f>
         <v>1.2182952182952183</v>
       </c>
       <c r="C29" s="38">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>4.8786008230452671</v>
       </c>
       <c r="D29" s="38">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>6.11491935483871</v>
       </c>
       <c r="E29" s="38">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>20.105788423153694</v>
       </c>
       <c r="F29" s="38">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>22.954455445544554</v>
       </c>
       <c r="G29" s="38">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>41.409356725146196</v>
       </c>
       <c r="H29" s="39">
-        <f t="shared" ref="H29" si="167">H28/H30</f>
-        <v>46.071114628471399</v>
+        <f t="shared" ref="H29" si="171">H28/H30</f>
+        <v>45.346875046219949</v>
       </c>
       <c r="I29" s="39">
-        <f t="shared" ref="I29" si="168">I28/I30</f>
-        <v>55.404034832910163</v>
+        <f t="shared" ref="I29" si="172">I28/I30</f>
+        <v>52.98775672992096</v>
       </c>
       <c r="J29" s="39">
-        <f t="shared" ref="J29" si="169">J28/J30</f>
-        <v>68.042235303446489</v>
+        <f t="shared" ref="J29" si="173">J28/J30</f>
+        <v>62.408976448888332</v>
       </c>
       <c r="K29" s="39">
-        <f t="shared" ref="K29:L29" si="170">K28/K30</f>
-        <v>85.4654203501875</v>
+        <f t="shared" ref="K29:L29" si="174">K28/K30</f>
+        <v>74.262933263543715</v>
       </c>
       <c r="L29" s="39">
-        <f t="shared" si="170"/>
-        <v>109.81784008848702</v>
+        <f t="shared" si="174"/>
+        <v>89.472867970968991</v>
       </c>
       <c r="M29" s="39">
-        <f t="shared" ref="M29" si="171">M28/M30</f>
-        <v>139.81438542786378</v>
+        <f t="shared" ref="M29" si="175">M28/M30</f>
+        <v>100.72677643501051</v>
       </c>
       <c r="N29" s="39">
-        <f t="shared" ref="N29" si="172">N28/N30</f>
-        <v>173.95636665457954</v>
+        <f t="shared" ref="N29" si="176">N28/N30</f>
+        <v>113.21325510116284</v>
       </c>
       <c r="O29" s="39">
-        <f t="shared" ref="O29" si="173">O28/O30</f>
-        <v>212.71762719859757</v>
+        <f t="shared" ref="O29" si="177">O28/O30</f>
+        <v>127.06078137805217</v>
       </c>
       <c r="P29" s="39">
-        <f t="shared" ref="P29" si="174">P28/P30</f>
-        <v>256.6223679088431</v>
+        <f t="shared" ref="P29" si="178">P28/P30</f>
+        <v>142.41093907873952</v>
       </c>
       <c r="Q29" s="39">
-        <f t="shared" ref="Q29:R29" si="175">Q28/Q30</f>
-        <v>306.25033106433938</v>
+        <f t="shared" ref="Q29:R29" si="179">Q28/Q30</f>
+        <v>159.4197419542916</v>
       </c>
       <c r="R29" s="39">
-        <f t="shared" si="175"/>
-        <v>362.242510182942</v>
+        <f t="shared" si="179"/>
+        <v>193.56318412631808</v>
       </c>
       <c r="S29" s="39">
-        <f t="shared" ref="S29:U29" si="176">S28/S30</f>
-        <v>425.30743857675776</v>
+        <f t="shared" ref="S29:U29" si="180">S28/S30</f>
+        <v>228.71978834927577</v>
       </c>
       <c r="T29" s="39">
-        <f t="shared" si="176"/>
-        <v>496.22811491669876</v>
+        <f t="shared" si="180"/>
+        <v>264.98390433250006</v>
       </c>
       <c r="U29" s="39">
-        <f t="shared" si="176"/>
-        <v>575.86962991423957</v>
+        <f t="shared" si="180"/>
+        <v>302.45259668545884</v>
       </c>
       <c r="V29" s="39">
-        <f t="shared" ref="V29" si="177">V28/V30</f>
-        <v>665.18756465960087</v>
+        <f t="shared" ref="V29" si="181">V28/V30</f>
+        <v>341.22588330301591</v>
       </c>
     </row>
     <row r="30" spans="1:203" x14ac:dyDescent="0.15">
@@ -3637,63 +3637,63 @@
         <v>513</v>
       </c>
       <c r="H30" s="28">
-        <f t="shared" ref="H30:V30" si="178">G30</f>
+        <f t="shared" ref="H30:V30" si="182">G30</f>
         <v>513</v>
       </c>
       <c r="I30" s="28">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>513</v>
       </c>
       <c r="J30" s="28">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>513</v>
       </c>
       <c r="K30" s="28">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>513</v>
       </c>
       <c r="L30" s="28">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>513</v>
       </c>
       <c r="M30" s="28">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>513</v>
       </c>
       <c r="N30" s="28">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>513</v>
       </c>
       <c r="O30" s="28">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>513</v>
       </c>
       <c r="P30" s="28">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>513</v>
       </c>
       <c r="Q30" s="28">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>513</v>
       </c>
       <c r="R30" s="28">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>513</v>
       </c>
       <c r="S30" s="28">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>513</v>
       </c>
       <c r="T30" s="28">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>513</v>
       </c>
       <c r="U30" s="28">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>513</v>
       </c>
       <c r="V30" s="28">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>513</v>
       </c>
     </row>
@@ -3729,15 +3729,15 @@
         <v>0.20340757217492078</v>
       </c>
       <c r="C32" s="42">
-        <f t="shared" ref="C32:Q32" si="179">IFERROR(C19/C17,0)</f>
+        <f t="shared" ref="C32:Q32" si="183">IFERROR(C19/C17,0)</f>
         <v>0.22015339701589123</v>
       </c>
       <c r="D32" s="42">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.22785692600047228</v>
       </c>
       <c r="E32" s="42">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.25636467471348767</v>
       </c>
       <c r="F32" s="42">
@@ -3745,67 +3745,67 @@
         <v>0.26648533804835273</v>
       </c>
       <c r="G32" s="42">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.24411306845702949</v>
       </c>
       <c r="H32" s="42">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.25411306845702947</v>
       </c>
       <c r="I32" s="42">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.26411306845702948</v>
       </c>
       <c r="J32" s="42">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.27411306845702949</v>
       </c>
       <c r="K32" s="42">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.28411306845702949</v>
       </c>
       <c r="L32" s="42">
-        <f t="shared" ref="L32" si="180">IFERROR(L19/L17,0)</f>
+        <f t="shared" ref="L32" si="184">IFERROR(L19/L17,0)</f>
         <v>0.2941130684570295</v>
       </c>
       <c r="M32" s="42">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.2941130684570295</v>
       </c>
       <c r="N32" s="42">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.2941130684570295</v>
       </c>
       <c r="O32" s="42">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.2941130684570295</v>
       </c>
       <c r="P32" s="42">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.2941130684570295</v>
       </c>
       <c r="Q32" s="42">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.2941130684570295</v>
       </c>
       <c r="R32" s="42">
-        <f t="shared" ref="R32:U32" si="181">IFERROR(R19/R17,0)</f>
+        <f t="shared" ref="R32:U32" si="185">IFERROR(R19/R17,0)</f>
         <v>0.2941130684570295</v>
       </c>
       <c r="S32" s="42">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>0.2941130684570295</v>
       </c>
       <c r="T32" s="42">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>0.2941130684570295</v>
       </c>
       <c r="U32" s="42">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>0.2941130684570295</v>
       </c>
       <c r="V32" s="42">
-        <f t="shared" ref="V32" si="182">IFERROR(V19/V17,0)</f>
+        <f t="shared" ref="V32" si="186">IFERROR(V19/V17,0)</f>
         <v>0.2941130684570295</v>
       </c>
     </row>
@@ -3814,23 +3814,23 @@
         <v>20</v>
       </c>
       <c r="B33" s="41">
-        <f t="shared" ref="B33:Q33" si="183">IFERROR(B24/B17,0)</f>
+        <f t="shared" ref="B33:Q33" si="187">IFERROR(B24/B17,0)</f>
         <v>2.0776283447199454E-2</v>
       </c>
       <c r="C33" s="41">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>3.0782354195621642E-2</v>
       </c>
       <c r="D33" s="41">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>2.3090416380870993E-2</v>
       </c>
       <c r="E33" s="41">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>5.3330585219441187E-2</v>
       </c>
       <c r="F33" s="41">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>5.1831941879781268E-2</v>
       </c>
       <c r="G33" s="41">
@@ -3838,64 +3838,64 @@
         <v>5.9321309513633645E-2</v>
       </c>
       <c r="H33" s="41">
-        <f t="shared" si="183"/>
-        <v>5.9341452889832981E-2</v>
+        <f t="shared" si="187"/>
+        <v>5.8595495089567372E-2</v>
       </c>
       <c r="I33" s="41">
-        <f t="shared" si="183"/>
-        <v>6.0141987183956525E-2</v>
+        <f t="shared" si="187"/>
+        <v>5.8008324210956197E-2</v>
       </c>
       <c r="J33" s="41">
-        <f t="shared" si="183"/>
-        <v>6.1903388942939799E-2</v>
+        <f t="shared" si="187"/>
+        <v>5.7679914335160058E-2</v>
       </c>
       <c r="K33" s="41">
-        <f t="shared" si="183"/>
-        <v>6.4791037876768973E-2</v>
+        <f t="shared" si="187"/>
+        <v>5.7732356063726051E-2</v>
       </c>
       <c r="L33" s="41">
-        <f t="shared" ref="L33" si="184">IFERROR(L24/L17,0)</f>
-        <v>6.8946295027845841E-2</v>
+        <f t="shared" ref="L33" si="188">IFERROR(L24/L17,0)</f>
+        <v>5.8285524075701707E-2</v>
       </c>
       <c r="M33" s="41">
-        <f t="shared" si="183"/>
-        <v>7.9673921473022824E-2</v>
+        <f t="shared" si="187"/>
+        <v>5.9145697404903795E-2</v>
       </c>
       <c r="N33" s="41">
-        <f t="shared" si="183"/>
-        <v>8.9878090490147278E-2</v>
+        <f t="shared" si="187"/>
+        <v>5.996677194641499E-2</v>
       </c>
       <c r="O33" s="41">
-        <f t="shared" si="183"/>
-        <v>9.958520200188932E-2</v>
+        <f t="shared" si="187"/>
+        <v>6.0750524917857401E-2</v>
       </c>
       <c r="P33" s="41">
-        <f t="shared" si="183"/>
-        <v>0.10882026637783659</v>
+        <f t="shared" si="187"/>
+        <v>6.1498652754234363E-2</v>
       </c>
       <c r="Q33" s="41">
-        <f t="shared" si="183"/>
-        <v>0.11760698138193272</v>
+        <f t="shared" si="187"/>
+        <v>6.2212774779866774E-2</v>
       </c>
       <c r="R33" s="41">
-        <f t="shared" ref="R33:U33" si="185">IFERROR(R24/R17,0)</f>
-        <v>0.12596780461969087</v>
+        <f t="shared" ref="R33:U33" si="189">IFERROR(R24/R17,0)</f>
+        <v>7.2188920570965098E-2</v>
       </c>
       <c r="S33" s="41">
-        <f t="shared" si="185"/>
-        <v>0.13392402176265644</v>
+        <f t="shared" si="189"/>
+        <v>8.1243522120126976E-2</v>
       </c>
       <c r="T33" s="41">
-        <f t="shared" si="185"/>
-        <v>0.14149581080967596</v>
+        <f t="shared" si="189"/>
+        <v>8.9462441220230324E-2</v>
       </c>
       <c r="U33" s="41">
-        <f t="shared" si="185"/>
-        <v>0.14870230262781423</v>
+        <f t="shared" si="189"/>
+        <v>9.6923489305572555E-2</v>
       </c>
       <c r="V33" s="41">
-        <f t="shared" ref="V33" si="186">IFERROR(V24/V17,0)</f>
-        <v>0.15556163800016376</v>
+        <f t="shared" ref="V33" si="190">IFERROR(V24/V17,0)</f>
+        <v>0.10369718568901912</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
@@ -3903,87 +3903,87 @@
         <v>21</v>
       </c>
       <c r="B34" s="41">
-        <f t="shared" ref="B34:Q34" si="187">IFERROR(B27/B26,0)</f>
+        <f t="shared" ref="B34:Q34" si="191">IFERROR(B27/B26,0)</f>
         <v>0.62387676508344025</v>
       </c>
       <c r="C34" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.39080164439876669</v>
       </c>
       <c r="D34" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.20330969267139479</v>
       </c>
       <c r="E34" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.10549684752686263</v>
       </c>
       <c r="F34" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.1699248120300752</v>
       </c>
       <c r="G34" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.11876711192234299</v>
       </c>
       <c r="H34" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.15</v>
       </c>
       <c r="I34" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.15</v>
       </c>
       <c r="J34" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.15</v>
       </c>
       <c r="K34" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.15</v>
       </c>
       <c r="L34" s="41">
-        <f t="shared" ref="L34" si="188">IFERROR(L27/L26,0)</f>
+        <f t="shared" ref="L34" si="192">IFERROR(L27/L26,0)</f>
         <v>0.15</v>
       </c>
       <c r="M34" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.15</v>
       </c>
       <c r="N34" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.15</v>
       </c>
       <c r="O34" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.15</v>
       </c>
       <c r="P34" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.15</v>
       </c>
       <c r="Q34" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.15</v>
       </c>
       <c r="R34" s="41">
-        <f t="shared" ref="R34:U34" si="189">IFERROR(R27/R26,0)</f>
-        <v>0.14999999999999997</v>
+        <f t="shared" ref="R34:U34" si="193">IFERROR(R27/R26,0)</f>
+        <v>0.15</v>
       </c>
       <c r="S34" s="41">
-        <f t="shared" si="189"/>
+        <f t="shared" si="193"/>
         <v>0.15</v>
       </c>
       <c r="T34" s="41">
-        <f t="shared" si="189"/>
+        <f t="shared" si="193"/>
         <v>0.15</v>
       </c>
       <c r="U34" s="41">
-        <f t="shared" si="189"/>
+        <f t="shared" si="193"/>
         <v>0.15</v>
       </c>
       <c r="V34" s="41">
-        <f t="shared" ref="V34" si="190">IFERROR(V27/V26,0)</f>
+        <f t="shared" ref="V34" si="194">IFERROR(V27/V26,0)</f>
         <v>0.15</v>
       </c>
     </row>
@@ -4016,15 +4016,15 @@
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="40">
-        <f t="shared" ref="C36:V36" si="191">C17/B17-1</f>
+        <f t="shared" ref="C36:V36" si="195">C17/B17-1</f>
         <v>0.27094217594885839</v>
       </c>
       <c r="D36" s="40">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0.30796326119408479</v>
       </c>
       <c r="E36" s="40">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0.3093396152159491</v>
       </c>
       <c r="F36" s="40">
@@ -4037,63 +4037,63 @@
       </c>
       <c r="H36" s="40">
         <f>H17/G17-1</f>
-        <v>0.16778408929020094</v>
+        <v>0.16332864502793543</v>
       </c>
       <c r="I36" s="40">
-        <f t="shared" si="191"/>
-        <v>0.1769928061415631</v>
+        <f t="shared" si="195"/>
+        <v>0.16926930674639551</v>
       </c>
       <c r="J36" s="40">
-        <f t="shared" si="191"/>
-        <v>0.18644508407177507</v>
+        <f t="shared" si="195"/>
+        <v>0.17546156374317645</v>
       </c>
       <c r="K36" s="40">
-        <f t="shared" si="191"/>
-        <v>0.1961058400368294</v>
+        <f t="shared" si="195"/>
+        <v>0.1818736381957009</v>
       </c>
       <c r="L36" s="40">
-        <f t="shared" si="191"/>
-        <v>0.20592541695715783</v>
+        <f t="shared" si="195"/>
+        <v>0.18846771537267126</v>
       </c>
       <c r="M36" s="40">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="N36" s="40">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="O36" s="40">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="P36" s="40">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="Q36" s="40">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="R36" s="40">
-        <f t="shared" si="191"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="195"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="S36" s="40">
-        <f t="shared" si="191"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="195"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="T36" s="40">
-        <f t="shared" si="191"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="195"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="U36" s="40">
-        <f t="shared" si="191"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="195"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="V36" s="40">
-        <f t="shared" si="191"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="195"/>
+        <v>5.0000000000000044E-2</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
@@ -4102,83 +4102,83 @@
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="41">
-        <f t="shared" ref="C37:V37" si="192">C20/B20-1</f>
+        <f t="shared" ref="C37:V37" si="196">C20/B20-1</f>
         <v>0.28257056290862703</v>
       </c>
       <c r="D37" s="41">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.40619171950764632</v>
       </c>
       <c r="E37" s="41">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.27484526967285583</v>
       </c>
       <c r="F37" s="41">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.24603807608281025</v>
       </c>
       <c r="G37" s="41">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.18941333630190349</v>
       </c>
       <c r="H37" s="41">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="I37" s="41">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="J37" s="41">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="K37" s="41">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="L37" s="41">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="M37" s="41">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="N37" s="41">
+        <f t="shared" si="196"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="O37" s="41">
+        <f t="shared" si="196"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="P37" s="41">
+        <f t="shared" si="196"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Q37" s="41">
+        <f t="shared" si="196"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="R37" s="41">
+        <f t="shared" si="196"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="N37" s="41">
-        <f t="shared" si="192"/>
+      <c r="S37" s="41">
+        <f t="shared" si="196"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="O37" s="41">
-        <f t="shared" si="192"/>
+      <c r="T37" s="41">
+        <f t="shared" si="196"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="P37" s="41">
-        <f t="shared" si="192"/>
+      <c r="U37" s="41">
+        <f t="shared" si="196"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="Q37" s="41">
-        <f t="shared" si="192"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="R37" s="41">
-        <f t="shared" si="192"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="S37" s="41">
-        <f t="shared" si="192"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="T37" s="41">
-        <f t="shared" si="192"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="U37" s="41">
-        <f t="shared" si="192"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
       <c r="V37" s="41">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -4188,84 +4188,84 @@
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="41">
-        <f t="shared" ref="C38:V38" si="193">C21/B21-1</f>
+        <f t="shared" ref="C38:V38" si="197">C21/B21-1</f>
         <v>0.37718964204112715</v>
       </c>
       <c r="D38" s="41">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>0.3919535462463708</v>
       </c>
       <c r="E38" s="41">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>0.37206992451330945</v>
       </c>
       <c r="F38" s="41">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>0.36665701462284628</v>
       </c>
       <c r="G38" s="41">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>0.1658456486042692</v>
       </c>
       <c r="H38" s="41">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="I38" s="41">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J38" s="41">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="K38" s="41">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="L38" s="41">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="M38" s="41">
-        <f t="shared" si="193"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="197"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="N38" s="41">
-        <f t="shared" si="193"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="197"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="O38" s="41">
-        <f t="shared" si="193"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="197"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="P38" s="41">
-        <f t="shared" si="193"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="197"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="Q38" s="41">
-        <f t="shared" si="193"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="197"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="R38" s="41">
-        <f t="shared" si="193"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="197"/>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="S38" s="41">
-        <f t="shared" si="193"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="197"/>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="T38" s="41">
-        <f t="shared" si="193"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="197"/>
+        <v>-5.0000000000000155E-2</v>
       </c>
       <c r="U38" s="41">
-        <f t="shared" si="193"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="197"/>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="V38" s="41">
-        <f t="shared" si="193"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="197"/>
+        <v>-4.9999999999999933E-2</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.15">
@@ -4274,84 +4274,84 @@
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="41">
-        <f t="shared" ref="C39:V39" si="194">C22/B22-1</f>
+        <f t="shared" ref="C39:V39" si="198">C22/B22-1</f>
         <v>0.39267315397824842</v>
       </c>
       <c r="D39" s="41">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.53431976983148366</v>
       </c>
       <c r="E39" s="41">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.24109295472810066</v>
       </c>
       <c r="F39" s="41">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.16641484998920775</v>
       </c>
       <c r="G39" s="41">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.22020725388601026</v>
       </c>
       <c r="H39" s="41">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="I39" s="41">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="J39" s="41">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="K39" s="41">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="L39" s="41">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="M39" s="41">
-        <f t="shared" si="194"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="198"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="N39" s="41">
-        <f t="shared" si="194"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="198"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="O39" s="41">
-        <f t="shared" si="194"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="198"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="P39" s="41">
-        <f t="shared" si="194"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="198"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="Q39" s="41">
-        <f t="shared" si="194"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="198"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="R39" s="41">
-        <f t="shared" si="194"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="198"/>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="S39" s="41">
-        <f t="shared" si="194"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="198"/>
+        <v>-1.9999999999999907E-2</v>
       </c>
       <c r="T39" s="41">
-        <f t="shared" si="194"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="198"/>
+        <v>-1.9999999999999907E-2</v>
       </c>
       <c r="U39" s="41">
-        <f t="shared" si="194"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="198"/>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V39" s="41">
-        <f t="shared" si="194"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="198"/>
+        <v>-2.0000000000000129E-2</v>
       </c>
     </row>
     <row r="40" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.15">
@@ -4364,80 +4364,80 @@
         <v>0.31784453200962082</v>
       </c>
       <c r="D40" s="50">
-        <f t="shared" ref="D40:V40" si="195">D23/C23-1</f>
+        <f t="shared" ref="D40:V40" si="199">D23/C23-1</f>
         <v>0.41429791860826337</v>
       </c>
       <c r="E40" s="50">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>0.29826199170808043</v>
       </c>
       <c r="F40" s="50">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>0.27347517130530408</v>
       </c>
       <c r="G40" s="50">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>0.18478784356057454</v>
       </c>
       <c r="H40" s="50">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>0.23085139188696702</v>
       </c>
       <c r="I40" s="50">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>0.23258460746554532</v>
       </c>
       <c r="J40" s="50">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>0.23436680082538941</v>
       </c>
       <c r="K40" s="50">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>0.23619413698029779</v>
       </c>
       <c r="L40" s="50">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>0.23806228865421075</v>
       </c>
       <c r="M40" s="50">
-        <f t="shared" si="195"/>
-        <v>4.7592671378728246E-2</v>
+        <f t="shared" si="199"/>
+        <v>9.5987785631213907E-2</v>
       </c>
       <c r="N40" s="50">
-        <f t="shared" si="195"/>
-        <v>4.7656078301439919E-2</v>
+        <f t="shared" si="199"/>
+        <v>9.6156138651856127E-2</v>
       </c>
       <c r="O40" s="50">
-        <f t="shared" si="195"/>
-        <v>4.7717953265342894E-2</v>
+        <f t="shared" si="199"/>
+        <v>9.6317993146017633E-2</v>
       </c>
       <c r="P40" s="50">
-        <f t="shared" si="195"/>
-        <v>4.7778326063712573E-2</v>
+        <f t="shared" si="199"/>
+        <v>9.6473553092394804E-2</v>
       </c>
       <c r="Q40" s="50">
-        <f t="shared" si="195"/>
-        <v>4.7837226292390733E-2</v>
+        <f t="shared" si="199"/>
+        <v>9.6623020005779381E-2</v>
       </c>
       <c r="R40" s="50">
-        <f t="shared" si="195"/>
-        <v>4.7894683328280951E-2</v>
+        <f t="shared" si="199"/>
+        <v>4.8299274892862343E-3</v>
       </c>
       <c r="S40" s="50">
-        <f t="shared" si="195"/>
-        <v>4.7950726309314851E-2</v>
+        <f t="shared" si="199"/>
+        <v>7.1595442984375701E-3</v>
       </c>
       <c r="T40" s="50">
-        <f t="shared" si="195"/>
-        <v>4.8005384115853866E-2</v>
+        <f t="shared" si="199"/>
+        <v>9.459372166602531E-3</v>
       </c>
       <c r="U40" s="50">
-        <f t="shared" si="195"/>
-        <v>4.8058685353467689E-2</v>
+        <f t="shared" si="199"/>
+        <v>1.1719636067645256E-2</v>
       </c>
       <c r="V40" s="50">
-        <f t="shared" si="195"/>
-        <v>4.8110658337042311E-2</v>
+        <f t="shared" si="199"/>
+        <v>1.3931252182672438E-2</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.15">
@@ -4468,88 +4468,88 @@
         <v>37</v>
       </c>
       <c r="B42" s="45">
-        <f t="shared" ref="B42:G42" si="196">B43-B44</f>
+        <f t="shared" ref="B42:G42" si="200">B43-B44</f>
         <v>11581</v>
       </c>
       <c r="C42" s="45">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>18287</v>
       </c>
       <c r="D42" s="45">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>6243</v>
       </c>
       <c r="E42" s="45">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>17755</v>
       </c>
       <c r="F42" s="45">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>31607</v>
       </c>
       <c r="G42" s="45">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>52580</v>
       </c>
       <c r="H42" s="46">
-        <f t="shared" ref="H42:V42" si="197">G42+H28</f>
-        <v>76214.481804405834</v>
+        <f t="shared" ref="H42:V42" si="201">G42+H28</f>
+        <v>75842.946898710827</v>
       </c>
       <c r="I42" s="46">
-        <f t="shared" si="197"/>
-        <v>104636.75167368875</v>
+        <f t="shared" si="201"/>
+        <v>103025.66610116028</v>
       </c>
       <c r="J42" s="46">
-        <f t="shared" si="197"/>
-        <v>139542.4183843568</v>
+        <f t="shared" si="201"/>
+        <v>135041.47101944001</v>
       </c>
       <c r="K42" s="46">
-        <f t="shared" si="197"/>
-        <v>183386.17902400298</v>
+        <f t="shared" si="201"/>
+        <v>173138.35578363793</v>
       </c>
       <c r="L42" s="46">
-        <f t="shared" si="197"/>
-        <v>239722.7309893968</v>
+        <f t="shared" si="201"/>
+        <v>219037.93705274502</v>
       </c>
       <c r="M42" s="46">
-        <f t="shared" si="197"/>
-        <v>311447.51071389089</v>
+        <f t="shared" si="201"/>
+        <v>270710.77336390543</v>
       </c>
       <c r="N42" s="46">
-        <f t="shared" si="197"/>
-        <v>400687.12680769019</v>
+        <f t="shared" si="201"/>
+        <v>328789.17323080194</v>
       </c>
       <c r="O42" s="46">
-        <f t="shared" si="197"/>
-        <v>509811.26956057071</v>
+        <f t="shared" si="201"/>
+        <v>393971.35407774273</v>
       </c>
       <c r="P42" s="46">
-        <f t="shared" si="197"/>
-        <v>641458.54429780715</v>
+        <f t="shared" si="201"/>
+        <v>467028.16582513612</v>
       </c>
       <c r="Q42" s="46">
-        <f t="shared" si="197"/>
-        <v>798564.96413381328</v>
+        <f t="shared" si="201"/>
+        <v>548810.49344768771</v>
       </c>
       <c r="R42" s="46">
-        <f t="shared" si="197"/>
-        <v>984395.37185766245</v>
+        <f t="shared" si="201"/>
+        <v>648108.40690448892</v>
       </c>
       <c r="S42" s="46">
-        <f t="shared" si="197"/>
-        <v>1202578.0878475392</v>
+        <f t="shared" si="201"/>
+        <v>765441.65832766739</v>
       </c>
       <c r="T42" s="46">
-        <f t="shared" si="197"/>
-        <v>1457143.1107998057</v>
+        <f t="shared" si="201"/>
+        <v>901378.40125023993</v>
       </c>
       <c r="U42" s="46">
-        <f t="shared" si="197"/>
-        <v>1752564.2309458107</v>
+        <f t="shared" si="201"/>
+        <v>1056536.5833498803</v>
       </c>
       <c r="V42" s="46">
-        <f t="shared" si="197"/>
-        <v>2093805.451616186</v>
+        <f t="shared" si="201"/>
+        <v>1231585.4614843274</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.15">
@@ -4815,31 +4815,31 @@
         <v>0.13503760786304286</v>
       </c>
       <c r="F58" s="43">
-        <f t="shared" ref="F58:L58" si="198">F10/E10-1</f>
+        <f t="shared" ref="F58:L58" si="202">F10/E10-1</f>
         <v>0.14847097660728359</v>
       </c>
       <c r="G58" s="43">
-        <f t="shared" si="198"/>
+        <f t="shared" si="202"/>
         <v>0.39719073679440986</v>
       </c>
       <c r="H58" s="43">
-        <f t="shared" si="198"/>
+        <f t="shared" si="202"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="I58" s="43">
-        <f t="shared" si="198"/>
+        <f t="shared" si="202"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="J58" s="43">
-        <f t="shared" si="198"/>
+        <f t="shared" si="202"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="K58" s="43">
-        <f t="shared" si="198"/>
+        <f t="shared" si="202"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="L58" s="43">
-        <f t="shared" si="198"/>
+        <f t="shared" si="202"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -4850,36 +4850,36 @@
       <c r="C59" s="43"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43">
-        <f t="shared" ref="E59:L63" si="199">E11/D11-1</f>
+        <f t="shared" ref="E59:L63" si="203">E11/D11-1</f>
         <v>1.9706795446705763</v>
       </c>
       <c r="F59" s="43">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>-1.8578727357175806E-3</v>
       </c>
       <c r="G59" s="43">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>-5.6305258259655599E-2</v>
       </c>
       <c r="H59" s="43">
-        <f t="shared" si="199"/>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="203"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="I59" s="43">
-        <f t="shared" si="199"/>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="203"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="J59" s="43">
-        <f t="shared" si="199"/>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="203"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="K59" s="43">
-        <f t="shared" si="199"/>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="203"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="L59" s="43">
-        <f t="shared" si="199"/>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="203"/>
+        <v>5.0000000000000044E-2</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.15">
@@ -4888,39 +4888,39 @@
       </c>
       <c r="C60" s="43"/>
       <c r="D60" s="43">
-        <f t="shared" ref="D60:D63" si="200">D12/C12-1</f>
+        <f t="shared" ref="D60:D63" si="204">D12/C12-1</f>
         <v>0.3865089375027182</v>
       </c>
       <c r="E60" s="43">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.34080928481806771</v>
       </c>
       <c r="F60" s="43">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.25771435255585451</v>
       </c>
       <c r="G60" s="43">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.4961961273041795</v>
       </c>
       <c r="H60" s="43">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="I60" s="43">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="J60" s="43">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="K60" s="43">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="L60" s="43">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -4930,39 +4930,39 @@
       </c>
       <c r="C61" s="43"/>
       <c r="D61" s="43">
-        <f t="shared" si="200"/>
+        <f t="shared" si="204"/>
         <v>0.52048795746011889</v>
       </c>
       <c r="E61" s="43">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.45721045052458331</v>
       </c>
       <c r="F61" s="43">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.35596809486835612</v>
       </c>
       <c r="G61" s="43">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.31218115564810001</v>
       </c>
       <c r="H61" s="43">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="I61" s="43">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J61" s="43">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="K61" s="43">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="L61" s="43">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.30000000000000004</v>
       </c>
     </row>
@@ -4971,44 +4971,44 @@
         <v>80</v>
       </c>
       <c r="C62" s="43">
-        <f t="shared" ref="C62" si="201">C14/B14-1</f>
+        <f t="shared" ref="C62" si="205">C14/B14-1</f>
         <v>0.5526048284625158</v>
       </c>
       <c r="D62" s="43">
-        <f t="shared" si="200"/>
+        <f t="shared" si="204"/>
         <v>0.42875849087486695</v>
       </c>
       <c r="E62" s="43">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.46958414480467403</v>
       </c>
       <c r="F62" s="43">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.36521671343935136</v>
       </c>
       <c r="G62" s="43">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.2954091246502597</v>
       </c>
       <c r="H62" s="43">
-        <f t="shared" si="199"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="203"/>
+        <v>0.25</v>
       </c>
       <c r="I62" s="43">
-        <f t="shared" si="199"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="203"/>
+        <v>0.25</v>
       </c>
       <c r="J62" s="43">
-        <f t="shared" si="199"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="203"/>
+        <v>0.25</v>
       </c>
       <c r="K62" s="43">
-        <f t="shared" si="199"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="203"/>
+        <v>0.25</v>
       </c>
       <c r="L62" s="43">
-        <f t="shared" si="199"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="203"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.15">
@@ -5017,40 +5017,40 @@
       </c>
       <c r="C63" s="43"/>
       <c r="D63" s="43">
-        <f t="shared" si="200"/>
+        <f t="shared" si="204"/>
         <v>0.57728813559322023</v>
       </c>
       <c r="E63" s="43">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>1.1723619170427679</v>
       </c>
       <c r="F63" s="43">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.39354966363276622</v>
       </c>
       <c r="G63" s="43">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.52470538122958965</v>
       </c>
       <c r="H63" s="43">
-        <f t="shared" si="199"/>
-        <v>0.39999999999999991</v>
+        <f t="shared" si="203"/>
+        <v>0.35000000000000009</v>
       </c>
       <c r="I63" s="43">
-        <f t="shared" si="199"/>
-        <v>0.39999999999999991</v>
+        <f t="shared" si="203"/>
+        <v>0.35000000000000009</v>
       </c>
       <c r="J63" s="43">
-        <f t="shared" si="199"/>
-        <v>0.39999999999999991</v>
+        <f t="shared" si="203"/>
+        <v>0.35000000000000009</v>
       </c>
       <c r="K63" s="43">
-        <f t="shared" si="199"/>
-        <v>0.39999999999999991</v>
+        <f t="shared" si="203"/>
+        <v>0.35000000000000031</v>
       </c>
       <c r="L63" s="43">
-        <f t="shared" si="199"/>
-        <v>0.39999999999999991</v>
+        <f t="shared" si="203"/>
+        <v>0.35000000000000009</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
@@ -5101,10 +5101,10 @@
   <dimension ref="A1:AA56"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA10" sqref="AA10"/>
+      <selection pane="bottomRight" activeCell="AA41" sqref="AA41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FB0D92-88F6-5C45-A810-6C86695E1E83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1DE030-F82F-0845-928E-E956BD072C72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-55700" yWindow="-5940" windowWidth="27420" windowHeight="27080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-54700" yWindow="-5940" windowWidth="27420" windowHeight="27080" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="180">
   <si>
     <t>Q117</t>
   </si>
@@ -301,9 +301,6 @@
     <t>Equity</t>
   </si>
   <si>
-    <t>NI 12M</t>
-  </si>
-  <si>
     <t>ROE</t>
   </si>
   <si>
@@ -572,6 +569,15 @@
   </si>
   <si>
     <t>Q420</t>
+  </si>
+  <si>
+    <t>Net Income TTM</t>
+  </si>
+  <si>
+    <t>Revenue TTM</t>
+  </si>
+  <si>
+    <t>Revenue TTM y/y</t>
   </si>
 </sst>
 </file>
@@ -678,7 +684,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -808,6 +814,15 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -897,7 +912,7 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1206,11 +1221,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GU76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="I46" sqref="I46"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1221,7 +1236,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>69</v>
@@ -1257,7 +1272,7 @@
         <v>513</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>42</v>
@@ -1291,11 +1306,11 @@
         <v>37</v>
       </c>
       <c r="C5" s="28">
-        <f>Reports!Y34</f>
+        <f>Reports!Y35</f>
         <v>52580</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>44</v>
@@ -1609,7 +1624,7 @@
         <v>25207</v>
       </c>
       <c r="H13" s="28">
-        <f t="shared" ref="H13:L14" si="4">G13*1.3</f>
+        <f t="shared" ref="H13:L13" si="4">G13*1.3</f>
         <v>32769.1</v>
       </c>
       <c r="I13" s="28">
@@ -1776,7 +1791,7 @@
         <v>867054.74577375024</v>
       </c>
       <c r="M17" s="37">
-        <f t="shared" ref="M17:V17" si="10">L17*1.1</f>
+        <f t="shared" ref="M17:Q17" si="10">L17*1.1</f>
         <v>953760.22035112535</v>
       </c>
       <c r="N17" s="37">
@@ -2047,7 +2062,7 @@
         <v>116980.402176</v>
       </c>
       <c r="N20" s="28">
-        <f t="shared" ref="N20:V20" si="26">M20*1.1</f>
+        <f t="shared" ref="N20:Q20" si="26">M20*1.1</f>
         <v>128678.44239360001</v>
       </c>
       <c r="O20" s="28">
@@ -4356,7 +4371,7 @@
     </row>
     <row r="40" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B40" s="34"/>
       <c r="C40" s="50">
@@ -4557,27 +4572,27 @@
         <v>38</v>
       </c>
       <c r="B43" s="44">
-        <f>Reports!E35</f>
+        <f>Reports!E36</f>
         <v>19808</v>
       </c>
       <c r="C43" s="44">
-        <f>Reports!I35</f>
+        <f>Reports!I36</f>
         <v>25981</v>
       </c>
       <c r="D43" s="44">
-        <f>Reports!M35</f>
+        <f>Reports!M36</f>
         <v>30986</v>
       </c>
       <c r="E43" s="44">
-        <f>Reports!Q35</f>
+        <f>Reports!Q36</f>
         <v>41250</v>
       </c>
       <c r="F43" s="44">
-        <f>Reports!U35</f>
+        <f>Reports!U36</f>
         <v>55021</v>
       </c>
       <c r="G43" s="44">
-        <f>Reports!Y35</f>
+        <f>Reports!Y36</f>
         <v>84396</v>
       </c>
     </row>
@@ -4586,27 +4601,27 @@
         <v>39</v>
       </c>
       <c r="B44" s="44">
-        <f>Reports!E36</f>
+        <f>Reports!E37</f>
         <v>8227</v>
       </c>
       <c r="C44" s="44">
-        <f>Reports!I36</f>
+        <f>Reports!I37</f>
         <v>7694</v>
       </c>
       <c r="D44" s="44">
-        <f>Reports!M36</f>
+        <f>Reports!M37</f>
         <v>24743</v>
       </c>
       <c r="E44" s="44">
-        <f>Reports!Q36</f>
+        <f>Reports!Q37</f>
         <v>23495</v>
       </c>
       <c r="F44" s="44">
-        <f>Reports!U36</f>
+        <f>Reports!U37</f>
         <v>23414</v>
       </c>
       <c r="G44" s="44">
-        <f>Reports!Y36</f>
+        <f>Reports!Y37</f>
         <v>31816</v>
       </c>
     </row>
@@ -4618,15 +4633,15 @@
         <v>82</v>
       </c>
       <c r="E46" s="44">
-        <f>Reports!Q38</f>
+        <f>Reports!Q39</f>
         <v>14548</v>
       </c>
       <c r="F46" s="44">
-        <f>Reports!U38</f>
+        <f>Reports!U39</f>
         <v>14754</v>
       </c>
       <c r="G46" s="44">
-        <f>Reports!Y38</f>
+        <f>Reports!Y39</f>
         <v>15017</v>
       </c>
     </row>
@@ -4635,15 +4650,15 @@
         <v>83</v>
       </c>
       <c r="E47" s="44">
-        <f>Reports!Q39</f>
+        <f>Reports!Q40</f>
         <v>162648</v>
       </c>
       <c r="F47" s="44">
-        <f>Reports!U39</f>
+        <f>Reports!U40</f>
         <v>225248</v>
       </c>
       <c r="G47" s="44">
-        <f>Reports!Y39</f>
+        <f>Reports!Y40</f>
         <v>321195</v>
       </c>
     </row>
@@ -4652,15 +4667,15 @@
         <v>84</v>
       </c>
       <c r="E48" s="44">
-        <f>Reports!Q40</f>
+        <f>Reports!Q41</f>
         <v>119099</v>
       </c>
       <c r="F48" s="44">
-        <f>Reports!U40</f>
+        <f>Reports!U41</f>
         <v>163188</v>
       </c>
       <c r="G48" s="44">
-        <f>Reports!Y40</f>
+        <f>Reports!Y41</f>
         <v>227791</v>
       </c>
     </row>
@@ -4709,7 +4724,7 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A53" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E53" s="19">
         <f>E28/E51</f>
@@ -4726,7 +4741,7 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A54" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E54" s="19">
         <f>E28/E47</f>
@@ -4743,7 +4758,7 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A55" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E55" s="19">
         <f>E28/(E51-E46)</f>
@@ -4760,7 +4775,7 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A56" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E56" s="19">
         <f>E28/E50</f>
@@ -5098,18 +5113,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA56"/>
+  <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA41" sqref="AA41"/>
+      <selection pane="bottomRight" activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="10.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="3" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" style="2" customWidth="1"/>
@@ -5177,28 +5192,28 @@
         <v>49</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="V1" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="Y1" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -5252,16 +5267,16 @@
         <v>53</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="V2" s="54">
         <v>43921</v>
@@ -5967,7 +5982,7 @@
         <v>97758</v>
       </c>
       <c r="AA11" s="64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -7520,7 +7535,7 @@
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="18">
-        <f t="shared" ref="F30:T32" si="59">F13/B13-1</f>
+        <f t="shared" ref="F30:T33" si="59">F13/B13-1</f>
         <v>0.280319535221496</v>
       </c>
       <c r="G30" s="17">
@@ -7779,318 +7794,381 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="3"/>
-    </row>
-    <row r="34" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="37" t="s">
+      <c r="A33" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18">
+        <f>F16/B16-1</f>
+        <v>0.28025328330206389</v>
+      </c>
+      <c r="G33" s="17">
+        <f t="shared" si="59"/>
+        <v>0.29523398749191276</v>
+      </c>
+      <c r="H33" s="17">
+        <f t="shared" si="59"/>
+        <v>0.32250203086921192</v>
+      </c>
+      <c r="I33" s="17">
+        <f>I16/E16-1</f>
+        <v>0.36021693491952411</v>
+      </c>
+      <c r="J33" s="18">
+        <f>J16/F16-1</f>
+        <v>0.379007144165598</v>
+      </c>
+      <c r="K33" s="17">
+        <f t="shared" si="59"/>
+        <v>0.44055944055944063</v>
+      </c>
+      <c r="L33" s="17">
+        <f t="shared" si="59"/>
+        <v>0.44087837837837829</v>
+      </c>
+      <c r="M33" s="17">
+        <f>M16/I16-1</f>
+        <v>0.39652733118971062</v>
+      </c>
+      <c r="N33" s="18">
+        <f>N16/J16-1</f>
+        <v>0.40648246546227407</v>
+      </c>
+      <c r="O33" s="17">
+        <f t="shared" si="59"/>
+        <v>0.31056403143781774</v>
+      </c>
+      <c r="P33" s="17">
+        <f t="shared" si="59"/>
+        <v>0.23350740701268258</v>
+      </c>
+      <c r="Q33" s="17">
+        <f>Q16/M16-1</f>
+        <v>0.2693866273715233</v>
+      </c>
+      <c r="R33" s="18">
+        <f>R16/N16-1</f>
+        <v>0.20504344540989794</v>
+      </c>
+      <c r="S33" s="17">
+        <f t="shared" si="59"/>
+        <v>0.29746891260252228</v>
+      </c>
+      <c r="T33" s="17">
+        <f t="shared" si="59"/>
+        <v>0.32668049075514083</v>
+      </c>
+      <c r="U33" s="17">
+        <f>U16/Q16-1</f>
+        <v>0.26162664151490977</v>
+      </c>
+      <c r="V33" s="18">
+        <f>V16/R16-1</f>
+        <v>0.22854455678344698</v>
+      </c>
+      <c r="W33" s="17">
+        <f t="shared" ref="V33:X33" si="61">W16/S16-1</f>
+        <v>0.12853452963567147</v>
+      </c>
+      <c r="X33" s="17">
+        <f t="shared" si="61"/>
+        <v>0.18137414522956696</v>
+      </c>
+      <c r="Y33" s="17">
+        <f>Y16/U16-1</f>
+        <v>0.20328943585025017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="3"/>
+    </row>
+    <row r="35" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="8">
-        <f>B35-B36</f>
+      <c r="B35" s="8">
+        <f>B36-B37</f>
         <v>5524</v>
       </c>
-      <c r="C34" s="8">
-        <f>C35-C36</f>
+      <c r="C35" s="8">
+        <f>C36-C37</f>
         <v>5751</v>
       </c>
-      <c r="D34" s="8">
-        <f>D35-D36</f>
+      <c r="D35" s="8">
+        <f>D36-D37</f>
         <v>6185</v>
       </c>
-      <c r="E34" s="8">
-        <f>E35-E36</f>
+      <c r="E35" s="8">
+        <f>E36-E37</f>
         <v>11581</v>
       </c>
-      <c r="F34" s="9">
-        <f>F35-F36</f>
+      <c r="F35" s="9">
+        <f>F36-F37</f>
         <v>7640</v>
       </c>
-      <c r="G34" s="8">
-        <f t="shared" ref="G34:K34" si="61">G35-G36</f>
+      <c r="G35" s="8">
+        <f t="shared" ref="G35:K35" si="62">G36-G37</f>
         <v>8328</v>
       </c>
-      <c r="H34" s="8">
-        <f t="shared" si="61"/>
+      <c r="H35" s="8">
+        <f t="shared" si="62"/>
         <v>10142</v>
       </c>
-      <c r="I34" s="8">
-        <f t="shared" si="61"/>
+      <c r="I35" s="8">
+        <f t="shared" si="62"/>
         <v>18287</v>
       </c>
-      <c r="J34" s="9">
-        <f t="shared" si="61"/>
+      <c r="J35" s="9">
+        <f t="shared" si="62"/>
         <v>13840</v>
       </c>
-      <c r="K34" s="8">
-        <f t="shared" si="61"/>
+      <c r="K35" s="8">
+        <f t="shared" si="62"/>
         <v>13768</v>
       </c>
-      <c r="L34" s="8">
-        <f>L35-L36</f>
+      <c r="L35" s="8">
+        <f>L36-L37</f>
         <v>-400</v>
       </c>
-      <c r="M34" s="8">
-        <f>M35-M36</f>
+      <c r="M35" s="8">
+        <f>M36-M37</f>
         <v>6243</v>
       </c>
-      <c r="N34" s="9">
-        <f t="shared" ref="N34" si="62">N35-N36</f>
+      <c r="N35" s="9">
+        <f t="shared" ref="N35" si="63">N36-N37</f>
         <v>323</v>
       </c>
-      <c r="O34" s="8">
-        <f t="shared" ref="O34" si="63">O35-O36</f>
+      <c r="O35" s="8">
+        <f t="shared" ref="O35" si="64">O36-O37</f>
         <v>2412</v>
       </c>
-      <c r="P34" s="8">
-        <f t="shared" ref="P34:T34" si="64">P35-P36</f>
+      <c r="P35" s="8">
+        <f t="shared" ref="P35:T35" si="65">P36-P37</f>
         <v>5081</v>
       </c>
-      <c r="Q34" s="8">
-        <f t="shared" si="64"/>
+      <c r="Q35" s="8">
+        <f t="shared" si="65"/>
         <v>17755</v>
       </c>
-      <c r="R34" s="9">
-        <f t="shared" si="64"/>
+      <c r="R35" s="9">
+        <f t="shared" si="65"/>
         <v>13745</v>
       </c>
-      <c r="S34" s="8">
-        <f t="shared" si="64"/>
+      <c r="S35" s="8">
+        <f t="shared" si="65"/>
         <v>18134</v>
       </c>
-      <c r="T34" s="8">
-        <f t="shared" si="64"/>
+      <c r="T35" s="8">
+        <f t="shared" si="65"/>
         <v>20929</v>
       </c>
-      <c r="U34" s="8">
-        <f>U35-U36</f>
+      <c r="U35" s="8">
+        <f>U36-U37</f>
         <v>31607</v>
       </c>
-      <c r="V34" s="9">
-        <f>V35-V36</f>
+      <c r="V35" s="9">
+        <f>V36-V37</f>
         <v>25855</v>
       </c>
-      <c r="W34" s="8">
-        <f t="shared" ref="W34:Y34" si="65">W35-W36</f>
+      <c r="W35" s="8">
+        <f t="shared" ref="W35:Y35" si="66">W36-W37</f>
         <v>38263</v>
       </c>
-      <c r="X34" s="8">
-        <f t="shared" si="65"/>
+      <c r="X35" s="8">
+        <f t="shared" si="66"/>
         <v>35473</v>
       </c>
-      <c r="Y34" s="8">
-        <f t="shared" si="65"/>
+      <c r="Y35" s="8">
+        <f t="shared" si="66"/>
         <v>52580</v>
       </c>
     </row>
-    <row r="35" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="28" t="s">
+    <row r="36" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B36" s="5">
         <f>10237+3544</f>
         <v>13781</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C36" s="5">
         <f>10269+3732</f>
         <v>14001</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D36" s="5">
         <f>10709+3719</f>
         <v>14428</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E36" s="5">
         <f>15890+3918</f>
         <v>19808</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F36" s="4">
         <f>12470+3389</f>
         <v>15859</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G36" s="5">
         <f>12521+4019</f>
         <v>16540</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H36" s="5">
         <f>13656+4691</f>
         <v>18347</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I36" s="5">
         <f>19334+6647</f>
         <v>25981</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J36" s="4">
         <f>15440+6091</f>
         <v>21531</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K36" s="5">
         <f>13203+8248</f>
         <v>21451</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L36" s="5">
         <f>12767+11543</f>
         <v>24310</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M36" s="5">
         <f>20522+10464</f>
         <v>30986</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N36" s="4">
         <f>16676+8287</f>
         <v>24963</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O36" s="5">
         <f>19823+7227</f>
         <v>27050</v>
       </c>
-      <c r="P35" s="5">
+      <c r="P36" s="5">
         <f>20425+9340</f>
         <v>29765</v>
       </c>
-      <c r="Q35" s="5">
+      <c r="Q36" s="5">
         <f>31750+9500</f>
         <v>41250</v>
       </c>
-      <c r="R35" s="4">
+      <c r="R36" s="4">
         <f>23115+13905</f>
         <v>37020</v>
       </c>
-      <c r="S35" s="5">
+      <c r="S36" s="5">
         <f>22616+18847</f>
         <v>41463</v>
       </c>
-      <c r="T35" s="5">
+      <c r="T36" s="5">
         <f>23255+20146</f>
         <v>43401</v>
       </c>
-      <c r="U35" s="5">
+      <c r="U36" s="5">
         <f>36092+18929</f>
         <v>55021</v>
       </c>
-      <c r="V35" s="4">
+      <c r="V36" s="4">
         <f>27201+22091</f>
         <v>49292</v>
       </c>
-      <c r="W35" s="5">
+      <c r="W36" s="5">
         <f>37466+33925</f>
         <v>71391</v>
       </c>
-      <c r="X35" s="28">
+      <c r="X36" s="28">
         <f>29930+38472</f>
         <v>68402</v>
       </c>
-      <c r="Y35" s="28">
+      <c r="Y36" s="28">
         <f>42122+42274</f>
         <v>84396</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="28" t="s">
+    <row r="37" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B37" s="5">
         <v>8257</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C37" s="5">
         <v>8250</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D37" s="5">
         <v>8243</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E37" s="5">
         <v>8227</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F37" s="4">
         <v>8219</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G37" s="5">
         <v>8212</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H37" s="5">
         <v>8205</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I37" s="5">
         <v>7694</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J37" s="4">
         <v>7691</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K37" s="5">
         <v>7683</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L37" s="5">
         <f>24710</f>
         <v>24710</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M37" s="5">
         <v>24743</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N37" s="4">
         <v>24640</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O37" s="5">
         <v>24638</v>
       </c>
-      <c r="P36" s="5">
+      <c r="P37" s="5">
         <v>24684</v>
       </c>
-      <c r="Q36" s="5">
+      <c r="Q37" s="5">
         <v>23495</v>
       </c>
-      <c r="R36" s="4">
+      <c r="R37" s="4">
         <v>23275</v>
       </c>
-      <c r="S36" s="5">
+      <c r="S37" s="5">
         <v>23329</v>
       </c>
-      <c r="T36" s="5">
+      <c r="T37" s="5">
         <v>22472</v>
       </c>
-      <c r="U36" s="5">
+      <c r="U37" s="5">
         <v>23414</v>
       </c>
-      <c r="V36" s="4">
+      <c r="V37" s="4">
         <v>23437</v>
       </c>
-      <c r="W36" s="5">
+      <c r="W37" s="5">
         <v>33128</v>
       </c>
-      <c r="X36" s="28">
+      <c r="X37" s="28">
         <v>32929</v>
       </c>
-      <c r="Y36" s="28">
+      <c r="Y37" s="28">
         <v>31816</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="4"/>
-    </row>
     <row r="38" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="61" t="s">
-        <v>82</v>
-      </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -8103,46 +8181,19 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="4">
-        <v>13388</v>
-      </c>
-      <c r="O38" s="5">
-        <v>13944</v>
-      </c>
-      <c r="P38" s="5">
-        <v>14553</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>14548</v>
-      </c>
-      <c r="R38" s="4">
-        <v>14708</v>
-      </c>
-      <c r="S38" s="5">
-        <v>14727</v>
-      </c>
-      <c r="T38" s="5">
-        <v>14734</v>
-      </c>
-      <c r="U38" s="5">
-        <v>14754</v>
-      </c>
-      <c r="V38" s="4">
-        <v>14739</v>
-      </c>
-      <c r="W38" s="5">
-        <v>14751</v>
-      </c>
-      <c r="X38" s="28">
-        <v>14960</v>
-      </c>
-      <c r="Y38" s="28">
-        <v>15017</v>
-      </c>
+      <c r="N38" s="4"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="4"/>
     </row>
     <row r="39" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -8157,45 +8208,45 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="4">
-        <v>126362</v>
+        <v>13388</v>
       </c>
       <c r="O39" s="5">
-        <v>134100</v>
+        <v>13944</v>
       </c>
       <c r="P39" s="5">
-        <v>143695</v>
+        <v>14553</v>
       </c>
       <c r="Q39" s="5">
-        <v>162648</v>
+        <v>14548</v>
       </c>
       <c r="R39" s="4">
-        <v>178102</v>
+        <v>14708</v>
       </c>
       <c r="S39" s="5">
-        <v>191351</v>
+        <v>14727</v>
       </c>
       <c r="T39" s="5">
-        <v>199099</v>
+        <v>14734</v>
       </c>
       <c r="U39" s="5">
-        <v>225248</v>
+        <v>14754</v>
       </c>
       <c r="V39" s="4">
-        <v>221238</v>
+        <v>14739</v>
       </c>
       <c r="W39" s="5">
-        <v>258314</v>
+        <v>14751</v>
       </c>
       <c r="X39" s="28">
-        <v>282179</v>
+        <v>14960</v>
       </c>
       <c r="Y39" s="28">
-        <v>321195</v>
+        <v>15017</v>
       </c>
     </row>
     <row r="40" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -8210,55 +8261,46 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="4">
-        <f>48045+24640+22214</f>
-        <v>94899</v>
+        <v>126362</v>
       </c>
       <c r="O40" s="5">
-        <f>50801+24638+23666</f>
-        <v>99105</v>
+        <v>134100</v>
       </c>
       <c r="P40" s="5">
-        <f>55324+24684+24562</f>
-        <v>104570</v>
+        <v>143695</v>
       </c>
       <c r="Q40" s="5">
-        <f>68391+23495+27213</f>
-        <v>119099</v>
+        <v>162648</v>
       </c>
       <c r="R40" s="4">
-        <f>63695+33275+23322+9400</f>
-        <v>129692</v>
+        <v>178102</v>
       </c>
       <c r="S40" s="5">
-        <f>69678+35134+23329+10149</f>
-        <v>138290</v>
+        <v>191351</v>
       </c>
       <c r="T40" s="5">
-        <f>72136+37058+22472+10925</f>
-        <v>142591</v>
+        <v>199099</v>
       </c>
       <c r="U40" s="5">
-        <f>87812+39791+23414+12171</f>
-        <v>163188</v>
+        <v>225248</v>
       </c>
       <c r="V40" s="4">
-        <f>79711+40300+23437+12518</f>
-        <v>155966</v>
+        <v>221238</v>
       </c>
       <c r="W40" s="5">
-        <f>93896+42798+33128+14764</f>
-        <v>184586</v>
+        <v>258314</v>
       </c>
       <c r="X40" s="28">
-        <f>101912+48589+32929+15974</f>
-        <v>199404</v>
+        <v>282179</v>
       </c>
       <c r="Y40" s="28">
-        <f>126385+52573+31816+17017</f>
-        <v>227791</v>
+        <v>321195</v>
       </c>
     </row>
     <row r="41" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="61" t="s">
+        <v>84</v>
+      </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -8271,20 +8313,56 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="4"/>
+      <c r="N41" s="4">
+        <f>48045+24640+22214</f>
+        <v>94899</v>
+      </c>
+      <c r="O41" s="5">
+        <f>50801+24638+23666</f>
+        <v>99105</v>
+      </c>
+      <c r="P41" s="5">
+        <f>55324+24684+24562</f>
+        <v>104570</v>
+      </c>
+      <c r="Q41" s="5">
+        <f>68391+23495+27213</f>
+        <v>119099</v>
+      </c>
+      <c r="R41" s="4">
+        <f>63695+33275+23322+9400</f>
+        <v>129692</v>
+      </c>
+      <c r="S41" s="5">
+        <f>69678+35134+23329+10149</f>
+        <v>138290</v>
+      </c>
+      <c r="T41" s="5">
+        <f>72136+37058+22472+10925</f>
+        <v>142591</v>
+      </c>
+      <c r="U41" s="5">
+        <f>87812+39791+23414+12171</f>
+        <v>163188</v>
+      </c>
+      <c r="V41" s="4">
+        <f>79711+40300+23437+12518</f>
+        <v>155966</v>
+      </c>
+      <c r="W41" s="5">
+        <f>93896+42798+33128+14764</f>
+        <v>184586</v>
+      </c>
+      <c r="X41" s="28">
+        <f>101912+48589+32929+15974</f>
+        <v>199404</v>
+      </c>
+      <c r="Y41" s="28">
+        <f>126385+52573+31816+17017</f>
+        <v>227791</v>
+      </c>
     </row>
     <row r="42" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="61" t="s">
-        <v>85</v>
-      </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -8297,58 +8375,19 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
-      <c r="N42" s="11">
-        <f t="shared" ref="N42:T42" si="66">N39-N38-N35</f>
-        <v>88011</v>
-      </c>
-      <c r="O42" s="10">
-        <f t="shared" si="66"/>
-        <v>93106</v>
-      </c>
-      <c r="P42" s="10">
-        <f t="shared" si="66"/>
-        <v>99377</v>
-      </c>
-      <c r="Q42" s="10">
-        <f t="shared" si="66"/>
-        <v>106850</v>
-      </c>
-      <c r="R42" s="11">
-        <f t="shared" si="66"/>
-        <v>126374</v>
-      </c>
-      <c r="S42" s="10">
-        <f t="shared" si="66"/>
-        <v>135161</v>
-      </c>
-      <c r="T42" s="10">
-        <f t="shared" si="66"/>
-        <v>140964</v>
-      </c>
-      <c r="U42" s="10">
-        <f>U39-U38-U35</f>
-        <v>155473</v>
-      </c>
-      <c r="V42" s="11">
-        <f>V39-V38-V35</f>
-        <v>157207</v>
-      </c>
-      <c r="W42" s="10">
-        <f t="shared" ref="W42:X42" si="67">W39-W38-W35</f>
-        <v>172172</v>
-      </c>
-      <c r="X42" s="10">
-        <f t="shared" si="67"/>
-        <v>198817</v>
-      </c>
-      <c r="Y42" s="10">
-        <f t="shared" ref="Y42" si="68">Y39-Y38-Y35</f>
-        <v>221782</v>
-      </c>
+      <c r="N42" s="4"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="4"/>
     </row>
     <row r="43" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -8363,55 +8402,58 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="11">
-        <f t="shared" ref="N43:T43" si="69">N39-N40</f>
-        <v>31463</v>
+        <f t="shared" ref="N43:T43" si="67">N40-N39-N36</f>
+        <v>88011</v>
       </c>
       <c r="O43" s="10">
-        <f t="shared" si="69"/>
-        <v>34995</v>
+        <f t="shared" si="67"/>
+        <v>93106</v>
       </c>
       <c r="P43" s="10">
-        <f t="shared" si="69"/>
-        <v>39125</v>
+        <f t="shared" si="67"/>
+        <v>99377</v>
       </c>
       <c r="Q43" s="10">
-        <f t="shared" si="69"/>
-        <v>43549</v>
+        <f t="shared" si="67"/>
+        <v>106850</v>
       </c>
       <c r="R43" s="11">
-        <f t="shared" si="69"/>
-        <v>48410</v>
+        <f t="shared" si="67"/>
+        <v>126374</v>
       </c>
       <c r="S43" s="10">
-        <f t="shared" si="69"/>
-        <v>53061</v>
+        <f t="shared" si="67"/>
+        <v>135161</v>
       </c>
       <c r="T43" s="10">
-        <f t="shared" si="69"/>
-        <v>56508</v>
+        <f t="shared" si="67"/>
+        <v>140964</v>
       </c>
       <c r="U43" s="10">
-        <f>U39-U40</f>
-        <v>62060</v>
+        <f>U40-U39-U36</f>
+        <v>155473</v>
       </c>
       <c r="V43" s="11">
-        <f>V39-V40</f>
-        <v>65272</v>
+        <f>V40-V39-V36</f>
+        <v>157207</v>
       </c>
       <c r="W43" s="10">
-        <f t="shared" ref="W43:X43" si="70">W39-W40</f>
-        <v>73728</v>
+        <f t="shared" ref="W43:X43" si="68">W40-W39-W36</f>
+        <v>172172</v>
       </c>
       <c r="X43" s="10">
-        <f t="shared" si="70"/>
-        <v>82775</v>
+        <f t="shared" si="68"/>
+        <v>198817</v>
       </c>
       <c r="Y43" s="10">
-        <f t="shared" ref="Y43" si="71">Y39-Y40</f>
-        <v>93404</v>
+        <f t="shared" ref="Y43" si="69">Y40-Y39-Y36</f>
+        <v>221782</v>
       </c>
     </row>
     <row r="44" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="61" t="s">
+        <v>86</v>
+      </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -8424,744 +8466,993 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="4"/>
-    </row>
-    <row r="45" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="9">
-        <f t="shared" ref="N45:T45" si="72">SUM(K21:N21)</f>
+      <c r="N44" s="11">
+        <f t="shared" ref="N44:T44" si="70">N40-N41</f>
+        <v>31463</v>
+      </c>
+      <c r="O44" s="10">
+        <f t="shared" si="70"/>
+        <v>34995</v>
+      </c>
+      <c r="P44" s="10">
+        <f t="shared" si="70"/>
+        <v>39125</v>
+      </c>
+      <c r="Q44" s="10">
+        <f t="shared" si="70"/>
+        <v>43549</v>
+      </c>
+      <c r="R44" s="11">
+        <f t="shared" si="70"/>
+        <v>48410</v>
+      </c>
+      <c r="S44" s="10">
+        <f t="shared" si="70"/>
+        <v>53061</v>
+      </c>
+      <c r="T44" s="10">
+        <f t="shared" si="70"/>
+        <v>56508</v>
+      </c>
+      <c r="U44" s="10">
+        <f>U40-U41</f>
+        <v>62060</v>
+      </c>
+      <c r="V44" s="11">
+        <f>V40-V41</f>
+        <v>65272</v>
+      </c>
+      <c r="W44" s="10">
+        <f t="shared" ref="W44:X44" si="71">W40-W41</f>
+        <v>73728</v>
+      </c>
+      <c r="X44" s="10">
+        <f t="shared" si="71"/>
+        <v>82775</v>
+      </c>
+      <c r="Y44" s="10">
+        <f t="shared" ref="Y44" si="72">Y40-Y41</f>
+        <v>93404</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="4"/>
+    </row>
+    <row r="46" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="9">
+        <f t="shared" ref="N46:T46" si="73">SUM(K21:N21)</f>
         <v>3938</v>
       </c>
-      <c r="O45" s="8">
-        <f t="shared" si="72"/>
+      <c r="O46" s="8">
+        <f t="shared" si="73"/>
         <v>6275</v>
       </c>
-      <c r="P45" s="8">
-        <f t="shared" si="72"/>
+      <c r="P46" s="8">
+        <f t="shared" si="73"/>
         <v>8902</v>
       </c>
-      <c r="Q45" s="8">
-        <f t="shared" si="72"/>
+      <c r="Q46" s="8">
+        <f t="shared" si="73"/>
         <v>10073</v>
       </c>
-      <c r="R45" s="9">
-        <f t="shared" si="72"/>
+      <c r="R46" s="9">
+        <f t="shared" si="73"/>
         <v>12009</v>
       </c>
-      <c r="S45" s="8">
-        <f t="shared" si="72"/>
+      <c r="S46" s="8">
+        <f t="shared" si="73"/>
         <v>12100</v>
       </c>
-      <c r="T45" s="8">
-        <f t="shared" si="72"/>
+      <c r="T46" s="8">
+        <f t="shared" si="73"/>
         <v>11351</v>
       </c>
-      <c r="U45" s="8">
+      <c r="U46" s="8">
         <f>SUM(R21:U21)</f>
         <v>11592</v>
       </c>
-      <c r="V45" s="9">
+      <c r="V46" s="9">
         <f>SUM(S21:V21)</f>
         <v>10562</v>
       </c>
-      <c r="W45" s="8">
-        <f t="shared" ref="W45:X45" si="73">SUM(T21:W21)</f>
+      <c r="W46" s="8">
+        <f t="shared" ref="W46:X46" si="74">SUM(T21:W21)</f>
         <v>13180</v>
       </c>
-      <c r="X45" s="8">
-        <f t="shared" si="73"/>
+      <c r="X46" s="8">
+        <f t="shared" si="74"/>
         <v>17289</v>
       </c>
-      <c r="Y45" s="8">
+      <c r="Y46" s="8">
         <f>SUM(V21:Y21)</f>
         <v>21243</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A46" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="N46" s="20">
-        <f t="shared" ref="N46:U46" si="74">N45/N43</f>
-        <v>0.12516288974350825</v>
-      </c>
-      <c r="O46" s="19">
-        <f t="shared" si="74"/>
-        <v>0.17931133019002715</v>
-      </c>
-      <c r="P46" s="19">
-        <f t="shared" si="74"/>
-        <v>0.22752715654952077</v>
-      </c>
-      <c r="Q46" s="19">
-        <f t="shared" si="74"/>
-        <v>0.231302670555007</v>
-      </c>
-      <c r="R46" s="20">
-        <f t="shared" si="74"/>
-        <v>0.24806858087172071</v>
-      </c>
-      <c r="S46" s="19">
-        <f t="shared" si="74"/>
-        <v>0.22803942632064983</v>
-      </c>
-      <c r="T46" s="19">
-        <f t="shared" si="74"/>
-        <v>0.20087421250088483</v>
-      </c>
-      <c r="U46" s="19">
-        <f t="shared" si="74"/>
-        <v>0.1867869803416049</v>
-      </c>
-      <c r="V46" s="20">
-        <f t="shared" ref="V46:W46" si="75">V45/V43</f>
-        <v>0.16181517342811619</v>
-      </c>
-      <c r="W46" s="19">
-        <f t="shared" si="75"/>
-        <v>0.17876519097222221</v>
-      </c>
-      <c r="X46" s="19">
-        <f t="shared" ref="X46:Y46" si="76">X45/X43</f>
-        <v>0.20886741165810932</v>
-      </c>
-      <c r="Y46" s="19">
-        <f t="shared" si="76"/>
-        <v>0.22743137338871997</v>
-      </c>
-    </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A47" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N47" s="20">
-        <f t="shared" ref="N47:U47" si="77">N45/N39</f>
-        <v>3.116443234516706E-2</v>
+        <f t="shared" ref="N47:U47" si="75">N46/N44</f>
+        <v>0.12516288974350825</v>
       </c>
       <c r="O47" s="19">
+        <f t="shared" si="75"/>
+        <v>0.17931133019002715</v>
+      </c>
+      <c r="P47" s="19">
+        <f t="shared" si="75"/>
+        <v>0.22752715654952077</v>
+      </c>
+      <c r="Q47" s="19">
+        <f t="shared" si="75"/>
+        <v>0.231302670555007</v>
+      </c>
+      <c r="R47" s="20">
+        <f t="shared" si="75"/>
+        <v>0.24806858087172071</v>
+      </c>
+      <c r="S47" s="19">
+        <f t="shared" si="75"/>
+        <v>0.22803942632064983</v>
+      </c>
+      <c r="T47" s="19">
+        <f t="shared" si="75"/>
+        <v>0.20087421250088483</v>
+      </c>
+      <c r="U47" s="19">
+        <f t="shared" si="75"/>
+        <v>0.1867869803416049</v>
+      </c>
+      <c r="V47" s="20">
+        <f t="shared" ref="V47:W47" si="76">V46/V44</f>
+        <v>0.16181517342811619</v>
+      </c>
+      <c r="W47" s="19">
+        <f t="shared" si="76"/>
+        <v>0.17876519097222221</v>
+      </c>
+      <c r="X47" s="19">
+        <f t="shared" ref="X47:Y47" si="77">X46/X44</f>
+        <v>0.20886741165810932</v>
+      </c>
+      <c r="Y47" s="19">
         <f t="shared" si="77"/>
-        <v>4.679343773303505E-2</v>
-      </c>
-      <c r="P47" s="19">
-        <f t="shared" si="77"/>
-        <v>6.1950659382720347E-2</v>
-      </c>
-      <c r="Q47" s="19">
-        <f t="shared" si="77"/>
-        <v>6.1931287196891449E-2</v>
-      </c>
-      <c r="R47" s="20">
-        <f t="shared" si="77"/>
-        <v>6.7427653816352434E-2</v>
-      </c>
-      <c r="S47" s="19">
-        <f t="shared" si="77"/>
-        <v>6.3234579385527123E-2</v>
-      </c>
-      <c r="T47" s="19">
-        <f t="shared" si="77"/>
-        <v>5.7011838331684238E-2</v>
-      </c>
-      <c r="U47" s="19">
-        <f t="shared" si="77"/>
-        <v>5.1463276033527489E-2</v>
-      </c>
-      <c r="V47" s="20">
-        <f t="shared" ref="V47:W47" si="78">V45/V39</f>
-        <v>4.7740442419475858E-2</v>
-      </c>
-      <c r="W47" s="19">
-        <f t="shared" si="78"/>
-        <v>5.1023173347166627E-2</v>
-      </c>
-      <c r="X47" s="19">
-        <f t="shared" ref="X47:Y47" si="79">X45/X39</f>
-        <v>6.1269619638598193E-2</v>
-      </c>
-      <c r="Y47" s="19">
-        <f t="shared" si="79"/>
-        <v>6.6137393172371925E-2</v>
+        <v>0.22743137338871997</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A48" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N48" s="20">
-        <f t="shared" ref="N48:U48" si="80">N45/(N43-N38)</f>
-        <v>0.21786998616874134</v>
+        <f t="shared" ref="N48:U48" si="78">N46/N40</f>
+        <v>3.116443234516706E-2</v>
       </c>
       <c r="O48" s="19">
+        <f t="shared" si="78"/>
+        <v>4.679343773303505E-2</v>
+      </c>
+      <c r="P48" s="19">
+        <f t="shared" si="78"/>
+        <v>6.1950659382720347E-2</v>
+      </c>
+      <c r="Q48" s="19">
+        <f t="shared" si="78"/>
+        <v>6.1931287196891449E-2</v>
+      </c>
+      <c r="R48" s="20">
+        <f t="shared" si="78"/>
+        <v>6.7427653816352434E-2</v>
+      </c>
+      <c r="S48" s="19">
+        <f t="shared" si="78"/>
+        <v>6.3234579385527123E-2</v>
+      </c>
+      <c r="T48" s="19">
+        <f t="shared" si="78"/>
+        <v>5.7011838331684238E-2</v>
+      </c>
+      <c r="U48" s="19">
+        <f t="shared" si="78"/>
+        <v>5.1463276033527489E-2</v>
+      </c>
+      <c r="V48" s="20">
+        <f t="shared" ref="V48:W48" si="79">V46/V40</f>
+        <v>4.7740442419475858E-2</v>
+      </c>
+      <c r="W48" s="19">
+        <f t="shared" si="79"/>
+        <v>5.1023173347166627E-2</v>
+      </c>
+      <c r="X48" s="19">
+        <f t="shared" ref="X48:Y48" si="80">X46/X40</f>
+        <v>6.1269619638598193E-2</v>
+      </c>
+      <c r="Y48" s="19">
         <f t="shared" si="80"/>
-        <v>0.29808560163412662</v>
-      </c>
-      <c r="P48" s="19">
-        <f t="shared" si="80"/>
-        <v>0.36228227250529055</v>
-      </c>
-      <c r="Q48" s="19">
-        <f t="shared" si="80"/>
-        <v>0.34733285059135893</v>
-      </c>
-      <c r="R48" s="20">
-        <f t="shared" si="80"/>
-        <v>0.35632900124621686</v>
-      </c>
-      <c r="S48" s="19">
-        <f t="shared" si="80"/>
-        <v>0.3156466844054886</v>
-      </c>
-      <c r="T48" s="19">
-        <f t="shared" si="80"/>
-        <v>0.27172403887585578</v>
-      </c>
-      <c r="U48" s="19">
-        <f t="shared" si="80"/>
-        <v>0.24504291210417284</v>
-      </c>
-      <c r="V48" s="20">
-        <f t="shared" ref="V48:W48" si="81">V45/(V43-V38)</f>
-        <v>0.20901193279639046</v>
-      </c>
-      <c r="W48" s="19">
-        <f t="shared" si="81"/>
-        <v>0.22347694864099565</v>
-      </c>
-      <c r="X48" s="19">
-        <f t="shared" ref="X48:Y48" si="82">X45/(X43-X38)</f>
-        <v>0.25494359654943599</v>
-      </c>
-      <c r="Y48" s="19">
-        <f t="shared" si="82"/>
-        <v>0.27100156913773965</v>
+        <v>6.6137393172371925E-2</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A49" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N49" s="20">
-        <f t="shared" ref="N49:U49" si="83">N45/N42</f>
+        <f t="shared" ref="N49:U49" si="81">N46/(N44-N39)</f>
+        <v>0.21786998616874134</v>
+      </c>
+      <c r="O49" s="19">
+        <f t="shared" si="81"/>
+        <v>0.29808560163412662</v>
+      </c>
+      <c r="P49" s="19">
+        <f t="shared" si="81"/>
+        <v>0.36228227250529055</v>
+      </c>
+      <c r="Q49" s="19">
+        <f t="shared" si="81"/>
+        <v>0.34733285059135893</v>
+      </c>
+      <c r="R49" s="20">
+        <f t="shared" si="81"/>
+        <v>0.35632900124621686</v>
+      </c>
+      <c r="S49" s="19">
+        <f t="shared" si="81"/>
+        <v>0.3156466844054886</v>
+      </c>
+      <c r="T49" s="19">
+        <f t="shared" si="81"/>
+        <v>0.27172403887585578</v>
+      </c>
+      <c r="U49" s="19">
+        <f t="shared" si="81"/>
+        <v>0.24504291210417284</v>
+      </c>
+      <c r="V49" s="20">
+        <f t="shared" ref="V49:W49" si="82">V46/(V44-V39)</f>
+        <v>0.20901193279639046</v>
+      </c>
+      <c r="W49" s="19">
+        <f t="shared" si="82"/>
+        <v>0.22347694864099565</v>
+      </c>
+      <c r="X49" s="19">
+        <f t="shared" ref="X49:Y49" si="83">X46/(X44-X39)</f>
+        <v>0.25494359654943599</v>
+      </c>
+      <c r="Y49" s="19">
+        <f t="shared" si="83"/>
+        <v>0.27100156913773965</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A50" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="N50" s="20">
+        <f t="shared" ref="N50:U50" si="84">N46/N43</f>
         <v>4.4744406949131357E-2</v>
       </c>
-      <c r="O49" s="19">
-        <f t="shared" si="83"/>
+      <c r="O50" s="19">
+        <f t="shared" si="84"/>
         <v>6.7396300990269151E-2</v>
       </c>
-      <c r="P49" s="19">
-        <f t="shared" si="83"/>
+      <c r="P50" s="19">
+        <f t="shared" si="84"/>
         <v>8.9578071384726843E-2</v>
       </c>
-      <c r="Q49" s="19">
-        <f t="shared" si="83"/>
+      <c r="Q50" s="19">
+        <f t="shared" si="84"/>
         <v>9.4272344408048672E-2</v>
       </c>
-      <c r="R49" s="20">
-        <f t="shared" si="83"/>
+      <c r="R50" s="20">
+        <f t="shared" si="84"/>
         <v>9.5027458179688856E-2</v>
       </c>
-      <c r="S49" s="19">
-        <f t="shared" si="83"/>
+      <c r="S50" s="19">
+        <f t="shared" si="84"/>
         <v>8.9522865323577061E-2</v>
       </c>
-      <c r="T49" s="19">
-        <f t="shared" si="83"/>
+      <c r="T50" s="19">
+        <f t="shared" si="84"/>
         <v>8.052410544536194E-2</v>
       </c>
-      <c r="U49" s="19">
-        <f t="shared" si="83"/>
+      <c r="U50" s="19">
+        <f t="shared" si="84"/>
         <v>7.4559569828844874E-2</v>
       </c>
-      <c r="V49" s="20">
-        <f t="shared" ref="V49:W49" si="84">V45/V42</f>
+      <c r="V50" s="20">
+        <f t="shared" ref="V50:W50" si="85">V46/V43</f>
         <v>6.7185303453408562E-2</v>
       </c>
-      <c r="W49" s="19">
-        <f t="shared" si="84"/>
+      <c r="W50" s="19">
+        <f t="shared" si="85"/>
         <v>7.6551355621123057E-2</v>
       </c>
-      <c r="X49" s="19">
-        <f t="shared" ref="X49:Y49" si="85">X45/X42</f>
+      <c r="X50" s="19">
+        <f t="shared" ref="X50:Y50" si="86">X46/X43</f>
         <v>8.6959364641856579E-2</v>
       </c>
-      <c r="Y49" s="19">
-        <f t="shared" si="85"/>
+      <c r="Y50" s="19">
+        <f t="shared" si="86"/>
         <v>9.5783246611537462E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-    </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A51" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F51" s="18">
-        <f t="shared" ref="F51:Y51" si="86">F3/B3-1</f>
-        <v>-5.8389674247080525E-2</v>
-      </c>
-      <c r="G51" s="21">
-        <f t="shared" si="86"/>
-        <v>-4.6018444829361904E-2</v>
-      </c>
-      <c r="H51" s="21">
-        <f t="shared" si="86"/>
-        <v>-7.2315558802045321E-2</v>
-      </c>
-      <c r="I51" s="21">
-        <f t="shared" si="86"/>
-        <v>-0.11382040669425952</v>
-      </c>
-      <c r="J51" s="22">
-        <f t="shared" si="86"/>
-        <v>0.14611367744527004</v>
-      </c>
-      <c r="K51" s="21">
-        <f t="shared" si="86"/>
-        <v>0.16566885857297087</v>
-      </c>
-      <c r="L51" s="21">
-        <f t="shared" si="86"/>
-        <v>0.22241778601204265</v>
-      </c>
-      <c r="M51" s="21">
-        <f t="shared" si="86"/>
-        <v>0.19751582224929765</v>
-      </c>
-      <c r="N51" s="22">
-        <f t="shared" si="86"/>
-        <v>0.18018925786383955</v>
-      </c>
-      <c r="O51" s="21">
-        <f t="shared" si="86"/>
-        <v>0.1435968678959334</v>
-      </c>
-      <c r="P51" s="21">
-        <f t="shared" si="86"/>
-        <v>0.10112913003940593</v>
-      </c>
-      <c r="Q51" s="21">
-        <f t="shared" si="86"/>
-        <v>0.12545572732668231</v>
-      </c>
-      <c r="R51" s="22">
-        <f t="shared" si="86"/>
-        <v>9.4992390214930111E-2</v>
-      </c>
-      <c r="S51" s="21">
-        <f t="shared" si="86"/>
-        <v>0.14312534511319708</v>
-      </c>
-      <c r="T51" s="21">
-        <f t="shared" si="86"/>
-        <v>0.20570524070059526</v>
-      </c>
-      <c r="U51" s="21">
-        <f t="shared" si="86"/>
-        <v>0.14652704535181549</v>
-      </c>
-      <c r="V51" s="22">
-        <f t="shared" si="86"/>
-        <v>0.24252491694352152</v>
-      </c>
-      <c r="W51" s="21">
-        <f t="shared" si="86"/>
-        <v>0.47798924419540789</v>
-      </c>
-      <c r="X51" s="21">
-        <f t="shared" si="86"/>
-        <v>0.37989097862381915</v>
-      </c>
-      <c r="Y51" s="21">
-        <f t="shared" si="86"/>
-        <v>0.45543947258908823</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A52" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F52" s="18"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21">
-        <f t="shared" ref="P52:Y56" si="87">P4/L4-1</f>
-        <v>2.3291536050156738</v>
-      </c>
-      <c r="Q52" s="21">
-        <f t="shared" si="87"/>
-        <v>-2.6758071649712556E-2</v>
-      </c>
-      <c r="R52" s="22">
-        <f>R4/N4-1</f>
-        <v>1.0321369927281276E-2</v>
-      </c>
-      <c r="S52" s="21">
-        <f t="shared" si="87"/>
-        <v>4.1743970315399892E-3</v>
-      </c>
-      <c r="T52" s="21">
-        <f t="shared" si="87"/>
-        <v>-1.3182674199623379E-2</v>
-      </c>
-      <c r="U52" s="21">
-        <f t="shared" si="87"/>
-        <v>-8.6344012724380859E-3</v>
-      </c>
-      <c r="V52" s="22">
-        <f t="shared" si="87"/>
-        <v>7.7315997213837973E-2</v>
-      </c>
-      <c r="W52" s="21">
-        <f t="shared" si="87"/>
-        <v>-0.12840646651270204</v>
-      </c>
-      <c r="X52" s="21">
-        <f t="shared" si="87"/>
-        <v>-9.6374045801526753E-2</v>
-      </c>
-      <c r="Y52" s="21">
-        <f t="shared" si="87"/>
-        <v>-7.8157231262892535E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A53" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F53" s="18"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="22">
-        <f t="shared" ref="J53:O56" si="88">J5/F5-1</f>
-        <v>0.340970631118517</v>
-      </c>
-      <c r="K53" s="21">
-        <f t="shared" si="88"/>
-        <v>0.37536887664764906</v>
-      </c>
-      <c r="L53" s="21">
-        <f t="shared" si="88"/>
-        <v>0.40268931351733905</v>
-      </c>
-      <c r="M53" s="21">
-        <f t="shared" si="88"/>
-        <v>0.41115730186402044</v>
-      </c>
-      <c r="N53" s="22">
-        <f t="shared" si="88"/>
-        <v>0.4391115253184219</v>
-      </c>
-      <c r="O53" s="21">
-        <f t="shared" si="88"/>
-        <v>0.38778429409240456</v>
-      </c>
-      <c r="P53" s="21">
-        <f t="shared" si="87"/>
-        <v>0.31117558022199798</v>
-      </c>
-      <c r="Q53" s="21">
-        <f t="shared" si="87"/>
-        <v>0.27178561246792743</v>
-      </c>
-      <c r="R53" s="22">
-        <f t="shared" si="87"/>
-        <v>0.20248246087425792</v>
-      </c>
-      <c r="S53" s="21">
-        <f t="shared" si="87"/>
-        <v>0.23294166151309015</v>
-      </c>
-      <c r="T53" s="21">
-        <f t="shared" si="87"/>
-        <v>0.2709956709956709</v>
-      </c>
-      <c r="U53" s="21">
-        <f t="shared" si="87"/>
-        <v>0.30359411193304942</v>
-      </c>
-      <c r="V53" s="22">
-        <f t="shared" si="87"/>
-        <v>0.29961403823714217</v>
-      </c>
-      <c r="W53" s="21">
-        <f t="shared" si="87"/>
-        <v>0.52106671125229886</v>
-      </c>
-      <c r="X53" s="21">
-        <f t="shared" si="87"/>
-        <v>0.54677565849227983</v>
-      </c>
-      <c r="Y53" s="21">
-        <f t="shared" si="87"/>
-        <v>0.56637624670411557</v>
+      <c r="A51" s="23"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+    </row>
+    <row r="52" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62">
+        <f>SUM(B10:E10)</f>
+        <v>106997</v>
+      </c>
+      <c r="F52" s="63">
+        <f>SUM(C10:F10)</f>
+        <v>113418</v>
+      </c>
+      <c r="G52" s="62">
+        <f>SUM(D10:G10)</f>
+        <v>120637</v>
+      </c>
+      <c r="H52" s="62">
+        <f>SUM(E10:H10)</f>
+        <v>127993</v>
+      </c>
+      <c r="I52" s="62">
+        <f>SUM(F10:I10)</f>
+        <v>135987</v>
+      </c>
+      <c r="J52" s="63">
+        <f>SUM(G10:J10)</f>
+        <v>142573</v>
+      </c>
+      <c r="K52" s="62">
+        <f>SUM(H10:K10)</f>
+        <v>150124</v>
+      </c>
+      <c r="L52" s="62">
+        <f>SUM(I10:L10)</f>
+        <v>161154</v>
+      </c>
+      <c r="M52" s="62">
+        <f>SUM(J10:M10)</f>
+        <v>177866</v>
+      </c>
+      <c r="N52" s="63">
+        <f>SUM(K10:N10)</f>
+        <v>193194</v>
+      </c>
+      <c r="O52" s="62">
+        <f>SUM(L10:O10)</f>
+        <v>208125</v>
+      </c>
+      <c r="P52" s="62">
+        <f>SUM(M10:P10)</f>
+        <v>220957</v>
+      </c>
+      <c r="Q52" s="62">
+        <f>SUM(N10:Q10)</f>
+        <v>232887</v>
+      </c>
+      <c r="R52" s="63">
+        <f>SUM(O10:R10)</f>
+        <v>241545</v>
+      </c>
+      <c r="S52" s="62">
+        <f>SUM(P10:S10)</f>
+        <v>252063</v>
+      </c>
+      <c r="T52" s="62">
+        <f>SUM(Q10:T10)</f>
+        <v>265468</v>
+      </c>
+      <c r="U52" s="62">
+        <f>SUM(R10:U10)</f>
+        <v>280522</v>
+      </c>
+      <c r="V52" s="63">
+        <f>SUM(S10:V10)</f>
+        <v>296274</v>
+      </c>
+      <c r="W52" s="62">
+        <f>SUM(T10:W10)</f>
+        <v>321782</v>
+      </c>
+      <c r="X52" s="62">
+        <f>SUM(U10:X10)</f>
+        <v>347949</v>
+      </c>
+      <c r="Y52" s="62">
+        <f>SUM(V10:Y10)</f>
+        <v>386067</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" s="71" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69">
+        <f>I52/E52-1</f>
+        <v>0.27094217594885839</v>
+      </c>
+      <c r="J53" s="68">
+        <f t="shared" ref="J53" si="87">J52/F52-1</f>
+        <v>0.25705796258089553</v>
+      </c>
+      <c r="K53" s="69">
+        <f t="shared" ref="K53" si="88">K52/G52-1</f>
+        <v>0.24442749736813751</v>
+      </c>
+      <c r="L53" s="69">
+        <f t="shared" ref="L53" si="89">L52/H52-1</f>
+        <v>0.25908448118256477</v>
+      </c>
+      <c r="M53" s="69">
+        <f>M52/I52-1</f>
+        <v>0.30796326119408479</v>
+      </c>
+      <c r="N53" s="68">
+        <f t="shared" ref="N53" si="90">N52/J52-1</f>
+        <v>0.35505320081642378</v>
+      </c>
+      <c r="O53" s="69">
+        <f t="shared" ref="O53" si="91">O52/K52-1</f>
+        <v>0.38635394740347984</v>
+      </c>
+      <c r="P53" s="69">
+        <f t="shared" ref="P53" si="92">P52/L52-1</f>
+        <v>0.37109224716730571</v>
+      </c>
+      <c r="Q53" s="69">
+        <f>Q52/M52-1</f>
+        <v>0.3093396152159491</v>
+      </c>
+      <c r="R53" s="68">
+        <f t="shared" ref="R53" si="93">R52/N52-1</f>
+        <v>0.2502717475698002</v>
+      </c>
+      <c r="S53" s="69">
+        <f t="shared" ref="S53" si="94">S52/O52-1</f>
+        <v>0.2111135135135136</v>
+      </c>
+      <c r="T53" s="69">
+        <f t="shared" ref="T53" si="95">T52/P52-1</f>
+        <v>0.20144643527926243</v>
+      </c>
+      <c r="U53" s="69">
+        <f>U52/Q52-1</f>
+        <v>0.20454125820676983</v>
+      </c>
+      <c r="V53" s="68">
+        <f t="shared" ref="V53:X53" si="96">V52/R52-1</f>
+        <v>0.22657889834192391</v>
+      </c>
+      <c r="W53" s="69">
+        <f t="shared" si="96"/>
+        <v>0.27659355002519215</v>
+      </c>
+      <c r="X53" s="69">
+        <f t="shared" si="96"/>
+        <v>0.31070034806455005</v>
+      </c>
+      <c r="Y53" s="69">
+        <f>Y52/U52-1</f>
+        <v>0.37624500039212605</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A54" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="22">
-        <f t="shared" si="88"/>
-        <v>0.49153846153846148</v>
-      </c>
-      <c r="K54" s="21">
-        <f t="shared" si="88"/>
-        <v>0.51292802236198454</v>
-      </c>
-      <c r="L54" s="21">
-        <f t="shared" si="88"/>
-        <v>0.59334203655352491</v>
-      </c>
-      <c r="M54" s="21">
-        <f t="shared" si="88"/>
-        <v>0.49084936649460342</v>
-      </c>
-      <c r="N54" s="22">
-        <f t="shared" si="88"/>
-        <v>0.59979370809695709</v>
-      </c>
-      <c r="O54" s="21">
-        <f t="shared" si="88"/>
-        <v>0.57413394919168592</v>
-      </c>
-      <c r="P54" s="21">
-        <f t="shared" si="87"/>
-        <v>0.51495288816058982</v>
-      </c>
-      <c r="Q54" s="21">
-        <f t="shared" si="87"/>
-        <v>0.24614416115832549</v>
-      </c>
-      <c r="R54" s="22">
-        <f t="shared" si="87"/>
-        <v>0.39974210186976133</v>
-      </c>
-      <c r="S54" s="21">
-        <f t="shared" si="87"/>
-        <v>0.3720657276995305</v>
-      </c>
-      <c r="T54" s="21">
-        <f t="shared" si="87"/>
-        <v>0.34045429962141704</v>
-      </c>
-      <c r="U54" s="21">
-        <f t="shared" si="87"/>
-        <v>0.3223036120232381</v>
-      </c>
-      <c r="V54" s="22">
-        <f t="shared" si="87"/>
-        <v>0.27959465684016571</v>
-      </c>
-      <c r="W54" s="21">
-        <f t="shared" si="87"/>
-        <v>0.28699743370402042</v>
-      </c>
-      <c r="X54" s="21">
-        <f t="shared" si="87"/>
-        <v>0.32580189630825096</v>
-      </c>
-      <c r="Y54" s="21">
-        <f t="shared" si="87"/>
-        <v>0.34880611270296091</v>
-      </c>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A55" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F55" s="18">
-        <f>F7/B7-1</f>
-        <v>0.64910025706940866</v>
+        <f t="shared" ref="F55:Y55" si="97">F3/B3-1</f>
+        <v>-5.8389674247080525E-2</v>
       </c>
       <c r="G55" s="21">
-        <f>G7/C7-1</f>
-        <v>0.58223684210526305</v>
+        <f t="shared" si="97"/>
+        <v>-4.6018444829361904E-2</v>
       </c>
       <c r="H55" s="21">
-        <f>H7/D7-1</f>
-        <v>0.54964028776978413</v>
+        <f t="shared" si="97"/>
+        <v>-7.2315558802045321E-2</v>
       </c>
       <c r="I55" s="21">
-        <f>I7/E7-1</f>
-        <v>0.47027027027027035</v>
+        <f t="shared" si="97"/>
+        <v>-0.11382040669425952</v>
       </c>
       <c r="J55" s="22">
-        <f t="shared" si="88"/>
-        <v>0.42673421667965705</v>
+        <f t="shared" si="97"/>
+        <v>0.14611367744527004</v>
       </c>
       <c r="K55" s="21">
-        <f t="shared" si="88"/>
-        <v>0.42065142065142069</v>
+        <f t="shared" si="97"/>
+        <v>0.16566885857297087</v>
       </c>
       <c r="L55" s="21">
-        <f t="shared" si="88"/>
-        <v>0.41875580315691741</v>
+        <f t="shared" si="97"/>
+        <v>0.22241778601204265</v>
       </c>
       <c r="M55" s="21">
-        <f t="shared" si="88"/>
-        <v>0.44598416289592757</v>
+        <f t="shared" si="97"/>
+        <v>0.19751582224929765</v>
       </c>
       <c r="N55" s="22">
-        <f t="shared" si="88"/>
-        <v>0.48647910406992634</v>
+        <f t="shared" si="97"/>
+        <v>0.18018925786383955</v>
       </c>
       <c r="O55" s="21">
-        <f t="shared" si="88"/>
-        <v>0.48902439024390243</v>
+        <f t="shared" si="97"/>
+        <v>0.1435968678959334</v>
       </c>
       <c r="P55" s="21">
-        <f t="shared" si="87"/>
-        <v>0.45702443280977323</v>
+        <f t="shared" si="97"/>
+        <v>0.10112913003940593</v>
       </c>
       <c r="Q55" s="21">
-        <f t="shared" si="87"/>
-        <v>0.45315861529434764</v>
+        <f t="shared" si="97"/>
+        <v>0.12545572732668231</v>
       </c>
       <c r="R55" s="22">
-        <f t="shared" si="87"/>
-        <v>0.41418596104373395</v>
+        <f t="shared" si="97"/>
+        <v>9.4992390214930111E-2</v>
       </c>
       <c r="S55" s="21">
-        <f t="shared" si="87"/>
-        <v>0.37280917280917292</v>
+        <f t="shared" si="97"/>
+        <v>0.14312534511319708</v>
       </c>
       <c r="T55" s="21">
-        <f t="shared" si="87"/>
-        <v>0.34675849678095516</v>
+        <f t="shared" si="97"/>
+        <v>0.20570524070059526</v>
       </c>
       <c r="U55" s="21">
-        <f t="shared" si="87"/>
-        <v>0.33970390309555865</v>
+        <f t="shared" si="97"/>
+        <v>0.14652704535181549</v>
       </c>
       <c r="V55" s="22">
-        <f t="shared" si="87"/>
-        <v>0.32783264033264037</v>
+        <f t="shared" si="97"/>
+        <v>0.24252491694352152</v>
       </c>
       <c r="W55" s="21">
-        <f t="shared" si="87"/>
-        <v>0.28958358191146649</v>
+        <f t="shared" si="97"/>
+        <v>0.47798924419540789</v>
       </c>
       <c r="X55" s="21">
-        <f t="shared" si="87"/>
-        <v>0.29005002779321853</v>
+        <f t="shared" si="97"/>
+        <v>0.37989097862381915</v>
       </c>
       <c r="Y55" s="21">
-        <f t="shared" si="87"/>
-        <v>0.28008840667068524</v>
+        <f t="shared" si="97"/>
+        <v>0.45543947258908823</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
-      <c r="J56" s="22">
-        <f t="shared" si="88"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21">
+        <f t="shared" ref="P56:Y60" si="98">P4/L4-1</f>
+        <v>2.3291536050156738</v>
+      </c>
+      <c r="Q56" s="21">
+        <f t="shared" si="98"/>
+        <v>-2.6758071649712556E-2</v>
+      </c>
+      <c r="R56" s="22">
+        <f>R4/N4-1</f>
+        <v>1.0321369927281276E-2</v>
+      </c>
+      <c r="S56" s="21">
+        <f t="shared" si="98"/>
+        <v>4.1743970315399892E-3</v>
+      </c>
+      <c r="T56" s="21">
+        <f t="shared" si="98"/>
+        <v>-1.3182674199623379E-2</v>
+      </c>
+      <c r="U56" s="21">
+        <f t="shared" si="98"/>
+        <v>-8.6344012724380859E-3</v>
+      </c>
+      <c r="V56" s="22">
+        <f t="shared" si="98"/>
+        <v>7.7315997213837973E-2</v>
+      </c>
+      <c r="W56" s="21">
+        <f t="shared" si="98"/>
+        <v>-0.12840646651270204</v>
+      </c>
+      <c r="X56" s="21">
+        <f t="shared" si="98"/>
+        <v>-9.6374045801526753E-2</v>
+      </c>
+      <c r="Y56" s="21">
+        <f t="shared" si="98"/>
+        <v>-7.8157231262892535E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A57" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F57" s="18"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="22">
+        <f t="shared" ref="J57:O60" si="99">J5/F5-1</f>
+        <v>0.340970631118517</v>
+      </c>
+      <c r="K57" s="21">
+        <f t="shared" si="99"/>
+        <v>0.37536887664764906</v>
+      </c>
+      <c r="L57" s="21">
+        <f t="shared" si="99"/>
+        <v>0.40268931351733905</v>
+      </c>
+      <c r="M57" s="21">
+        <f t="shared" si="99"/>
+        <v>0.41115730186402044</v>
+      </c>
+      <c r="N57" s="22">
+        <f t="shared" si="99"/>
+        <v>0.4391115253184219</v>
+      </c>
+      <c r="O57" s="21">
+        <f t="shared" si="99"/>
+        <v>0.38778429409240456</v>
+      </c>
+      <c r="P57" s="21">
+        <f t="shared" si="98"/>
+        <v>0.31117558022199798</v>
+      </c>
+      <c r="Q57" s="21">
+        <f t="shared" si="98"/>
+        <v>0.27178561246792743</v>
+      </c>
+      <c r="R57" s="22">
+        <f t="shared" si="98"/>
+        <v>0.20248246087425792</v>
+      </c>
+      <c r="S57" s="21">
+        <f t="shared" si="98"/>
+        <v>0.23294166151309015</v>
+      </c>
+      <c r="T57" s="21">
+        <f t="shared" si="98"/>
+        <v>0.2709956709956709</v>
+      </c>
+      <c r="U57" s="21">
+        <f t="shared" si="98"/>
+        <v>0.30359411193304942</v>
+      </c>
+      <c r="V57" s="22">
+        <f t="shared" si="98"/>
+        <v>0.29961403823714217</v>
+      </c>
+      <c r="W57" s="21">
+        <f t="shared" si="98"/>
+        <v>0.52106671125229886</v>
+      </c>
+      <c r="X57" s="21">
+        <f t="shared" si="98"/>
+        <v>0.54677565849227983</v>
+      </c>
+      <c r="Y57" s="21">
+        <f t="shared" si="98"/>
+        <v>0.56637624670411557</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A58" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="22">
+        <f t="shared" si="99"/>
+        <v>0.49153846153846148</v>
+      </c>
+      <c r="K58" s="21">
+        <f t="shared" si="99"/>
+        <v>0.51292802236198454</v>
+      </c>
+      <c r="L58" s="21">
+        <f t="shared" si="99"/>
+        <v>0.59334203655352491</v>
+      </c>
+      <c r="M58" s="21">
+        <f t="shared" si="99"/>
+        <v>0.49084936649460342</v>
+      </c>
+      <c r="N58" s="22">
+        <f t="shared" si="99"/>
+        <v>0.59979370809695709</v>
+      </c>
+      <c r="O58" s="21">
+        <f t="shared" si="99"/>
+        <v>0.57413394919168592</v>
+      </c>
+      <c r="P58" s="21">
+        <f t="shared" si="98"/>
+        <v>0.51495288816058982</v>
+      </c>
+      <c r="Q58" s="21">
+        <f t="shared" si="98"/>
+        <v>0.24614416115832549</v>
+      </c>
+      <c r="R58" s="22">
+        <f t="shared" si="98"/>
+        <v>0.39974210186976133</v>
+      </c>
+      <c r="S58" s="21">
+        <f t="shared" si="98"/>
+        <v>0.3720657276995305</v>
+      </c>
+      <c r="T58" s="21">
+        <f t="shared" si="98"/>
+        <v>0.34045429962141704</v>
+      </c>
+      <c r="U58" s="21">
+        <f t="shared" si="98"/>
+        <v>0.3223036120232381</v>
+      </c>
+      <c r="V58" s="22">
+        <f t="shared" si="98"/>
+        <v>0.27959465684016571</v>
+      </c>
+      <c r="W58" s="21">
+        <f t="shared" si="98"/>
+        <v>0.28699743370402042</v>
+      </c>
+      <c r="X58" s="21">
+        <f t="shared" si="98"/>
+        <v>0.32580189630825096</v>
+      </c>
+      <c r="Y58" s="21">
+        <f t="shared" si="98"/>
+        <v>0.34880611270296091</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A59" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" s="18">
+        <f>F7/B7-1</f>
+        <v>0.64910025706940866</v>
+      </c>
+      <c r="G59" s="21">
+        <f>G7/C7-1</f>
+        <v>0.58223684210526305</v>
+      </c>
+      <c r="H59" s="21">
+        <f>H7/D7-1</f>
+        <v>0.54964028776978413</v>
+      </c>
+      <c r="I59" s="21">
+        <f>I7/E7-1</f>
+        <v>0.47027027027027035</v>
+      </c>
+      <c r="J59" s="22">
+        <f t="shared" si="99"/>
+        <v>0.42673421667965705</v>
+      </c>
+      <c r="K59" s="21">
+        <f t="shared" si="99"/>
+        <v>0.42065142065142069</v>
+      </c>
+      <c r="L59" s="21">
+        <f t="shared" si="99"/>
+        <v>0.41875580315691741</v>
+      </c>
+      <c r="M59" s="21">
+        <f t="shared" si="99"/>
+        <v>0.44598416289592757</v>
+      </c>
+      <c r="N59" s="22">
+        <f t="shared" si="99"/>
+        <v>0.48647910406992634</v>
+      </c>
+      <c r="O59" s="21">
+        <f t="shared" si="99"/>
+        <v>0.48902439024390243</v>
+      </c>
+      <c r="P59" s="21">
+        <f t="shared" si="98"/>
+        <v>0.45702443280977323</v>
+      </c>
+      <c r="Q59" s="21">
+        <f t="shared" si="98"/>
+        <v>0.45315861529434764</v>
+      </c>
+      <c r="R59" s="22">
+        <f t="shared" si="98"/>
+        <v>0.41418596104373395</v>
+      </c>
+      <c r="S59" s="21">
+        <f t="shared" si="98"/>
+        <v>0.37280917280917292</v>
+      </c>
+      <c r="T59" s="21">
+        <f t="shared" si="98"/>
+        <v>0.34675849678095516</v>
+      </c>
+      <c r="U59" s="21">
+        <f t="shared" si="98"/>
+        <v>0.33970390309555865</v>
+      </c>
+      <c r="V59" s="22">
+        <f t="shared" si="98"/>
+        <v>0.32783264033264037</v>
+      </c>
+      <c r="W59" s="21">
+        <f t="shared" si="98"/>
+        <v>0.28958358191146649</v>
+      </c>
+      <c r="X59" s="21">
+        <f t="shared" si="98"/>
+        <v>0.29005002779321853</v>
+      </c>
+      <c r="Y59" s="21">
+        <f t="shared" si="98"/>
+        <v>0.28008840667068524</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A60" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" s="18"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="22">
+        <f t="shared" si="99"/>
         <v>0.55963302752293576</v>
       </c>
-      <c r="K56" s="21">
-        <f t="shared" si="88"/>
+      <c r="K60" s="21">
+        <f t="shared" si="99"/>
         <v>0.50958466453674123</v>
       </c>
-      <c r="L56" s="21">
-        <f t="shared" si="88"/>
+      <c r="L60" s="21">
+        <f t="shared" si="99"/>
         <v>0.58392101551480957</v>
       </c>
-      <c r="M56" s="21">
-        <f t="shared" si="88"/>
+      <c r="M60" s="21">
+        <f t="shared" si="99"/>
         <v>0.62149532710280364</v>
       </c>
-      <c r="N56" s="22">
-        <f t="shared" si="88"/>
+      <c r="N60" s="22">
+        <f t="shared" si="99"/>
         <v>1.3894117647058826</v>
       </c>
-      <c r="O56" s="21">
-        <f t="shared" si="88"/>
+      <c r="O60" s="21">
+        <f t="shared" si="99"/>
         <v>1.3216931216931216</v>
       </c>
-      <c r="P56" s="21">
-        <f t="shared" si="87"/>
+      <c r="P60" s="21">
+        <f t="shared" si="98"/>
         <v>1.2217275155832592</v>
       </c>
-      <c r="Q56" s="21">
-        <f t="shared" si="87"/>
+      <c r="Q60" s="21">
+        <f t="shared" si="98"/>
         <v>0.95273775216138334</v>
       </c>
-      <c r="R56" s="22">
-        <f t="shared" si="87"/>
+      <c r="R60" s="22">
+        <f t="shared" si="98"/>
         <v>0.33727227966518947</v>
       </c>
-      <c r="S56" s="21">
-        <f t="shared" si="87"/>
+      <c r="S60" s="21">
+        <f t="shared" si="98"/>
         <v>0.3682771194165908</v>
       </c>
-      <c r="T56" s="21">
-        <f t="shared" si="87"/>
+      <c r="T60" s="21">
+        <f t="shared" si="98"/>
         <v>0.43727454909819641</v>
       </c>
-      <c r="U56" s="21">
-        <f t="shared" si="87"/>
+      <c r="U60" s="21">
+        <f t="shared" si="98"/>
         <v>0.41145218417945695</v>
       </c>
-      <c r="V56" s="22">
-        <f t="shared" si="87"/>
+      <c r="V60" s="22">
+        <f t="shared" si="98"/>
         <v>0.43814432989690721</v>
       </c>
-      <c r="W56" s="21">
-        <f t="shared" si="87"/>
+      <c r="W60" s="21">
+        <f t="shared" si="98"/>
         <v>0.40606262491672229</v>
       </c>
-      <c r="X56" s="21">
-        <f t="shared" si="87"/>
+      <c r="X60" s="21">
+        <f t="shared" si="98"/>
         <v>0.50529838259899607</v>
       </c>
-      <c r="Y56" s="21">
-        <f t="shared" si="87"/>
+      <c r="Y60" s="21">
+        <f t="shared" si="98"/>
         <v>0.66290255123379338</v>
       </c>
     </row>
@@ -9193,207 +9484,207 @@
   <sheetData>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>125</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" s="52"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B9" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B11" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B12" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14" s="52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="52" t="s">
         <v>152</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B23" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B24" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B25" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B26" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B27" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="D27" s="51" t="s">
         <v>171</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="2:4" s="25" customFormat="1" x14ac:dyDescent="0.15">
@@ -9403,67 +9694,67 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B31" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B32" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B33" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B34" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B35" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B36" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B37" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
